--- a/Aurora/Requirements/User Stories/Requirement Gathering process.xlsx
+++ b/Aurora/Requirements/User Stories/Requirement Gathering process.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25207"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1067" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8271ED57-D829-4B3B-8A89-D4918A340C9F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F988AC07-8459-4748-9525-016415F9F374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day1   04.04.2022" sheetId="1" r:id="rId1"/>
     <sheet name="Day2   05.04.22" sheetId="2" r:id="rId2"/>
     <sheet name="Day 3   06.04.22" sheetId="3" r:id="rId3"/>
     <sheet name="Day 4   07.04.22" sheetId="4" r:id="rId4"/>
+    <sheet name="Day 5   08.04.2022" sheetId="6" r:id="rId5"/>
+    <sheet name="Day6   09.04.2022" sheetId="7" r:id="rId6"/>
+    <sheet name="Day7   11.04.2022" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="279">
   <si>
     <t>Actors</t>
   </si>
@@ -894,6 +897,12 @@
     <t>To Invite users to the article, he needs to write article</t>
   </si>
   <si>
+    <t>Day 4 -Minutes of Meeting</t>
+  </si>
+  <si>
+    <t>In Github,Everybody needs to Push on their own</t>
+  </si>
+  <si>
     <t>For reading a article, I need to login to the application and in the list of articles I can select the particular article and view that article</t>
   </si>
   <si>
@@ -903,6 +912,9 @@
     <t>For Reading a articles I need to view a article</t>
   </si>
   <si>
+    <t>Title in the register and login page should be changed</t>
+  </si>
+  <si>
     <t>Article Reader</t>
   </si>
   <si>
@@ -915,6 +927,9 @@
     <t>For share a articles I need to view a article</t>
   </si>
   <si>
+    <t>Employee Id should be ACE NO</t>
+  </si>
+  <si>
     <t>To like the article,I need to login to the application and in the list of articles I can select the particular article and view that specific article and like that article.</t>
   </si>
   <si>
@@ -924,18 +939,39 @@
     <t>For like a articles I need to view a article</t>
   </si>
   <si>
+    <t>Mail id should be mail address</t>
+  </si>
+  <si>
     <t>To Follow the author,I need to login to the application and in the list of articles I can select the particular article and view that specific article and follow that author</t>
   </si>
   <si>
     <t>For follow the author, I need to view a article</t>
   </si>
   <si>
+    <t>No Acronyms</t>
+  </si>
+  <si>
+    <t>Consistency in the project</t>
+  </si>
+  <si>
+    <t>Navigatability in the project</t>
+  </si>
+  <si>
+    <t>Remove the before login home page</t>
+  </si>
+  <si>
+    <t>Dropdown in the top menu bar for my articles,logout,profiles,my queries</t>
+  </si>
+  <si>
     <t>To raise the query in the forum,I  need to login the application and i will search for the query i needed If it is not there i will raise query.</t>
   </si>
   <si>
     <t>No Constraints</t>
   </si>
   <si>
+    <t>Add my queries</t>
+  </si>
+  <si>
     <t>To search the query in the forum ,I need to login the application and i can search for the already raised query so that i can get solutions .</t>
   </si>
   <si>
@@ -945,6 +981,9 @@
     <t>To search the queries,i need the query.</t>
   </si>
   <si>
+    <t>anyone text or button for logout</t>
+  </si>
+  <si>
     <t>To give the verified mark,I need to login the application .If the raised query is solved then i will give verified mark.</t>
   </si>
   <si>
@@ -954,6 +993,15 @@
     <t>To verify the answer,i need the exact answers</t>
   </si>
   <si>
+    <t>For viewing articles and queries we need scrollbar,scrollarrow</t>
+  </si>
+  <si>
+    <t>Commentbox page</t>
+  </si>
+  <si>
+    <t>Notification page</t>
+  </si>
+  <si>
     <t>I can able to answer Queries raised by anyone in the technical forum, So that I can solve the problem of others.</t>
   </si>
   <si>
@@ -966,6 +1014,9 @@
     <t>To Solve the queries,i need the query.</t>
   </si>
   <si>
+    <t>For share and like keep icons</t>
+  </si>
+  <si>
     <t>I can also interact with query raiser, So that I can understand the question more clearly.</t>
   </si>
   <si>
@@ -975,6 +1026,9 @@
     <t>To Interact with raiser,I need to write some query.</t>
   </si>
   <si>
+    <t>Author page needs to be detailed</t>
+  </si>
+  <si>
     <t>I can Report Spam Queries, So that I can minimize wrongings.</t>
   </si>
   <si>
@@ -984,9 +1038,21 @@
     <t xml:space="preserve"> To report spam Query,If there is some sensitive content</t>
   </si>
   <si>
+    <t>Alignments should be kept</t>
+  </si>
+  <si>
+    <t>Search filter should be kept for searching</t>
+  </si>
+  <si>
+    <t>Published and draft should be kept in the same page</t>
+  </si>
+  <si>
     <t>Given that I can view the overview of the dashboard</t>
   </si>
   <si>
+    <t>Create article in the my article</t>
+  </si>
+  <si>
     <t>I can approve the correct employee who belongs to our organisation else I will reject his/her registration process . If a employee is accepted he/she can has access to read and write the article and raise queries or solve the unsolved queries.</t>
   </si>
   <si>
@@ -996,6 +1062,9 @@
     <t>User Should Register</t>
   </si>
   <si>
+    <t>in update title should be editable</t>
+  </si>
+  <si>
     <t>When the author is good writer and he is giving good content to the fourm so I can give ratings to the author and I can assign ranking to the specific Author</t>
   </si>
   <si>
@@ -1005,6 +1074,9 @@
     <t>Author should write article</t>
   </si>
   <si>
+    <t>icons should be small</t>
+  </si>
+  <si>
     <t>When a list of article is reaching us for verification our approvers should verify and approve that article .So there is a set of approvers will be there . I can maintain the list of approver.</t>
   </si>
   <si>
@@ -1014,6 +1086,9 @@
     <t>Approver's should be added</t>
   </si>
   <si>
+    <t>verify and publish should be changed into submit</t>
+  </si>
+  <si>
     <t xml:space="preserve">When some user is reporting, that query is spam content  then I can able to verify and remove it . once a query is removed notification will be sent to the specific user with reason for the removal. </t>
   </si>
   <si>
@@ -1023,9 +1098,18 @@
     <t>Some query should be there for raising the report</t>
   </si>
   <si>
+    <t>pleasant screen in the query</t>
+  </si>
+  <si>
+    <t>Report spam should be kept in the side</t>
+  </si>
+  <si>
     <t>Given that I can verify and Publish articles  When someone request for publishing the article.</t>
   </si>
   <si>
+    <t>Remove employee should be removed ,edit and remove</t>
+  </si>
+  <si>
     <t>To Verify the article,I need to login and select any article from the list of articles written by Authors ,then I can Verify it.</t>
   </si>
   <si>
@@ -1035,6 +1119,9 @@
     <t>To review the article,I need to login</t>
   </si>
   <si>
+    <t>Many screens needs to be removed</t>
+  </si>
+  <si>
     <t>When the  Content in the Article is Valid and Relevant to the title ,I will publish the article.</t>
   </si>
   <si>
@@ -1044,6 +1131,9 @@
     <t>To  Review the article,I need Articles .</t>
   </si>
   <si>
+    <t>In registration, there will be a approve and reject</t>
+  </si>
+  <si>
     <t>When the Content in the Article contains any gramatical  mistakes,content not relevant ,I will Reject it and send reason to the Author.</t>
   </si>
   <si>
@@ -1053,6 +1143,9 @@
     <t>To Publish the article ,I need valid Article</t>
   </si>
   <si>
+    <t>Give mark as Reviewer in the page</t>
+  </si>
+  <si>
     <t>When I am Reviewing any article,I will mark it as UnderReview</t>
   </si>
   <si>
@@ -1060,13 +1153,118 @@
   </si>
   <si>
     <t>Reviewer flow</t>
+  </si>
+  <si>
+    <t>Day 5 -Minutes of Meeting</t>
+  </si>
+  <si>
+    <t>Change Foget Password? to Forgot Password?</t>
+  </si>
+  <si>
+    <t>In Login Page ,align the login button.</t>
+  </si>
+  <si>
+    <t>Change ACE No to ACE Number</t>
+  </si>
+  <si>
+    <t>Left arrow in the home page</t>
+  </si>
+  <si>
+    <t>Query is hidden in the home page</t>
+  </si>
+  <si>
+    <t>Collapse functionality should be kept</t>
+  </si>
+  <si>
+    <t>Range search for date</t>
+  </si>
+  <si>
+    <t>Search result ,Clear history</t>
+  </si>
+  <si>
+    <t>Pagination in the all pages</t>
+  </si>
+  <si>
+    <t>Report spam button to top</t>
+  </si>
+  <si>
+    <t>comment icon should be moved</t>
+  </si>
+  <si>
+    <t>My profile to username</t>
+  </si>
+  <si>
+    <t>3-4 article submit notification</t>
+  </si>
+  <si>
+    <t>Total no of query to be added in the admin panel</t>
+  </si>
+  <si>
+    <t>No of articles,no of queries,no of articles for verfication</t>
+  </si>
+  <si>
+    <t>if you delete particular person id what happens to the article</t>
+  </si>
+  <si>
+    <t>Rejection list</t>
+  </si>
+  <si>
+    <t>under review la reviewer name</t>
+  </si>
+  <si>
+    <t>block of text change to text box</t>
+  </si>
+  <si>
+    <t>Start creating entities</t>
+  </si>
+  <si>
+    <t>Day 6 -Minutes of Meeting</t>
+  </si>
+  <si>
+    <t>Between dates filter should be kept in article search</t>
+  </si>
+  <si>
+    <t>Solved and unsolved queries should be placed correctly(Filter)</t>
+  </si>
+  <si>
+    <t>Search query should be used</t>
+  </si>
+  <si>
+    <t>View more option should be in context like view queries</t>
+  </si>
+  <si>
+    <t>Button for Report query should be alligned</t>
+  </si>
+  <si>
+    <t>Date text Control should be in date format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notification Message   should be given correctly                                                                               </t>
+  </si>
+  <si>
+    <t>Dashboard alignment in admin (Active and non active Users)</t>
+  </si>
+  <si>
+    <t>Login access should be changed as User disable in admin side</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In brudCrum Spam Reports should be as same as in the dashboard in brudCrum</t>
+  </si>
+  <si>
+    <t>Multiple responsibility in status for admin(Reviewer Name)</t>
+  </si>
+  <si>
+    <t>Articles Reviewed name should be change in Reviewer dashboard</t>
+  </si>
+  <si>
+    <t>Day 7 -Minutes of Meeting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1217,8 +1415,29 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFF4B084"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1331,7 +1550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1374,8 +1593,6 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1383,13 +1600,14 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2089,8 +2307,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>10487025</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2208,6 +2426,717 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2686050" y="28670250"/>
+          <a:ext cx="10391775" cy="1885950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10487025</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B5EB6AE-A608-464B-B381-8324B4DEB263}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2686050" y="9810750"/>
+          <a:ext cx="10487025" cy="10887075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10467975</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{497AB096-113B-424E-AFDE-ED314755C75B}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1B5EB6AE-A608-464B-B381-8324B4DEB263}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2686050" y="21469350"/>
+          <a:ext cx="10467975" cy="6229350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10391775</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0624DD4-8F40-420D-857A-4D4594E32FED}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{497AB096-113B-424E-AFDE-ED314755C75B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2686050" y="28651200"/>
+          <a:ext cx="10391775" cy="1885950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10487025</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EC943F4-26BF-47CD-93EB-58017C53DBAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2686050" y="9810750"/>
+          <a:ext cx="10487025" cy="10887075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10467975</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{487058C1-9753-4858-AB4E-5EB5277D3E76}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3EC943F4-26BF-47CD-93EB-58017C53DBAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2686050" y="21488400"/>
+          <a:ext cx="10467975" cy="6229350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10391775</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21717572-C567-4DF8-9335-01DD614DBDB7}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{487058C1-9753-4858-AB4E-5EB5277D3E76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2686050" y="28679775"/>
+          <a:ext cx="10391775" cy="1885950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10487025</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2EA6BCC-5F3D-4838-8F7A-A50BD90C6BF8}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{21717572-C567-4DF8-9335-01DD614DBDB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2686050" y="9810750"/>
+          <a:ext cx="10487025" cy="10887075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10467975</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92B86D90-6533-43E9-848A-67BD7FDC704F}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C2EA6BCC-5F3D-4838-8F7A-A50BD90C6BF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2686050" y="21488400"/>
+          <a:ext cx="10467975" cy="6229350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10391775</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EC95D97-95E7-4324-9A56-AF020DEB4D83}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{92B86D90-6533-43E9-848A-67BD7FDC704F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2686050" y="28679775"/>
+          <a:ext cx="10391775" cy="1885950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10487025</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1923E70A-E0B6-450F-B5B0-1942EE523447}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2686050" y="9810750"/>
+          <a:ext cx="10487025" cy="10887075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10467975</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D62F3C9-1033-46CE-8440-CA9B382B77A5}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1923E70A-E0B6-450F-B5B0-1942EE523447}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2686050" y="21488400"/>
+          <a:ext cx="10467975" cy="6229350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10391775</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F13AD915-FD8D-4E99-B161-34703B625F44}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0D62F3C9-1033-46CE-8440-CA9B382B77A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2686050" y="28679775"/>
+          <a:ext cx="10391775" cy="1885950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10487025</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4BE2803-5188-4BA2-B1CA-E87605BD4B36}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F13AD915-FD8D-4E99-B161-34703B625F44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2686050" y="9810750"/>
+          <a:ext cx="10487025" cy="10887075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10467975</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7859BC76-71C9-4871-8BA0-63D5D09F1478}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B4BE2803-5188-4BA2-B1CA-E87605BD4B36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2686050" y="21488400"/>
+          <a:ext cx="10467975" cy="6229350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10391775</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DED2FD9-E37F-4896-AE87-778AD0139504}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7859BC76-71C9-4871-8BA0-63D5D09F1478}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2686050" y="28679775"/>
           <a:ext cx="10391775" cy="1885950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2537,7 +3466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="4:32" ht="15.75">
+    <row r="6" spans="4:32">
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
@@ -2557,7 +3486,7 @@
       <c r="AE6" s="10"/>
       <c r="AF6" s="10"/>
     </row>
-    <row r="7" spans="4:32" ht="15.75">
+    <row r="7" spans="4:32">
       <c r="O7" s="10"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
@@ -2577,7 +3506,7 @@
       <c r="AE7" s="11"/>
       <c r="AF7" s="11"/>
     </row>
-    <row r="8" spans="4:32" ht="18.75">
+    <row r="8" spans="4:32" ht="18">
       <c r="D8" s="1" t="s">
         <v>1</v>
       </c>
@@ -2602,7 +3531,7 @@
       <c r="AE8" s="11"/>
       <c r="AF8" s="11"/>
     </row>
-    <row r="9" spans="4:32" ht="18.75">
+    <row r="9" spans="4:32" ht="18">
       <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
@@ -2652,7 +3581,7 @@
       <c r="AE10" s="11"/>
       <c r="AF10" s="11"/>
     </row>
-    <row r="11" spans="4:32" ht="15.75">
+    <row r="11" spans="4:32">
       <c r="O11" s="10"/>
       <c r="P11" s="11">
         <v>2</v>
@@ -2676,7 +3605,7 @@
       <c r="AE11" s="11"/>
       <c r="AF11" s="11"/>
     </row>
-    <row r="12" spans="4:32" ht="18.75">
+    <row r="12" spans="4:32" ht="18">
       <c r="D12" s="1" t="s">
         <v>7</v>
       </c>
@@ -2703,7 +3632,7 @@
       <c r="AE12" s="11"/>
       <c r="AF12" s="11"/>
     </row>
-    <row r="13" spans="4:32" ht="18.75">
+    <row r="13" spans="4:32" ht="18">
       <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
@@ -2730,7 +3659,7 @@
       <c r="AE13" s="11"/>
       <c r="AF13" s="11"/>
     </row>
-    <row r="14" spans="4:32" ht="18.75">
+    <row r="14" spans="4:32" ht="18">
       <c r="D14" s="1" t="s">
         <v>11</v>
       </c>
@@ -2757,7 +3686,7 @@
       <c r="AE14" s="11"/>
       <c r="AF14" s="11"/>
     </row>
-    <row r="15" spans="4:32" ht="18.75">
+    <row r="15" spans="4:32" ht="18">
       <c r="D15" s="2" t="s">
         <v>13</v>
       </c>
@@ -2784,7 +3713,7 @@
       <c r="AE15" s="11"/>
       <c r="AF15" s="11"/>
     </row>
-    <row r="16" spans="4:32" ht="18.75">
+    <row r="16" spans="4:32" ht="18">
       <c r="D16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2811,7 +3740,7 @@
       <c r="AE16" s="11"/>
       <c r="AF16" s="11"/>
     </row>
-    <row r="17" spans="4:32" ht="18.75">
+    <row r="17" spans="4:32" ht="18">
       <c r="D17" s="1" t="s">
         <v>17</v>
       </c>
@@ -2838,7 +3767,7 @@
       <c r="AE17" s="11"/>
       <c r="AF17" s="11"/>
     </row>
-    <row r="18" spans="4:32" ht="18.75">
+    <row r="18" spans="4:32" ht="18">
       <c r="D18" s="1" t="s">
         <v>19</v>
       </c>
@@ -2865,7 +3794,7 @@
       <c r="AE18" s="11"/>
       <c r="AF18" s="11"/>
     </row>
-    <row r="19" spans="4:32" ht="18.75">
+    <row r="19" spans="4:32" ht="18">
       <c r="D19" s="1" t="s">
         <v>21</v>
       </c>
@@ -2892,7 +3821,7 @@
       <c r="AE19" s="11"/>
       <c r="AF19" s="11"/>
     </row>
-    <row r="20" spans="4:32" ht="18.75">
+    <row r="20" spans="4:32" ht="18">
       <c r="D20" s="2" t="s">
         <v>13</v>
       </c>
@@ -2919,7 +3848,7 @@
       <c r="AE20" s="11"/>
       <c r="AF20" s="11"/>
     </row>
-    <row r="21" spans="4:32" ht="18.75">
+    <row r="21" spans="4:32" ht="18">
       <c r="D21" s="2" t="s">
         <v>13</v>
       </c>
@@ -2946,7 +3875,7 @@
       <c r="AE21" s="11"/>
       <c r="AF21" s="11"/>
     </row>
-    <row r="22" spans="4:32" ht="18.75">
+    <row r="22" spans="4:32" ht="18">
       <c r="D22" s="1" t="s">
         <v>25</v>
       </c>
@@ -2969,7 +3898,7 @@
       <c r="AE22" s="11"/>
       <c r="AF22" s="11"/>
     </row>
-    <row r="23" spans="4:32" ht="18.75">
+    <row r="23" spans="4:32" ht="18">
       <c r="D23" s="1" t="s">
         <v>26</v>
       </c>
@@ -2992,7 +3921,7 @@
       <c r="AE23" s="11"/>
       <c r="AF23" s="11"/>
     </row>
-    <row r="24" spans="4:32" ht="18.75">
+    <row r="24" spans="4:32" ht="18">
       <c r="D24" s="1" t="s">
         <v>27</v>
       </c>
@@ -3015,37 +3944,37 @@
       <c r="AE24" s="11"/>
       <c r="AF24" s="11"/>
     </row>
-    <row r="25" spans="4:32" ht="18.75">
+    <row r="25" spans="4:32" ht="18">
       <c r="D25" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="4:32" ht="18.75">
+    <row r="26" spans="4:32" ht="18">
       <c r="D26" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="4:32" ht="18.75">
+    <row r="27" spans="4:32" ht="18">
       <c r="D27" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="4:32" ht="18.75">
+    <row r="28" spans="4:32" ht="18">
       <c r="D28" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="4:32" ht="18.75">
+    <row r="29" spans="4:32" ht="18">
       <c r="D29" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="4:32" ht="18.75">
+    <row r="30" spans="4:32" ht="18">
       <c r="D30" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="4:32" ht="18.75">
+    <row r="31" spans="4:32" ht="18">
       <c r="D31" s="1" t="s">
         <v>33</v>
       </c>
@@ -3196,11 +4125,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36926E04-CA90-4C00-B9CA-D6AA30EAC21F}">
   <dimension ref="A1:AX172"/>
   <sheetViews>
-    <sheetView topLeftCell="L9" workbookViewId="0">
+    <sheetView topLeftCell="L44" workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="35.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="178.140625" style="3" customWidth="1"/>
@@ -3210,7 +4139,7 @@
     <col min="34" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>55</v>
       </c>
@@ -3218,7 +4147,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>57</v>
       </c>
@@ -3226,33 +4155,33 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75">
+    <row r="3" spans="1:6">
       <c r="B3" s="18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.75">
+    <row r="4" spans="1:6">
       <c r="B4" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18.75">
+    <row r="5" spans="1:6">
       <c r="B5" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18.75">
+    <row r="6" spans="1:6">
       <c r="B6" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18.75">
+    <row r="7" spans="1:6">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="18.75">
+    <row r="8" spans="1:6">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="18.75">
+    <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
         <v>63</v>
       </c>
@@ -3263,7 +4192,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18.75">
+    <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
         <v>66</v>
       </c>
@@ -3271,30 +4200,27 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18.75">
+    <row r="11" spans="1:6">
       <c r="B11" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18.75">
+    <row r="12" spans="1:6">
       <c r="B12" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18.75">
+    <row r="13" spans="1:6">
       <c r="B13" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18.75"/>
-    <row r="15" spans="1:6" ht="18.75"/>
-    <row r="16" spans="1:6" ht="18.75"/>
-    <row r="17" spans="1:4" ht="18.75">
+    <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18.75">
+    <row r="18" spans="1:4">
       <c r="A18" s="16" t="s">
         <v>72</v>
       </c>
@@ -3302,7 +4228,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="26.25">
+    <row r="19" spans="1:4" ht="25.5">
       <c r="B19" s="1" t="s">
         <v>74</v>
       </c>
@@ -3310,14 +4236,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18.75">
+    <row r="20" spans="1:4">
       <c r="B20" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18.75"/>
-    <row r="22" spans="1:4" ht="18.75"/>
-    <row r="23" spans="1:4" ht="18.75">
+    <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
         <v>77</v>
       </c>
@@ -3325,7 +4249,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18.75">
+    <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
         <v>79</v>
       </c>
@@ -3333,10 +4257,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18.75"/>
-    <row r="26" spans="1:4" ht="18.75"/>
-    <row r="27" spans="1:4" ht="18.75"/>
-    <row r="28" spans="1:4" ht="18.75">
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
         <v>81</v>
       </c>
@@ -3344,7 +4265,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18.75">
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
         <v>83</v>
       </c>
@@ -3352,23 +4273,22 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="18.75">
+    <row r="30" spans="1:4">
       <c r="B30" s="17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="18.75">
+    <row r="31" spans="1:4">
       <c r="B31" s="17" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="18.75">
+    <row r="32" spans="1:4">
       <c r="B32" s="17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="18.75"/>
-    <row r="34" spans="1:2" ht="18.75">
+    <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
         <v>88</v>
       </c>
@@ -3376,7 +4296,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="18.75">
+    <row r="35" spans="1:2">
       <c r="A35" s="3" t="s">
         <v>90</v>
       </c>
@@ -3384,20 +4304,20 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="18.75">
+    <row r="36" spans="1:2">
       <c r="B36" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="18.75">
+    <row r="37" spans="1:2">
       <c r="B37" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="18.75">
+    <row r="38" spans="1:2">
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="1:2" ht="45">
+    <row r="39" spans="1:2" ht="44.25">
       <c r="A39" s="3" t="s">
         <v>0</v>
       </c>
@@ -3405,16 +4325,16 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="18.75">
+    <row r="40" spans="1:2">
       <c r="B40" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="18.75">
+    <row r="41" spans="1:2">
       <c r="A41"/>
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="1:2" ht="18.75">
+    <row r="42" spans="1:2">
       <c r="A42" s="3" t="s">
         <v>57</v>
       </c>
@@ -3422,25 +4342,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="18.75"/>
-    <row r="44" spans="1:2" ht="18.75"/>
-    <row r="45" spans="1:2" ht="18.75">
+    <row r="45" spans="1:2">
       <c r="B45" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="18.75">
+    <row r="46" spans="1:2">
       <c r="B46" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="18.75">
+    <row r="47" spans="1:2">
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="1:2" ht="18.75">
+    <row r="48" spans="1:2">
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="1:50" ht="18.75">
+    <row r="49" spans="1:50">
       <c r="AG49" s="11"/>
       <c r="AH49" s="11"/>
       <c r="AI49" s="11"/>
@@ -3460,7 +4378,7 @@
       <c r="AW49" s="11"/>
       <c r="AX49" s="11"/>
     </row>
-    <row r="50" spans="1:50" ht="18.75">
+    <row r="50" spans="1:50">
       <c r="AG50" s="11"/>
       <c r="AH50" s="11"/>
       <c r="AI50" s="12" t="s">
@@ -3482,7 +4400,7 @@
       <c r="AW50" s="11"/>
       <c r="AX50" s="11"/>
     </row>
-    <row r="51" spans="1:50" ht="18.75">
+    <row r="51" spans="1:50">
       <c r="B51" s="1" t="s">
         <v>13</v>
       </c>
@@ -3505,7 +4423,7 @@
       <c r="AW51" s="11"/>
       <c r="AX51" s="11"/>
     </row>
-    <row r="52" spans="1:50" ht="18.75">
+    <row r="52" spans="1:50">
       <c r="AG52" s="11">
         <v>1</v>
       </c>
@@ -3529,7 +4447,7 @@
       <c r="AW52" s="11"/>
       <c r="AX52" s="11"/>
     </row>
-    <row r="53" spans="1:50" ht="18.75">
+    <row r="53" spans="1:50">
       <c r="AG53" s="11">
         <v>2</v>
       </c>
@@ -3553,7 +4471,7 @@
       <c r="AW53" s="11"/>
       <c r="AX53" s="11"/>
     </row>
-    <row r="54" spans="1:50" ht="18.75">
+    <row r="54" spans="1:50">
       <c r="AG54" s="11">
         <v>3</v>
       </c>
@@ -3577,7 +4495,7 @@
       <c r="AW54" s="11"/>
       <c r="AX54" s="11"/>
     </row>
-    <row r="55" spans="1:50" ht="18.75">
+    <row r="55" spans="1:50">
       <c r="D55" s="3" t="s">
         <v>97</v>
       </c>
@@ -3604,7 +4522,7 @@
       <c r="AW55" s="11"/>
       <c r="AX55" s="11"/>
     </row>
-    <row r="56" spans="1:50" ht="18.75">
+    <row r="56" spans="1:50">
       <c r="AG56" s="11">
         <v>5</v>
       </c>
@@ -3628,7 +4546,7 @@
       <c r="AW56" s="11"/>
       <c r="AX56" s="11"/>
     </row>
-    <row r="57" spans="1:50" ht="18.75">
+    <row r="57" spans="1:50">
       <c r="A57" s="3" t="s">
         <v>66</v>
       </c>
@@ -3655,7 +4573,7 @@
       <c r="AW57" s="11"/>
       <c r="AX57" s="11"/>
     </row>
-    <row r="58" spans="1:50" ht="18.75">
+    <row r="58" spans="1:50">
       <c r="AG58" s="11">
         <v>7</v>
       </c>
@@ -3679,7 +4597,7 @@
       <c r="AW58" s="11"/>
       <c r="AX58" s="11"/>
     </row>
-    <row r="59" spans="1:50" ht="18.75">
+    <row r="59" spans="1:50">
       <c r="AG59" s="11">
         <v>8</v>
       </c>
@@ -3703,7 +4621,7 @@
       <c r="AW59" s="11"/>
       <c r="AX59" s="11"/>
     </row>
-    <row r="60" spans="1:50" ht="18.75">
+    <row r="60" spans="1:50">
       <c r="AG60" s="11">
         <v>9</v>
       </c>
@@ -3727,7 +4645,7 @@
       <c r="AW60" s="11"/>
       <c r="AX60" s="11"/>
     </row>
-    <row r="61" spans="1:50" ht="18.75">
+    <row r="61" spans="1:50">
       <c r="AG61" s="11">
         <v>10</v>
       </c>
@@ -3751,7 +4669,7 @@
       <c r="AW61" s="11"/>
       <c r="AX61" s="11"/>
     </row>
-    <row r="62" spans="1:50" ht="18.75">
+    <row r="62" spans="1:50">
       <c r="AG62" s="11">
         <v>11</v>
       </c>
@@ -3775,7 +4693,7 @@
       <c r="AW62" s="11"/>
       <c r="AX62" s="11"/>
     </row>
-    <row r="63" spans="1:50" ht="18.75">
+    <row r="63" spans="1:50">
       <c r="AG63" s="11">
         <v>12</v>
       </c>
@@ -3799,7 +4717,7 @@
       <c r="AW63" s="11"/>
       <c r="AX63" s="11"/>
     </row>
-    <row r="64" spans="1:50" ht="18.75">
+    <row r="64" spans="1:50">
       <c r="AG64" s="11">
         <v>13</v>
       </c>
@@ -3823,7 +4741,7 @@
       <c r="AW64" s="11"/>
       <c r="AX64" s="11"/>
     </row>
-    <row r="65" spans="1:50" ht="18.75">
+    <row r="65" spans="1:50">
       <c r="AG65" s="11">
         <v>14</v>
       </c>
@@ -3847,7 +4765,7 @@
       <c r="AW65" s="11"/>
       <c r="AX65" s="11"/>
     </row>
-    <row r="66" spans="1:50" ht="18.75">
+    <row r="66" spans="1:50">
       <c r="AG66" s="11"/>
       <c r="AH66" s="11"/>
       <c r="AI66" s="11"/>
@@ -3867,7 +4785,7 @@
       <c r="AW66" s="11"/>
       <c r="AX66" s="11"/>
     </row>
-    <row r="67" spans="1:50" ht="18.75">
+    <row r="67" spans="1:50">
       <c r="AG67" s="33" t="s">
         <v>109</v>
       </c>
@@ -3891,7 +4809,7 @@
       <c r="AW67" s="11"/>
       <c r="AX67" s="11"/>
     </row>
-    <row r="68" spans="1:50" ht="18.75">
+    <row r="68" spans="1:50">
       <c r="AG68" s="11"/>
       <c r="AH68" s="11"/>
       <c r="AI68" s="11"/>
@@ -3911,246 +4829,246 @@
       <c r="AW68" s="11"/>
       <c r="AX68" s="11"/>
     </row>
-    <row r="75" spans="1:50" ht="18.75">
+    <row r="75" spans="1:50">
       <c r="A75" s="20" t="s">
         <v>111</v>
       </c>
       <c r="B75" s="24"/>
     </row>
-    <row r="76" spans="1:50" ht="18.75">
+    <row r="76" spans="1:50">
       <c r="B76" s="24"/>
     </row>
-    <row r="77" spans="1:50" ht="18.75">
+    <row r="77" spans="1:50">
       <c r="B77" s="24"/>
     </row>
-    <row r="78" spans="1:50" ht="18.75">
+    <row r="78" spans="1:50">
       <c r="B78" s="24"/>
     </row>
-    <row r="79" spans="1:50" ht="18.75">
+    <row r="79" spans="1:50">
       <c r="B79" s="24"/>
     </row>
-    <row r="80" spans="1:50" ht="18.75">
+    <row r="80" spans="1:50">
       <c r="B80" s="24"/>
     </row>
-    <row r="81" spans="1:2" ht="18.75">
+    <row r="81" spans="1:2">
       <c r="B81" s="24"/>
     </row>
-    <row r="82" spans="1:2" ht="18.75">
+    <row r="82" spans="1:2">
       <c r="B82" s="24"/>
     </row>
-    <row r="83" spans="1:2" ht="18.75">
+    <row r="83" spans="1:2">
       <c r="B83" s="24"/>
     </row>
-    <row r="84" spans="1:2" ht="18.75">
+    <row r="84" spans="1:2">
       <c r="B84" s="24"/>
     </row>
-    <row r="85" spans="1:2" ht="18.75">
+    <row r="85" spans="1:2">
       <c r="B85" s="24"/>
     </row>
-    <row r="86" spans="1:2" ht="18.75">
+    <row r="86" spans="1:2">
       <c r="B86" s="24"/>
     </row>
-    <row r="87" spans="1:2" ht="18.75">
+    <row r="87" spans="1:2">
       <c r="B87" s="24"/>
     </row>
-    <row r="88" spans="1:2" ht="18.75">
+    <row r="88" spans="1:2">
       <c r="B88" s="24"/>
     </row>
-    <row r="89" spans="1:2" ht="18.75">
+    <row r="89" spans="1:2">
       <c r="B89" s="24"/>
     </row>
-    <row r="90" spans="1:2" ht="18.75">
+    <row r="90" spans="1:2">
       <c r="B90" s="24"/>
     </row>
-    <row r="91" spans="1:2" ht="18.75">
+    <row r="91" spans="1:2">
       <c r="B91" s="24"/>
     </row>
-    <row r="92" spans="1:2" ht="18.75">
+    <row r="92" spans="1:2">
       <c r="A92" s="20" t="s">
         <v>112</v>
       </c>
       <c r="B92" s="24"/>
     </row>
-    <row r="93" spans="1:2" ht="18.75">
+    <row r="93" spans="1:2">
       <c r="B93" s="24"/>
     </row>
-    <row r="94" spans="1:2" ht="18.75">
+    <row r="94" spans="1:2">
       <c r="B94" s="24"/>
     </row>
-    <row r="95" spans="1:2" ht="18.75">
+    <row r="95" spans="1:2">
       <c r="B95" s="24"/>
     </row>
-    <row r="96" spans="1:2" ht="18.75">
+    <row r="96" spans="1:2">
       <c r="B96" s="24"/>
     </row>
-    <row r="97" spans="1:5" ht="18.75">
+    <row r="97" spans="1:5">
       <c r="B97" s="24"/>
       <c r="E97" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="18.75">
+    <row r="98" spans="1:5">
       <c r="B98" s="24"/>
     </row>
-    <row r="105" spans="1:5" ht="18.75">
+    <row r="105" spans="1:5">
       <c r="B105" s="23"/>
     </row>
-    <row r="106" spans="1:5" ht="18.75">
+    <row r="106" spans="1:5">
       <c r="A106" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B106" s="23"/>
     </row>
-    <row r="107" spans="1:5" ht="18.75">
+    <row r="107" spans="1:5">
       <c r="B107" s="23"/>
     </row>
-    <row r="108" spans="1:5" ht="18.75">
+    <row r="108" spans="1:5">
       <c r="B108" s="23"/>
     </row>
-    <row r="109" spans="1:5" ht="18.75">
+    <row r="109" spans="1:5">
       <c r="B109" s="23"/>
     </row>
-    <row r="110" spans="1:5" ht="18.75">
+    <row r="110" spans="1:5">
       <c r="B110" s="23"/>
     </row>
-    <row r="111" spans="1:5" ht="18.75">
+    <row r="111" spans="1:5">
       <c r="B111" s="23"/>
     </row>
-    <row r="112" spans="1:5" ht="18.75">
+    <row r="112" spans="1:5">
       <c r="B112" s="23"/>
     </row>
-    <row r="113" spans="2:2" ht="18.75">
+    <row r="113" spans="2:2">
       <c r="B113" s="23"/>
     </row>
-    <row r="114" spans="2:2" ht="18.75">
+    <row r="114" spans="2:2">
       <c r="B114" s="23"/>
     </row>
-    <row r="115" spans="2:2" ht="18.75">
+    <row r="115" spans="2:2">
       <c r="B115" s="23"/>
     </row>
-    <row r="116" spans="2:2" ht="18.75">
+    <row r="116" spans="2:2">
       <c r="B116" s="23"/>
     </row>
-    <row r="117" spans="2:2" ht="18.75">
+    <row r="117" spans="2:2">
       <c r="B117" s="23"/>
     </row>
-    <row r="118" spans="2:2" ht="18.75">
+    <row r="118" spans="2:2">
       <c r="B118" s="23"/>
     </row>
-    <row r="119" spans="2:2" ht="18.75">
+    <row r="119" spans="2:2">
       <c r="B119" s="23"/>
     </row>
-    <row r="120" spans="2:2" ht="18.75">
+    <row r="120" spans="2:2">
       <c r="B120" s="23"/>
     </row>
-    <row r="121" spans="2:2" ht="18.75">
+    <row r="121" spans="2:2">
       <c r="B121" s="23"/>
     </row>
-    <row r="122" spans="2:2" ht="18.75">
+    <row r="122" spans="2:2">
       <c r="B122" s="23"/>
     </row>
-    <row r="123" spans="2:2" ht="18.75">
+    <row r="123" spans="2:2">
       <c r="B123" s="23"/>
     </row>
-    <row r="124" spans="2:2" ht="18.75">
+    <row r="124" spans="2:2">
       <c r="B124" s="23"/>
     </row>
-    <row r="125" spans="2:2" ht="18.75">
+    <row r="125" spans="2:2">
       <c r="B125" s="23"/>
     </row>
-    <row r="126" spans="2:2" ht="18.75">
+    <row r="126" spans="2:2">
       <c r="B126" s="23"/>
     </row>
-    <row r="131" spans="1:2" ht="18.75">
+    <row r="131" spans="1:2">
       <c r="B131" s="22"/>
     </row>
-    <row r="132" spans="1:2" ht="18.75">
+    <row r="132" spans="1:2">
       <c r="A132" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B132" s="22"/>
     </row>
-    <row r="133" spans="1:2" ht="18.75">
+    <row r="133" spans="1:2">
       <c r="B133" s="22"/>
     </row>
-    <row r="134" spans="1:2" ht="18.75">
+    <row r="134" spans="1:2">
       <c r="B134" s="22"/>
     </row>
-    <row r="135" spans="1:2" ht="18.75">
+    <row r="135" spans="1:2">
       <c r="B135" s="22"/>
     </row>
-    <row r="136" spans="1:2" ht="18.75">
+    <row r="136" spans="1:2">
       <c r="B136" s="22"/>
     </row>
-    <row r="137" spans="1:2" ht="18.75">
+    <row r="137" spans="1:2">
       <c r="B137" s="22"/>
     </row>
-    <row r="138" spans="1:2" ht="18.75">
+    <row r="138" spans="1:2">
       <c r="B138" s="22"/>
     </row>
-    <row r="139" spans="1:2" ht="18.75">
+    <row r="139" spans="1:2">
       <c r="B139" s="22"/>
     </row>
-    <row r="140" spans="1:2" ht="18.75">
+    <row r="140" spans="1:2">
       <c r="B140" s="22"/>
     </row>
-    <row r="141" spans="1:2" ht="18.75">
+    <row r="141" spans="1:2">
       <c r="B141" s="22"/>
     </row>
-    <row r="142" spans="1:2" ht="18.75">
+    <row r="142" spans="1:2">
       <c r="B142" s="22"/>
     </row>
-    <row r="143" spans="1:2" ht="18.75">
+    <row r="143" spans="1:2">
       <c r="B143" s="22"/>
     </row>
-    <row r="144" spans="1:2" ht="18.75">
+    <row r="144" spans="1:2">
       <c r="B144" s="22"/>
     </row>
-    <row r="145" spans="2:2" ht="18.75">
+    <row r="145" spans="2:2">
       <c r="B145" s="22"/>
     </row>
-    <row r="146" spans="2:2" ht="18.75">
+    <row r="146" spans="2:2">
       <c r="B146" s="22"/>
     </row>
-    <row r="147" spans="2:2" ht="18.75">
+    <row r="147" spans="2:2">
       <c r="B147" s="22"/>
     </row>
-    <row r="148" spans="2:2" ht="18.75">
+    <row r="148" spans="2:2">
       <c r="B148" s="22"/>
     </row>
-    <row r="149" spans="2:2" ht="18.75">
+    <row r="149" spans="2:2">
       <c r="B149" s="22"/>
     </row>
-    <row r="150" spans="2:2" ht="18.75">
+    <row r="150" spans="2:2">
       <c r="B150" s="22"/>
     </row>
-    <row r="151" spans="2:2" ht="18.75">
+    <row r="151" spans="2:2">
       <c r="B151" s="22"/>
     </row>
-    <row r="152" spans="2:2" ht="18.75">
+    <row r="152" spans="2:2">
       <c r="B152" s="22"/>
     </row>
-    <row r="153" spans="2:2" ht="18.75">
+    <row r="153" spans="2:2">
       <c r="B153" s="22"/>
     </row>
-    <row r="154" spans="2:2" ht="18.75">
+    <row r="154" spans="2:2">
       <c r="B154" s="22"/>
     </row>
-    <row r="155" spans="2:2" ht="18.75">
+    <row r="155" spans="2:2">
       <c r="B155" s="22"/>
     </row>
-    <row r="156" spans="2:2" ht="18.75">
+    <row r="156" spans="2:2">
       <c r="B156" s="22"/>
     </row>
-    <row r="157" spans="2:2" ht="18.75">
+    <row r="157" spans="2:2">
       <c r="B157" s="22"/>
     </row>
-    <row r="167" spans="20:21" ht="18.75">
+    <row r="167" spans="20:21">
       <c r="T167" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="172" spans="20:21" ht="18.75">
+    <row r="172" spans="20:21">
       <c r="U172" s="3" t="s">
         <v>116</v>
       </c>
@@ -4165,7 +5083,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C641DA78-A8C7-45F3-87E3-0F8CD3145EAF}">
   <dimension ref="A1:BA164"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="BF48" sqref="BF48"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4202,7 +5122,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="36">
+    <row r="5" spans="1:33" ht="36.75">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>61</v>
@@ -4672,7 +5592,7 @@
       <c r="AF18" s="38"/>
       <c r="AG18" s="38"/>
     </row>
-    <row r="19" spans="1:33" ht="18.75">
+    <row r="19" spans="1:33" ht="18">
       <c r="A19" s="16" t="s">
         <v>72</v>
       </c>
@@ -5030,7 +5950,7 @@
       <c r="AF28" s="38"/>
       <c r="AG28" s="38"/>
     </row>
-    <row r="29" spans="1:33" ht="18.75">
+    <row r="29" spans="1:33" ht="18">
       <c r="A29" s="1" t="s">
         <v>81</v>
       </c>
@@ -5068,7 +5988,7 @@
       <c r="AF29" s="38"/>
       <c r="AG29" s="38"/>
     </row>
-    <row r="30" spans="1:33" ht="18.75">
+    <row r="30" spans="1:33" ht="18">
       <c r="A30" s="1" t="s">
         <v>83</v>
       </c>
@@ -5506,7 +6426,7 @@
       <c r="AZ38" s="11"/>
       <c r="BA38" s="11"/>
     </row>
-    <row r="39" spans="1:53" ht="15.75">
+    <row r="39" spans="1:53">
       <c r="D39" s="38"/>
       <c r="E39" s="38"/>
       <c r="F39" s="38"/>
@@ -5559,7 +6479,7 @@
       <c r="AZ39" s="11"/>
       <c r="BA39" s="11"/>
     </row>
-    <row r="40" spans="1:53" ht="15.75">
+    <row r="40" spans="1:53">
       <c r="D40" s="38"/>
       <c r="E40" s="38"/>
       <c r="F40" s="38"/>
@@ -5612,7 +6532,7 @@
       <c r="AZ40" s="11"/>
       <c r="BA40" s="11"/>
     </row>
-    <row r="41" spans="1:53" ht="15.75">
+    <row r="41" spans="1:53">
       <c r="D41" s="38"/>
       <c r="E41" s="38"/>
       <c r="F41" s="38"/>
@@ -5665,7 +6585,7 @@
       <c r="AZ41" s="11"/>
       <c r="BA41" s="11"/>
     </row>
-    <row r="42" spans="1:53" ht="15.75">
+    <row r="42" spans="1:53">
       <c r="D42" s="38"/>
       <c r="E42" s="38"/>
       <c r="F42" s="38"/>
@@ -5718,7 +6638,7 @@
       <c r="AZ42" s="11"/>
       <c r="BA42" s="11"/>
     </row>
-    <row r="43" spans="1:53" ht="15.75">
+    <row r="43" spans="1:53">
       <c r="D43" s="38"/>
       <c r="E43" s="38"/>
       <c r="F43" s="38"/>
@@ -5771,7 +6691,7 @@
       <c r="AZ43" s="11"/>
       <c r="BA43" s="11"/>
     </row>
-    <row r="44" spans="1:53" ht="15.75">
+    <row r="44" spans="1:53">
       <c r="D44" s="38"/>
       <c r="E44" s="38"/>
       <c r="F44" s="38"/>
@@ -5822,7 +6742,7 @@
       <c r="AZ44" s="11"/>
       <c r="BA44" s="11"/>
     </row>
-    <row r="45" spans="1:53" ht="26.25">
+    <row r="45" spans="1:53" ht="25.5">
       <c r="B45" s="25" t="s">
         <v>131</v>
       </c>
@@ -5878,7 +6798,7 @@
       <c r="AZ45" s="11"/>
       <c r="BA45" s="11"/>
     </row>
-    <row r="46" spans="1:53" ht="15.75">
+    <row r="46" spans="1:53">
       <c r="D46" s="38"/>
       <c r="E46" s="38"/>
       <c r="F46" s="38"/>
@@ -5931,7 +6851,7 @@
       <c r="AZ46" s="11"/>
       <c r="BA46" s="11"/>
     </row>
-    <row r="47" spans="1:53" ht="15.75">
+    <row r="47" spans="1:53">
       <c r="B47" s="26"/>
       <c r="D47" s="38"/>
       <c r="E47" s="38"/>
@@ -6042,7 +6962,7 @@
       <c r="AZ48" s="11"/>
       <c r="BA48" s="11"/>
     </row>
-    <row r="49" spans="2:53" ht="15.75">
+    <row r="49" spans="2:53">
       <c r="B49" s="26"/>
       <c r="D49" s="38"/>
       <c r="E49" s="38"/>
@@ -6092,7 +7012,7 @@
       <c r="AZ49" s="11"/>
       <c r="BA49" s="11"/>
     </row>
-    <row r="50" spans="2:53" ht="15.75">
+    <row r="50" spans="2:53">
       <c r="B50" s="26"/>
       <c r="D50" s="38"/>
       <c r="E50" s="38"/>
@@ -6142,7 +7062,7 @@
       <c r="AZ50" s="11"/>
       <c r="BA50" s="11"/>
     </row>
-    <row r="51" spans="2:53" ht="15.75">
+    <row r="51" spans="2:53">
       <c r="B51" s="26"/>
       <c r="D51" s="38"/>
       <c r="E51" s="38"/>
@@ -6192,7 +7112,7 @@
       <c r="AZ51" s="11"/>
       <c r="BA51" s="11"/>
     </row>
-    <row r="52" spans="2:53" ht="15.75">
+    <row r="52" spans="2:53">
       <c r="B52" s="26"/>
       <c r="D52" s="38"/>
       <c r="E52" s="38"/>
@@ -6776,7 +7696,7 @@
     <row r="70" spans="1:33">
       <c r="B70" s="26"/>
     </row>
-    <row r="71" spans="1:33" ht="36">
+    <row r="71" spans="1:33" ht="36.75">
       <c r="B71" s="26"/>
       <c r="D71" s="34" t="s">
         <v>97</v>
@@ -8241,7 +9161,7 @@
       <c r="B124" s="31"/>
       <c r="F124" s="37"/>
     </row>
-    <row r="125" spans="1:33" ht="33.75">
+    <row r="125" spans="1:33" ht="33">
       <c r="B125" s="31"/>
       <c r="D125" s="35" t="s">
         <v>136</v>
@@ -9243,513 +10163,4523 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{993709C1-C6B7-4A15-8237-BEE6A03D6F96}">
-  <dimension ref="A1:F137"/>
+  <dimension ref="A1:AA137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C20" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.28515625" customWidth="1"/>
     <col min="2" max="2" width="159.28515625" customWidth="1"/>
-    <col min="3" max="3" width="205.85546875" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" customWidth="1"/>
     <col min="4" max="4" width="177.28515625" customWidth="1"/>
     <col min="5" max="5" width="65.5703125" customWidth="1"/>
     <col min="6" max="6" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:27" ht="25.5">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="44"/>
-    </row>
-    <row r="2" spans="1:6" ht="18.75">
-      <c r="A2" s="3" t="s">
+      <c r="F1" s="42"/>
+    </row>
+    <row r="2" spans="1:27" ht="18.75">
+      <c r="A2" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="17" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="18.75">
-      <c r="A3" s="3" t="s">
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:27" ht="18.75">
+      <c r="A3" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="17" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="18.75">
-      <c r="A4" s="3"/>
-      <c r="B4" s="18" t="s">
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:27" ht="18.75">
+      <c r="A4" s="17"/>
+      <c r="B4" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="17" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="18.75">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:27" ht="18.75">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="17" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="18.75">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:27" ht="18.75">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="17" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="18.75">
-      <c r="A7" s="3"/>
-      <c r="B7" s="1" t="s">
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:27" ht="18.75">
+      <c r="A7" s="17"/>
+      <c r="B7" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="17" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="18.75">
-      <c r="A8" s="3"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="48"/>
-    </row>
-    <row r="9" spans="1:6" ht="18.75">
-      <c r="A9" s="3"/>
-      <c r="C9" s="48"/>
-    </row>
-    <row r="10" spans="1:6" ht="18.75">
-      <c r="A10" s="3"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="48"/>
-    </row>
-    <row r="11" spans="1:6" ht="21" customHeight="1">
-      <c r="A11" s="3" t="s">
+      <c r="F7" s="14"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+    </row>
+    <row r="8" spans="1:27" ht="18.75">
+      <c r="A8" s="17"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="14"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+    </row>
+    <row r="9" spans="1:27" ht="18.75">
+      <c r="A9" s="17"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="14"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+    </row>
+    <row r="10" spans="1:27" ht="18.75">
+      <c r="A10" s="17"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="14"/>
+      <c r="K10" s="11">
+        <v>1</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+    </row>
+    <row r="11" spans="1:27" ht="21" customHeight="1">
+      <c r="A11" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="D11" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="E11" s="45" t="s">
+      <c r="C11" s="17" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="18.75">
-      <c r="A12" s="3" t="s">
+      <c r="D11" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="E11" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="K11" s="11">
+        <v>2</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+    </row>
+    <row r="12" spans="1:27" ht="18.75">
+      <c r="A12" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="D12" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="E12" s="45" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
+      <c r="C12" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="K12" s="11">
+        <v>3</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+    </row>
+    <row r="13" spans="1:27" ht="21.75" customHeight="1">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="47" t="s">
-        <v>165</v>
-      </c>
-      <c r="D13" s="45" t="s">
-        <v>166</v>
-      </c>
-      <c r="E13" s="45" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3" t="s">
+      <c r="C13" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="K13" s="11">
+        <v>4</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+    </row>
+    <row r="14" spans="1:27" ht="18" customHeight="1">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="D14" s="45" t="s">
+      <c r="C14" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="E14" s="45" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="18.75">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="48"/>
-    </row>
-    <row r="16" spans="1:6" ht="18.75">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="48"/>
-    </row>
-    <row r="17" spans="1:5" ht="18.75">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="48"/>
-    </row>
-    <row r="18" spans="1:5" ht="18.75">
-      <c r="A18" s="3" t="s">
+      <c r="E14" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="K14" s="11">
+        <v>5</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+    </row>
+    <row r="15" spans="1:27" ht="18.75">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="14"/>
+      <c r="K15" s="11">
+        <v>6</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+    </row>
+    <row r="16" spans="1:27" ht="18.75">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="14"/>
+      <c r="K16" s="11">
+        <v>7</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+    </row>
+    <row r="17" spans="1:27" ht="18.75">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="14"/>
+      <c r="K17" s="11">
+        <v>8</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+    </row>
+    <row r="18" spans="1:27" ht="18.75">
+      <c r="A18" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="48"/>
-    </row>
-    <row r="19" spans="1:5" ht="18.75">
-      <c r="A19" s="16" t="s">
+      <c r="B18" s="17"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="14"/>
+      <c r="K18" s="11">
+        <v>9</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+    </row>
+    <row r="19" spans="1:27" ht="18.75">
+      <c r="A19" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="D19" s="45" t="s">
+      <c r="C19" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="E19" s="45" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="18.75">
-      <c r="A20" s="3"/>
-      <c r="B20" s="1" t="s">
+      <c r="E19" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="K19" s="11">
+        <v>10</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+    </row>
+    <row r="20" spans="1:27" ht="18.75">
+      <c r="A20" s="17"/>
+      <c r="B20" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="D20" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="E20" s="45" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="18.75">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
+      <c r="C20" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="K20" s="11">
+        <v>11</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+    </row>
+    <row r="21" spans="1:27" ht="18.75">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="D21" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="E21" s="45" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="18.75">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="48"/>
-    </row>
-    <row r="23" spans="1:5" ht="18.75">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="48"/>
-    </row>
-    <row r="24" spans="1:5" ht="18.75">
-      <c r="A24" s="3" t="s">
+      <c r="C21" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="K21" s="11">
+        <v>12</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+    </row>
+    <row r="22" spans="1:27" ht="18.75">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="14"/>
+      <c r="K22" s="11">
+        <v>13</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+    </row>
+    <row r="23" spans="1:27" ht="18.75">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="14"/>
+      <c r="K23" s="11">
+        <v>14</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+    </row>
+    <row r="24" spans="1:27" ht="18.75">
+      <c r="A24" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="D24" s="45" t="s">
-        <v>180</v>
-      </c>
-      <c r="E24" s="45" t="s">
+      <c r="B24" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="K24" s="11">
+        <v>15</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+    </row>
+    <row r="25" spans="1:27" ht="18.75">
+      <c r="A25" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="K25" s="11">
+        <v>16</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+    </row>
+    <row r="26" spans="1:27" ht="18.75">
+      <c r="A26" s="17"/>
+      <c r="B26" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="K26" s="43">
+        <v>17</v>
+      </c>
+      <c r="L26" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="43"/>
+      <c r="W26" s="43"/>
+      <c r="X26" s="43"/>
+      <c r="Y26" s="43"/>
+      <c r="Z26" s="43"/>
+      <c r="AA26" s="43"/>
+    </row>
+    <row r="27" spans="1:27" ht="18.75">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="14"/>
+      <c r="K27" s="43">
+        <v>18</v>
+      </c>
+      <c r="L27" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="43"/>
+      <c r="W27" s="43"/>
+      <c r="X27" s="43"/>
+      <c r="Y27" s="43"/>
+      <c r="Z27" s="43"/>
+      <c r="AA27" s="43"/>
+    </row>
+    <row r="28" spans="1:27" ht="18.75">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="14"/>
+      <c r="K28" s="43">
+        <v>19</v>
+      </c>
+      <c r="L28" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
+      <c r="U28" s="43"/>
+      <c r="V28" s="43"/>
+      <c r="W28" s="43"/>
+      <c r="X28" s="43"/>
+      <c r="Y28" s="43"/>
+      <c r="Z28" s="43"/>
+      <c r="AA28" s="43"/>
+    </row>
+    <row r="29" spans="1:27" ht="18.75">
+      <c r="A29" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="D29" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" s="17" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="18.75">
-      <c r="A25" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C25" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="D25" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="E25" s="45" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="18.75">
-      <c r="A26" s="3"/>
-      <c r="B26" s="41" t="s">
-        <v>185</v>
-      </c>
-      <c r="C26" s="49" t="s">
-        <v>186</v>
-      </c>
-      <c r="D26" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="E26" s="45" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="18.75">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="48"/>
-    </row>
-    <row r="28" spans="1:5" ht="18.75">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="47"/>
-    </row>
-    <row r="29" spans="1:5" ht="18.75">
-      <c r="A29" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="47" t="s">
-        <v>188</v>
-      </c>
-      <c r="D29" t="s">
-        <v>151</v>
-      </c>
-      <c r="E29" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="18.75">
-      <c r="A30" s="1" t="s">
+      <c r="F29" s="14"/>
+      <c r="K29" s="43">
+        <v>20</v>
+      </c>
+      <c r="L29" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="43"/>
+      <c r="W29" s="43"/>
+      <c r="X29" s="43"/>
+      <c r="Y29" s="43"/>
+      <c r="Z29" s="43"/>
+      <c r="AA29" s="43"/>
+    </row>
+    <row r="30" spans="1:27" ht="18.75">
+      <c r="A30" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="47" t="s">
-        <v>189</v>
-      </c>
-      <c r="D30" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="E30" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="18.75">
-      <c r="A31" s="3"/>
+      <c r="C30" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="F30" s="14"/>
+      <c r="K30" s="43">
+        <v>21</v>
+      </c>
+      <c r="L30" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="43"/>
+      <c r="U30" s="43"/>
+      <c r="V30" s="43"/>
+      <c r="W30" s="43"/>
+      <c r="X30" s="43"/>
+      <c r="Y30" s="43"/>
+      <c r="Z30" s="43"/>
+      <c r="AA30" s="43"/>
+    </row>
+    <row r="31" spans="1:27" ht="18.75">
+      <c r="A31" s="17"/>
       <c r="B31" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="47" t="s">
-        <v>192</v>
-      </c>
-      <c r="D31" s="45" t="s">
+      <c r="C31" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="F31" s="14"/>
+      <c r="K31" s="43">
+        <v>22</v>
+      </c>
+      <c r="L31" s="43" t="s">
+        <v>217</v>
+      </c>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="43"/>
+      <c r="T31" s="43"/>
+      <c r="U31" s="43"/>
+      <c r="V31" s="43"/>
+      <c r="W31" s="43"/>
+      <c r="X31" s="43"/>
+      <c r="Y31" s="43"/>
+      <c r="Z31" s="43"/>
+      <c r="AA31" s="43"/>
+    </row>
+    <row r="32" spans="1:27" ht="18.75">
+      <c r="A32" s="17"/>
+      <c r="B32" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="F32" s="14"/>
+      <c r="K32" s="43">
+        <v>23</v>
+      </c>
+      <c r="L32" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="43"/>
+      <c r="T32" s="43"/>
+      <c r="U32" s="43"/>
+      <c r="V32" s="43"/>
+      <c r="W32" s="43"/>
+      <c r="X32" s="43"/>
+      <c r="Y32" s="43"/>
+      <c r="Z32" s="43"/>
+      <c r="AA32" s="43"/>
+    </row>
+    <row r="33" spans="1:27" ht="18.75">
+      <c r="A33" s="17"/>
+      <c r="B33" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="F33" s="14"/>
+      <c r="K33" s="43">
+        <v>24</v>
+      </c>
+      <c r="L33" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="43"/>
+      <c r="T33" s="43"/>
+      <c r="U33" s="43"/>
+      <c r="V33" s="43"/>
+      <c r="W33" s="43"/>
+      <c r="X33" s="43"/>
+      <c r="Y33" s="43"/>
+      <c r="Z33" s="43"/>
+      <c r="AA33" s="43"/>
+    </row>
+    <row r="34" spans="1:27" ht="18.75">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="14"/>
+      <c r="K34" s="43">
+        <v>25</v>
+      </c>
+      <c r="L34" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="43"/>
+      <c r="T34" s="43"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="43"/>
+      <c r="W34" s="43"/>
+      <c r="X34" s="43"/>
+      <c r="Y34" s="43"/>
+      <c r="Z34" s="43"/>
+      <c r="AA34" s="43"/>
+    </row>
+    <row r="35" spans="1:27" ht="18.75">
+      <c r="A35" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="14"/>
+      <c r="K35" s="43">
+        <v>26</v>
+      </c>
+      <c r="L35" s="43" t="s">
+        <v>228</v>
+      </c>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="43"/>
+      <c r="T35" s="43"/>
+      <c r="U35" s="43"/>
+      <c r="V35" s="43"/>
+      <c r="W35" s="43"/>
+      <c r="X35" s="43"/>
+      <c r="Y35" s="43"/>
+      <c r="Z35" s="43"/>
+      <c r="AA35" s="43"/>
+    </row>
+    <row r="36" spans="1:27" ht="18.75">
+      <c r="A36" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="F36" s="14"/>
+      <c r="K36" s="43">
+        <v>27</v>
+      </c>
+      <c r="L36" s="43" t="s">
+        <v>232</v>
+      </c>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="43"/>
+      <c r="R36" s="43"/>
+      <c r="S36" s="43"/>
+      <c r="T36" s="43"/>
+      <c r="U36" s="43"/>
+      <c r="V36" s="43"/>
+      <c r="W36" s="43"/>
+      <c r="X36" s="43"/>
+      <c r="Y36" s="43"/>
+      <c r="Z36" s="43"/>
+      <c r="AA36" s="43"/>
+    </row>
+    <row r="37" spans="1:27" ht="18.75">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="F37" s="14"/>
+      <c r="K37" s="43">
+        <v>28</v>
+      </c>
+      <c r="L37" s="43" t="s">
+        <v>236</v>
+      </c>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="43"/>
+      <c r="T37" s="43"/>
+      <c r="U37" s="43"/>
+      <c r="V37" s="43"/>
+      <c r="W37" s="43"/>
+      <c r="X37" s="43"/>
+      <c r="Y37" s="43"/>
+      <c r="Z37" s="43"/>
+      <c r="AA37" s="43"/>
+    </row>
+    <row r="38" spans="1:27" ht="18.75">
+      <c r="A38" s="17"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="F38" s="14"/>
+      <c r="K38" s="43">
+        <v>29</v>
+      </c>
+      <c r="L38" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="43"/>
+      <c r="R38" s="43"/>
+      <c r="S38" s="43"/>
+      <c r="T38" s="43"/>
+      <c r="U38" s="43"/>
+      <c r="V38" s="43"/>
+      <c r="W38" s="43"/>
+      <c r="X38" s="43"/>
+      <c r="Y38" s="43"/>
+      <c r="Z38" s="43"/>
+      <c r="AA38" s="43"/>
+    </row>
+    <row r="39" spans="1:27" ht="18.75">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="14"/>
+    </row>
+    <row r="40" spans="1:27" ht="26.25">
+      <c r="B40" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="E40" s="15"/>
+    </row>
+    <row r="41" spans="1:27" ht="18.75">
+      <c r="E41" s="15"/>
+    </row>
+    <row r="42" spans="1:27" ht="18.75">
+      <c r="E42" s="15"/>
+    </row>
+    <row r="43" spans="1:27" ht="18.75">
+      <c r="E43" s="15"/>
+    </row>
+    <row r="100" spans="2:2" ht="25.5">
+      <c r="B100" s="41" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" ht="25.5">
+      <c r="B137" s="41" t="s">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E2053A0-5113-459B-BA42-3BA7767703C4}">
+  <dimension ref="A1:AB137"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40.28515625" customWidth="1"/>
+    <col min="2" max="2" width="159.28515625" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" customWidth="1"/>
+    <col min="4" max="4" width="177.28515625" customWidth="1"/>
+    <col min="5" max="5" width="65.5703125" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="26.25">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="42"/>
+    </row>
+    <row r="2" spans="1:28" ht="18.75">
+      <c r="A2" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:28" ht="18.75">
+      <c r="A3" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:28" ht="18.75">
+      <c r="A4" s="17"/>
+      <c r="B4" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:28" ht="18.75">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:28" ht="18.75">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:28" ht="18.75">
+      <c r="A7" s="17"/>
+      <c r="B7" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+    </row>
+    <row r="8" spans="1:28" ht="18.75">
+      <c r="A8" s="17"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="14"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+    </row>
+    <row r="9" spans="1:28" ht="18.75">
+      <c r="A9" s="17"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="14"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+    </row>
+    <row r="10" spans="1:28" ht="18.75">
+      <c r="A10" s="17"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="14"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+    </row>
+    <row r="11" spans="1:28" ht="21" customHeight="1">
+      <c r="A11" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+    </row>
+    <row r="12" spans="1:28" ht="18.75">
+      <c r="A12" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+    </row>
+    <row r="13" spans="1:28" ht="21.75" customHeight="1">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11">
+        <v>1</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+    </row>
+    <row r="14" spans="1:28" ht="18" customHeight="1">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11">
+        <v>2</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+    </row>
+    <row r="15" spans="1:28" ht="18.75">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="14"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11">
+        <v>3</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+    </row>
+    <row r="16" spans="1:28" ht="18.75">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="14"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11">
+        <v>4</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+    </row>
+    <row r="17" spans="1:28" ht="18.75">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="14"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11">
+        <v>5</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+    </row>
+    <row r="18" spans="1:28" ht="18.75">
+      <c r="A18" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="14"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11">
+        <v>6</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+    </row>
+    <row r="19" spans="1:28" ht="18.75">
+      <c r="A19" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11">
+        <v>7</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+    </row>
+    <row r="20" spans="1:28" ht="18.75">
+      <c r="A20" s="17"/>
+      <c r="B20" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11">
+        <v>8</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+    </row>
+    <row r="21" spans="1:28" ht="18.75">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11">
+        <v>9</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+    </row>
+    <row r="22" spans="1:28" ht="18.75">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="14"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11">
+        <v>10</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+    </row>
+    <row r="23" spans="1:28" ht="18.75">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="14"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11">
+        <v>11</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+    </row>
+    <row r="24" spans="1:28" ht="18.75">
+      <c r="A24" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="E31" t="s">
+      <c r="C24" s="17" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="18.75">
-      <c r="A32" s="3"/>
-      <c r="B32" s="42" t="s">
+      <c r="D24" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11">
+        <v>12</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+    </row>
+    <row r="25" spans="1:28" ht="18.75">
+      <c r="A25" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11">
+        <v>13</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+    </row>
+    <row r="26" spans="1:28" ht="18.75">
+      <c r="A26" s="17"/>
+      <c r="B26" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="11">
+        <v>14</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+    </row>
+    <row r="27" spans="1:28" ht="18.75">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="14"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="11">
+        <v>15</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+    </row>
+    <row r="28" spans="1:28" ht="18.75">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="14"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="11">
+        <v>16</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+    </row>
+    <row r="29" spans="1:28" ht="18.75">
+      <c r="A29" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="D29" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F29" s="14"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43">
+        <v>17</v>
+      </c>
+      <c r="M29" s="43" t="s">
+        <v>259</v>
+      </c>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="43"/>
+      <c r="W29" s="43"/>
+      <c r="X29" s="43"/>
+      <c r="Y29" s="43"/>
+      <c r="Z29" s="43"/>
+      <c r="AA29" s="43"/>
+      <c r="AB29" s="43"/>
+    </row>
+    <row r="30" spans="1:28" ht="18.75">
+      <c r="A30" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="F30" s="14"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43">
+        <v>18</v>
+      </c>
+      <c r="M30" s="43" t="s">
+        <v>260</v>
+      </c>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="43"/>
+      <c r="U30" s="43"/>
+      <c r="V30" s="43"/>
+      <c r="W30" s="43"/>
+      <c r="X30" s="43"/>
+      <c r="Y30" s="43"/>
+      <c r="Z30" s="43"/>
+      <c r="AA30" s="43"/>
+      <c r="AB30" s="43"/>
+    </row>
+    <row r="31" spans="1:28" ht="18.75">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="F31" s="14"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43">
+        <v>19</v>
+      </c>
+      <c r="M31" s="43" t="s">
+        <v>261</v>
+      </c>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="43"/>
+      <c r="T31" s="43"/>
+      <c r="U31" s="43"/>
+      <c r="V31" s="43"/>
+      <c r="W31" s="43"/>
+      <c r="X31" s="43"/>
+      <c r="Y31" s="43"/>
+      <c r="Z31" s="43"/>
+      <c r="AA31" s="43"/>
+      <c r="AB31" s="43"/>
+    </row>
+    <row r="32" spans="1:28" ht="18.75">
+      <c r="A32" s="17"/>
+      <c r="B32" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="C32" s="47" t="s">
+      <c r="C32" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="F32" s="14"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43">
+        <v>20</v>
+      </c>
+      <c r="M32" s="43" t="s">
+        <v>262</v>
+      </c>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="43"/>
+      <c r="T32" s="43"/>
+      <c r="U32" s="43"/>
+      <c r="V32" s="43"/>
+      <c r="W32" s="43"/>
+      <c r="X32" s="43"/>
+      <c r="Y32" s="43"/>
+      <c r="Z32" s="43"/>
+      <c r="AA32" s="43"/>
+      <c r="AB32" s="43"/>
+    </row>
+    <row r="33" spans="1:28" ht="18.75">
+      <c r="A33" s="17"/>
+      <c r="B33" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="F33" s="14"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43">
+        <v>21</v>
+      </c>
+      <c r="M33" s="43" t="s">
+        <v>263</v>
+      </c>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="43"/>
+      <c r="T33" s="43"/>
+      <c r="U33" s="43"/>
+      <c r="V33" s="43"/>
+      <c r="W33" s="43"/>
+      <c r="X33" s="43"/>
+      <c r="Y33" s="43"/>
+      <c r="Z33" s="43"/>
+      <c r="AA33" s="43"/>
+      <c r="AB33" s="43"/>
+    </row>
+    <row r="34" spans="1:28" ht="18.75">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="14"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43">
+        <v>22</v>
+      </c>
+      <c r="M34" s="43" t="s">
+        <v>264</v>
+      </c>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="43"/>
+      <c r="T34" s="43"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="43"/>
+      <c r="W34" s="43"/>
+      <c r="X34" s="43"/>
+      <c r="Y34" s="43"/>
+      <c r="Z34" s="43"/>
+      <c r="AA34" s="43"/>
+      <c r="AB34" s="43"/>
+    </row>
+    <row r="35" spans="1:28" ht="18.75">
+      <c r="A35" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="14"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="43"/>
+      <c r="T35" s="43"/>
+      <c r="U35" s="43"/>
+      <c r="V35" s="43"/>
+      <c r="W35" s="43"/>
+      <c r="X35" s="43"/>
+      <c r="Y35" s="43"/>
+      <c r="Z35" s="43"/>
+      <c r="AA35" s="43"/>
+      <c r="AB35" s="43"/>
+    </row>
+    <row r="36" spans="1:28" ht="18.75">
+      <c r="A36" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="F36" s="14"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="43"/>
+      <c r="R36" s="43"/>
+      <c r="S36" s="43"/>
+      <c r="T36" s="43"/>
+      <c r="U36" s="43"/>
+      <c r="V36" s="43"/>
+      <c r="W36" s="43"/>
+      <c r="X36" s="43"/>
+      <c r="Y36" s="43"/>
+      <c r="Z36" s="43"/>
+      <c r="AA36" s="43"/>
+    </row>
+    <row r="37" spans="1:28" ht="18.75">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="F37" s="14"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="43"/>
+      <c r="T37" s="43"/>
+      <c r="U37" s="43"/>
+      <c r="V37" s="43"/>
+      <c r="W37" s="43"/>
+      <c r="X37" s="43"/>
+      <c r="Y37" s="43"/>
+      <c r="Z37" s="43"/>
+      <c r="AA37" s="43"/>
+    </row>
+    <row r="38" spans="1:28" ht="18.75">
+      <c r="A38" s="17"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="F38" s="14"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="43"/>
+      <c r="R38" s="43"/>
+      <c r="S38" s="43"/>
+      <c r="T38" s="43"/>
+      <c r="U38" s="43"/>
+      <c r="V38" s="43"/>
+      <c r="W38" s="43"/>
+      <c r="X38" s="43"/>
+      <c r="Y38" s="43"/>
+      <c r="Z38" s="43"/>
+      <c r="AA38" s="43"/>
+    </row>
+    <row r="39" spans="1:28" ht="18.75">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="14"/>
+    </row>
+    <row r="40" spans="1:28" ht="26.25">
+      <c r="B40" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="E40" s="15"/>
+    </row>
+    <row r="41" spans="1:28" ht="18.75">
+      <c r="E41" s="15"/>
+    </row>
+    <row r="42" spans="1:28" ht="18.75">
+      <c r="E42" s="15"/>
+    </row>
+    <row r="43" spans="1:28" ht="18.75">
+      <c r="E43" s="15"/>
+    </row>
+    <row r="100" spans="2:2" ht="26.25">
+      <c r="B100" s="41" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" ht="26.25">
+      <c r="B137" s="41" t="s">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443E481D-CB9A-4E23-B5C3-2822F01A6396}">
+  <dimension ref="A1:AB137"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40.28515625" customWidth="1"/>
+    <col min="2" max="2" width="159.28515625" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" customWidth="1"/>
+    <col min="4" max="4" width="177.28515625" customWidth="1"/>
+    <col min="5" max="5" width="65.5703125" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="26.25">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="42"/>
+    </row>
+    <row r="2" spans="1:28" ht="18.75">
+      <c r="A2" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:28" ht="18.75">
+      <c r="A3" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:28" ht="18.75">
+      <c r="A4" s="17"/>
+      <c r="B4" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:28" ht="18.75">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:28" ht="18.75">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:28" ht="18.75">
+      <c r="A7" s="17"/>
+      <c r="B7" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="43"/>
+    </row>
+    <row r="8" spans="1:28" ht="18.75">
+      <c r="A8" s="17"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="14"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="43"/>
+    </row>
+    <row r="9" spans="1:28" ht="18.75">
+      <c r="A9" s="17"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="14"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="43"/>
+    </row>
+    <row r="10" spans="1:28" ht="18.75">
+      <c r="A10" s="17"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="14"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+    </row>
+    <row r="11" spans="1:28" ht="21" customHeight="1">
+      <c r="A11" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+    </row>
+    <row r="12" spans="1:28" ht="18.75">
+      <c r="A12" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+    </row>
+    <row r="13" spans="1:28" ht="21.75" customHeight="1">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11">
+        <v>1</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+    </row>
+    <row r="14" spans="1:28" ht="18" customHeight="1">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11">
+        <v>2</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+    </row>
+    <row r="15" spans="1:28" ht="18.75">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="14"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11">
+        <v>3</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+    </row>
+    <row r="16" spans="1:28" ht="18.75">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="14"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11">
+        <v>4</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+    </row>
+    <row r="17" spans="1:28" ht="18.75">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="14"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11">
+        <v>5</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+    </row>
+    <row r="18" spans="1:28" ht="18.75">
+      <c r="A18" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="14"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11">
+        <v>6</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+    </row>
+    <row r="19" spans="1:28" ht="18.75">
+      <c r="A19" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11">
+        <v>7</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+    </row>
+    <row r="20" spans="1:28" ht="18.75">
+      <c r="A20" s="17"/>
+      <c r="B20" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11">
+        <v>8</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+    </row>
+    <row r="21" spans="1:28" ht="18.75">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11">
+        <v>9</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+    </row>
+    <row r="22" spans="1:28" ht="18.75">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="14"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11">
+        <v>10</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+    </row>
+    <row r="23" spans="1:28" ht="18.75">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="14"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11">
+        <v>11</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+    </row>
+    <row r="24" spans="1:28" ht="18.75">
+      <c r="A24" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="D32" s="45" t="s">
+      <c r="E24" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="E32" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="18.75">
-      <c r="A33" s="3"/>
-      <c r="B33" s="42" t="s">
+      <c r="F24" s="14"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11">
+        <v>12</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+    </row>
+    <row r="25" spans="1:28" ht="18.75">
+      <c r="A25" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+    </row>
+    <row r="26" spans="1:28" ht="18.75">
+      <c r="A26" s="17"/>
+      <c r="B26" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+    </row>
+    <row r="27" spans="1:28" ht="18.75">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="14"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+    </row>
+    <row r="28" spans="1:28" ht="18.75">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="14"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+    </row>
+    <row r="29" spans="1:28" ht="18.75">
+      <c r="A29" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="D29" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:28" ht="18.75">
+      <c r="A30" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:28" ht="18.75">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:28" ht="18.75">
+      <c r="A32" s="17"/>
+      <c r="B32" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="1:6" ht="18.75">
+      <c r="A33" s="17"/>
+      <c r="B33" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="C33" s="47" t="s">
+      <c r="C33" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="1:6" ht="18.75">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" spans="1:6" ht="18.75">
+      <c r="A35" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" spans="1:6" ht="18.75">
+      <c r="A36" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="F36" s="14"/>
+    </row>
+    <row r="37" spans="1:6" ht="18.75">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="F37" s="14"/>
+    </row>
+    <row r="38" spans="1:6" ht="18.75">
+      <c r="A38" s="17"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="F38" s="14"/>
+    </row>
+    <row r="39" spans="1:6" ht="18.75">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="14"/>
+    </row>
+    <row r="40" spans="1:6" ht="26.25">
+      <c r="B40" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="E40" s="15"/>
+    </row>
+    <row r="41" spans="1:6" ht="18.75">
+      <c r="E41" s="15"/>
+    </row>
+    <row r="42" spans="1:6" ht="18.75">
+      <c r="E42" s="15"/>
+    </row>
+    <row r="43" spans="1:6" ht="18.75">
+      <c r="E43" s="15"/>
+    </row>
+    <row r="100" spans="2:2" ht="26.25">
+      <c r="B100" s="41" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" ht="26.25">
+      <c r="B137" s="41" t="s">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EACAC6B-D990-46F0-B332-418979E9AC02}">
+  <dimension ref="A1:AB137"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40.28515625" customWidth="1"/>
+    <col min="2" max="2" width="159.28515625" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" customWidth="1"/>
+    <col min="4" max="4" width="177.28515625" customWidth="1"/>
+    <col min="5" max="5" width="65.5703125" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" customWidth="1"/>
+    <col min="14" max="14" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="26.25">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="42"/>
+    </row>
+    <row r="2" spans="1:28" ht="18.75">
+      <c r="A2" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:28" ht="18.75">
+      <c r="A3" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:28" ht="18.75">
+      <c r="A4" s="17"/>
+      <c r="B4" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:28" ht="18.75">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:28" ht="18.75">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:28" ht="18.75">
+      <c r="A7" s="17"/>
+      <c r="B7" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="43"/>
+    </row>
+    <row r="8" spans="1:28" ht="18.75">
+      <c r="A8" s="17"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="14"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="O8" s="50"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="43"/>
+    </row>
+    <row r="9" spans="1:28" ht="18.75">
+      <c r="A9" s="17"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="14"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="43"/>
+    </row>
+    <row r="10" spans="1:28" ht="18.75">
+      <c r="A10" s="17"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="14"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+    </row>
+    <row r="11" spans="1:28" ht="21" customHeight="1">
+      <c r="A11" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+    </row>
+    <row r="12" spans="1:28" ht="18.75">
+      <c r="A12" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+    </row>
+    <row r="13" spans="1:28" ht="21.75" customHeight="1">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+    </row>
+    <row r="14" spans="1:28" ht="18" customHeight="1">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+    </row>
+    <row r="15" spans="1:28" ht="18.75">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="14"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+    </row>
+    <row r="16" spans="1:28" ht="18.75">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="14"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+    </row>
+    <row r="17" spans="1:28" ht="18.75">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="14"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+    </row>
+    <row r="18" spans="1:28" ht="18.75">
+      <c r="A18" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="14"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+    </row>
+    <row r="19" spans="1:28" ht="18.75">
+      <c r="A19" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+    </row>
+    <row r="20" spans="1:28" ht="18.75">
+      <c r="A20" s="17"/>
+      <c r="B20" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+    </row>
+    <row r="21" spans="1:28" ht="18.75">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+    </row>
+    <row r="22" spans="1:28" ht="18.75">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="14"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+    </row>
+    <row r="23" spans="1:28" ht="18.75">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="14"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+    </row>
+    <row r="24" spans="1:28" ht="18.75">
+      <c r="A24" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+    </row>
+    <row r="25" spans="1:28" ht="18.75">
+      <c r="A25" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="D33" s="45" t="s">
+      <c r="C25" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="E33" t="s">
+      <c r="D25" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" s="17" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="18.75">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="45"/>
-    </row>
-    <row r="35" spans="1:5" ht="18.75">
-      <c r="A35" s="3" t="s">
+      <c r="F25" s="14"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+    </row>
+    <row r="26" spans="1:28" ht="18.75">
+      <c r="A26" s="17"/>
+      <c r="B26" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+    </row>
+    <row r="27" spans="1:28" ht="18.75">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="14"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+    </row>
+    <row r="28" spans="1:28" ht="18.75">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="14"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+    </row>
+    <row r="29" spans="1:28" ht="18.75">
+      <c r="A29" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="D29" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:28" ht="18.75">
+      <c r="A30" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:28" ht="18.75">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:28" ht="18.75">
+      <c r="A32" s="17"/>
+      <c r="B32" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="1:6" ht="18.75">
+      <c r="A33" s="17"/>
+      <c r="B33" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="1:6" ht="18.75">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" spans="1:6" ht="18.75">
+      <c r="A35" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="47" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="18.75">
-      <c r="A36" s="3" t="s">
+      <c r="C35" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" spans="1:6" ht="18.75">
+      <c r="A36" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C36" s="47" t="s">
-        <v>202</v>
-      </c>
-      <c r="D36" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="E36" s="45" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="18.75">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3" t="s">
+      <c r="C36" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="F36" s="14"/>
+    </row>
+    <row r="37" spans="1:6" ht="18.75">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="47" t="s">
-        <v>205</v>
-      </c>
-      <c r="D37" s="45" t="s">
-        <v>206</v>
-      </c>
-      <c r="E37" s="45" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="18.75">
-      <c r="A38" s="3"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="47" t="s">
-        <v>208</v>
-      </c>
-      <c r="D38" s="45" t="s">
-        <v>209</v>
-      </c>
-      <c r="E38" s="45" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="C39" s="47" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="26.25">
-      <c r="B40" s="43" t="s">
+      <c r="C37" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="F37" s="14"/>
+    </row>
+    <row r="38" spans="1:6" ht="18.75">
+      <c r="A38" s="17"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="F38" s="14"/>
+    </row>
+    <row r="39" spans="1:6" ht="18.75">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="14"/>
+    </row>
+    <row r="40" spans="1:6" ht="26.25">
+      <c r="B40" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="48"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="C41" s="48"/>
+      <c r="C40" s="15"/>
+      <c r="E40" s="15"/>
+    </row>
+    <row r="41" spans="1:6" ht="18.75">
+      <c r="E41" s="15"/>
+    </row>
+    <row r="42" spans="1:6" ht="18.75">
+      <c r="E42" s="15"/>
+    </row>
+    <row r="43" spans="1:6" ht="18.75">
+      <c r="E43" s="15"/>
     </row>
     <row r="100" spans="2:2" ht="26.25">
-      <c r="B100" s="43" t="s">
-        <v>212</v>
+      <c r="B100" s="41" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="137" spans="2:2" ht="26.25">
-      <c r="B137" s="43" t="s">
-        <v>213</v>
+      <c r="B137" s="41" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/Aurora/Requirements/User Stories/Requirement Gathering process.xlsx
+++ b/Aurora/Requirements/User Stories/Requirement Gathering process.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25207"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F988AC07-8459-4748-9525-016415F9F374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1D106DD-3FD7-4989-A307-502ACA45713B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day1   04.04.2022" sheetId="1" r:id="rId1"/>
-    <sheet name="Day2   05.04.22" sheetId="2" r:id="rId2"/>
-    <sheet name="Day 3   06.04.22" sheetId="3" r:id="rId3"/>
+    <sheet name="Day 3   06.04.22" sheetId="3" r:id="rId2"/>
+    <sheet name="Day2   05.04.22" sheetId="2" r:id="rId3"/>
     <sheet name="Day 4   07.04.22" sheetId="4" r:id="rId4"/>
     <sheet name="Day 5   08.04.2022" sheetId="6" r:id="rId5"/>
     <sheet name="Day6   09.04.2022" sheetId="7" r:id="rId6"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="313">
   <si>
     <t>Actors</t>
   </si>
@@ -609,99 +609,171 @@
     <t>I can update and manage my profile.</t>
   </si>
   <si>
+    <t>User Flow</t>
+  </si>
+  <si>
     <t>I can invite certain people to read my article.</t>
   </si>
   <si>
+    <t>I can View my published articles and draft articles in MY ARTICLES page.</t>
+  </si>
+  <si>
     <t>Id:2</t>
   </si>
   <si>
     <t>I used to read articles to gain more knowledge </t>
   </si>
   <si>
+    <t>Article Reader:</t>
+  </si>
+  <si>
+    <t>I want to save the article  which impress me.</t>
+  </si>
+  <si>
+    <t>I want to share the article which has new impact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want to like the article which I love. </t>
+  </si>
+  <si>
+    <t>I can also follow the author I like.</t>
+  </si>
+  <si>
+    <t>Id:3</t>
+  </si>
+  <si>
+    <t>Queries Raiser(Any Employee): </t>
+  </si>
+  <si>
+    <t>I can raise queries in the forum, If I faced any issues. </t>
+  </si>
+  <si>
+    <t>I can search for query in the forum</t>
+  </si>
+  <si>
+    <t>I can also give verified mark If I get my solution.</t>
+  </si>
+  <si>
+    <t>Id:4</t>
+  </si>
+  <si>
+    <t>I can able to answer Queries raised by anyone in the technical forum.  </t>
+  </si>
+  <si>
+    <t>Queries Solver (Any Employee):</t>
+  </si>
+  <si>
+    <t>I can also interact with query raiser if the question is not clear.</t>
+  </si>
+  <si>
+    <t>I can Report Spam Queries.</t>
+  </si>
+  <si>
+    <t>Id:5 </t>
+  </si>
+  <si>
+    <t>I can able to view the dashboard. </t>
+  </si>
+  <si>
+    <t>System Admin: </t>
+  </si>
+  <si>
+    <t>I can approve the employee who register ,so that they can able to access our website ,read/write articles ,raise queries and solve queries. </t>
+  </si>
+  <si>
+    <t>I can also give the ratings for authors with their writings.</t>
+  </si>
+  <si>
+    <t>I can manage List of Article Approvers</t>
+  </si>
+  <si>
+    <t>I can verify and remove spam queries and send notification with reason</t>
+  </si>
+  <si>
+    <t>Id:6</t>
+  </si>
+  <si>
+    <t>I can able to review the others articles before publishing.</t>
+  </si>
+  <si>
+    <t>Day 3 -Minutes of Meeting</t>
+  </si>
+  <si>
+    <t>Article Approver:</t>
+  </si>
+  <si>
+    <t>I can able to reject the article if the article content is not good.</t>
+  </si>
+  <si>
+    <t>I can able to approve the article.</t>
+  </si>
+  <si>
+    <t>Timesheet should contain each person Individual work</t>
+  </si>
+  <si>
+    <t>If one reviewer reviewing one document,that document should be in UnderReview mode ,so that any other reviewer cannot open or review it.</t>
+  </si>
+  <si>
+    <t>In Under Review mode,if it is cancelled then it should be marked back to openForReview mode.</t>
+  </si>
+  <si>
+    <t>Report -&gt; Reportspam/abuse,UserInvitation-&gt; Allowed Users</t>
+  </si>
+  <si>
+    <t>Discussed queries should be notified to the query raiser</t>
+  </si>
+  <si>
+    <t>Filters should be placed in Search Control - Solved/Unsolved Queries.</t>
+  </si>
+  <si>
+    <t>Reviewer should checkout the article for reviewing.(ref 2)</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Actors Flow</t>
+  </si>
+  <si>
+    <t>WireFrames - Prototype</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria</t>
+  </si>
+  <si>
+    <t>Dependencies</t>
+  </si>
+  <si>
+    <t>Admin Flow</t>
+  </si>
+  <si>
+    <t>Constraints</t>
+  </si>
+  <si>
+    <t>Reviewer Flow</t>
+  </si>
+  <si>
+    <t>Query Raiser</t>
+  </si>
+  <si>
+    <t>Approver Flow</t>
+  </si>
+  <si>
+    <t>Query solver</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Article Reader:</t>
-  </si>
-  <si>
-    <t>I want to save the article  which impress me.</t>
-  </si>
-  <si>
-    <t>I want to share the article which has new impact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I want to like the article which I love. </t>
-  </si>
-  <si>
-    <t>I can also follow the author I like.</t>
-  </si>
-  <si>
-    <t>Id:3</t>
-  </si>
-  <si>
-    <t>Queries Raiser(Any Employee): </t>
-  </si>
-  <si>
-    <t>I can raise queries in the forum, If I faced any issues. </t>
-  </si>
-  <si>
-    <t>I can search for query in the forum</t>
-  </si>
-  <si>
-    <t>User Flow</t>
-  </si>
-  <si>
-    <t>I can also give verified mark If I get my solution.</t>
-  </si>
-  <si>
-    <t>Id:4</t>
-  </si>
-  <si>
-    <t>I can able to answer Queries raised by anyone in the technical forum.  </t>
-  </si>
-  <si>
-    <t>Queries Solver (Any Employee):</t>
-  </si>
-  <si>
-    <t>I can also interact with query raiser if the question is not clear.</t>
-  </si>
-  <si>
-    <t>Id:5 </t>
-  </si>
-  <si>
-    <t>I can able to view the dashboard. </t>
-  </si>
-  <si>
-    <t>System Admin: </t>
-  </si>
-  <si>
-    <t>I can approve the employee who register ,so that they can able to access our website ,read/write articles ,raise queries and solve queries. </t>
-  </si>
-  <si>
-    <t>I can also give the ratings for authors with their writings.</t>
-  </si>
-  <si>
     <t>I can manage the author and user profile.</t>
   </si>
   <si>
     <t>I can report and delete the spam content and users.</t>
   </si>
   <si>
-    <t>Id:6</t>
-  </si>
-  <si>
-    <t>I can able to review the others articles before publishing.</t>
-  </si>
-  <si>
     <t>Reviewer:</t>
   </si>
   <si>
-    <t>I can able to reject the article if the article content is not good.</t>
-  </si>
-  <si>
-    <t>I can able to approve the article.</t>
-  </si>
-  <si>
     <t>Day 2 -Minutes of Meeting</t>
   </si>
   <si>
@@ -714,9 +786,6 @@
     <t>Expert Flow diagram should be removed</t>
   </si>
   <si>
-    <t>Admin Flow</t>
-  </si>
-  <si>
     <t>My articles section should be added</t>
   </si>
   <si>
@@ -756,87 +825,18 @@
     <t>Dashboard section in the my article page(No of articles,Views,Likes).</t>
   </si>
   <si>
-    <t>Query Raiser</t>
-  </si>
-  <si>
     <t>Query Solver</t>
   </si>
   <si>
     <t>Expert Flow</t>
   </si>
   <si>
-    <t>Reviewer Flow</t>
-  </si>
-  <si>
     <t xml:space="preserve">                                                                                        </t>
   </si>
   <si>
     <t xml:space="preserve">                                              </t>
   </si>
   <si>
-    <t>I can View my published articles and draft articles in MY ARTICLES page.</t>
-  </si>
-  <si>
-    <t>I can Report Spam Queries.</t>
-  </si>
-  <si>
-    <t>I can manage List of Article Approvers</t>
-  </si>
-  <si>
-    <t>I can verify and remove spam queries and send notification with reason</t>
-  </si>
-  <si>
-    <t>Day 3 -Minutes of Meeting</t>
-  </si>
-  <si>
-    <t>Article Approver:</t>
-  </si>
-  <si>
-    <t>Timesheet should contain each person Individual work</t>
-  </si>
-  <si>
-    <t>If one reviewer reviewing one document,that document should be in UnderReview mode ,so that any other reviewer cannot open or review it.</t>
-  </si>
-  <si>
-    <t>In Under Review mode,if it is cancelled then it should be marked back to openForReview mode.</t>
-  </si>
-  <si>
-    <t>Report -&gt; Reportspam/abuse,UserInvitation-&gt; Allowed Users</t>
-  </si>
-  <si>
-    <t>Discussed queries should be notified to the query raiser</t>
-  </si>
-  <si>
-    <t>Filters should be placed in Search Control - Solved/Unsolved Queries.</t>
-  </si>
-  <si>
-    <t>Reviewer should checkout the article for reviewing.(ref 2)</t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>Actors Flow</t>
-  </si>
-  <si>
-    <t>WireFrames - Prototype</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria</t>
-  </si>
-  <si>
-    <t>Dependencies</t>
-  </si>
-  <si>
-    <t>Constraints</t>
-  </si>
-  <si>
-    <t>Approver Flow</t>
-  </si>
-  <si>
-    <t>Query solver</t>
-  </si>
-  <si>
     <t>User Stories</t>
   </si>
   <si>
@@ -1218,6 +1218,9 @@
     <t>Start creating entities</t>
   </si>
   <si>
+    <t>I want to write,add an image,update an article articles, So that I can share my knowledge and thoughts via articles. </t>
+  </si>
+  <si>
     <t>Day 6 -Minutes of Meeting</t>
   </si>
   <si>
@@ -1254,10 +1257,109 @@
     <t>Multiple responsibility in status for admin(Reviewer Name)</t>
   </si>
   <si>
+    <t>To solve the query ,I need some query.</t>
+  </si>
+  <si>
     <t>Articles Reviewed name should be change in Reviewer dashboard</t>
   </si>
   <si>
+    <t>To interact with Query solver,I need to write some query.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To report spam Query,If there is some sentitive content.</t>
+  </si>
+  <si>
+    <t>I want to write articles,add image to the article</t>
+  </si>
+  <si>
+    <t>For writing the article,adding images,I need to login to the application and than i can write article,add image</t>
+  </si>
+  <si>
+    <t>For writing a Article, Author needs articles</t>
+  </si>
+  <si>
+    <t>To invite the specific user,I need to login to the application and need to write the article and add the specific users</t>
+  </si>
+  <si>
+    <t>to add specific users it should depend on authors</t>
+  </si>
+  <si>
+    <t>for adding specific users,user need article and author</t>
+  </si>
+  <si>
+    <t>To update a Article,I need to login to the application and in the published Article we can update the article</t>
+  </si>
+  <si>
+    <t>to update the article it should depend on article</t>
+  </si>
+  <si>
+    <t>for updating article,it needs article</t>
+  </si>
+  <si>
     <t>Day 7 -Minutes of Meeting</t>
+  </si>
+  <si>
+    <t>I can View My profile</t>
+  </si>
+  <si>
+    <t>To view a Profile,Login to the application and in the profile we can view the profile</t>
+  </si>
+  <si>
+    <t>to view the profile it should depend on user</t>
+  </si>
+  <si>
+    <t>for viewing Profile,it needs authors profile</t>
+  </si>
+  <si>
+    <t>I can read articles . </t>
+  </si>
+  <si>
+    <t>To Read an article, it should depend on other articles written by other users</t>
+  </si>
+  <si>
+    <t>For Reading a articles I needarticle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can share the article </t>
+  </si>
+  <si>
+    <t>To share the articles,it should depend on article written by other users</t>
+  </si>
+  <si>
+    <t>For share a articles I need article</t>
+  </si>
+  <si>
+    <t>I can like the article.</t>
+  </si>
+  <si>
+    <t>To like the articles,it should depend on article written by other users</t>
+  </si>
+  <si>
+    <t>For like a articles I need article</t>
+  </si>
+  <si>
+    <t>I can comment article</t>
+  </si>
+  <si>
+    <t>To Comment the article,I need to login to the application and in the list of articles I can select the particular article and view that specific article and Comment that article.</t>
+  </si>
+  <si>
+    <t>To Comment the articles,it should depend on article written by other users</t>
+  </si>
+  <si>
+    <t>For comment a articles I need article</t>
+  </si>
+  <si>
+    <t>I can search the article.</t>
+  </si>
+  <si>
+    <t>To Search the article,I need to login to the application and in the list of articles we can search for a article and  I can select the particular article and view that specific Article.</t>
+  </si>
+  <si>
+    <t>To Search the articles,it should depend on article written by users</t>
+  </si>
+  <si>
+    <t>For Searching article i need article</t>
   </si>
 </sst>
 </file>
@@ -1550,7 +1652,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1608,6 +1710,7 @@
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1631,337 +1734,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAF722E5-4E88-4D53-BA56-45DAB579C575}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16983075" y="5019675"/>
-          <a:ext cx="13154025" cy="4972050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{470E7F49-AA62-4D67-A55A-7C1DC13B2E0A}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{BAF722E5-4E88-4D53-BA56-45DAB579C575}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17554575" y="13620750"/>
-          <a:ext cx="8915400" cy="5267325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25D4C2DC-E5B8-40E6-A897-964E611231E4}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{470E7F49-AA62-4D67-A55A-7C1DC13B2E0A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15640050" y="20002500"/>
-          <a:ext cx="11687175" cy="9201150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>11182350</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15A3C8C8-ECBE-4691-98AD-E1C5D67DE4ED}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{25D4C2DC-E5B8-40E6-A897-964E611231E4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2781300" y="17021175"/>
-          <a:ext cx="10763250" cy="3724275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>10534650</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2663F82-C13B-47A9-B3AD-41E961FF462B}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{15A3C8C8-ECBE-4691-98AD-E1C5D67DE4ED}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3181350" y="8915400"/>
-          <a:ext cx="9715500" cy="4572000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1085850</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>10277475</xdr:colOff>
-      <xdr:row>149</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BED5FE83-5753-4973-AC59-6420BC4E0E76}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F2663F82-C13B-47A9-B3AD-41E961FF462B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3448050" y="27670125"/>
-          <a:ext cx="9191625" cy="4524375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>10210800</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Picture 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B3A019E-60A6-45BF-B240-12A3CDB352F9}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{BED5FE83-5753-4973-AC59-6420BC4E0E76}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3238500" y="22774275"/>
-          <a:ext cx="9334500" cy="3409950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2284,6 +2056,337 @@
         <a:xfrm rot="21585853">
           <a:off x="3019425" y="29746575"/>
           <a:ext cx="9124950" cy="4057650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAF722E5-4E88-4D53-BA56-45DAB579C575}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16983075" y="5019675"/>
+          <a:ext cx="13154025" cy="4972050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{470E7F49-AA62-4D67-A55A-7C1DC13B2E0A}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{BAF722E5-4E88-4D53-BA56-45DAB579C575}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17554575" y="13620750"/>
+          <a:ext cx="8915400" cy="5267325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25D4C2DC-E5B8-40E6-A897-964E611231E4}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{470E7F49-AA62-4D67-A55A-7C1DC13B2E0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15640050" y="20002500"/>
+          <a:ext cx="11687175" cy="9201150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11182350</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15A3C8C8-ECBE-4691-98AD-E1C5D67DE4ED}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{25D4C2DC-E5B8-40E6-A897-964E611231E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2781300" y="17021175"/>
+          <a:ext cx="10763250" cy="3724275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10534650</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2663F82-C13B-47A9-B3AD-41E961FF462B}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{15A3C8C8-ECBE-4691-98AD-E1C5D67DE4ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3181350" y="8915400"/>
+          <a:ext cx="9715500" cy="4572000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10277475</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BED5FE83-5753-4973-AC59-6420BC4E0E76}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F2663F82-C13B-47A9-B3AD-41E961FF462B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3448050" y="27670125"/>
+          <a:ext cx="9191625" cy="4524375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10210800</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B3A019E-60A6-45BF-B240-12A3CDB352F9}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{BED5FE83-5753-4973-AC59-6420BC4E0E76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3238500" y="22774275"/>
+          <a:ext cx="9334500" cy="3409950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2865,290 +2968,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>10487025</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1923E70A-E0B6-450F-B5B0-1942EE523447}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2686050" y="9810750"/>
-          <a:ext cx="10487025" cy="10887075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>10467975</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D62F3C9-1033-46CE-8440-CA9B382B77A5}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1923E70A-E0B6-450F-B5B0-1942EE523447}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2686050" y="21488400"/>
-          <a:ext cx="10467975" cy="6229350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>10391775</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F13AD915-FD8D-4E99-B161-34703B625F44}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0D62F3C9-1033-46CE-8440-CA9B382B77A5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2686050" y="28679775"/>
-          <a:ext cx="10391775" cy="1885950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>10487025</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4BE2803-5188-4BA2-B1CA-E87605BD4B36}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F13AD915-FD8D-4E99-B161-34703B625F44}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2686050" y="9810750"/>
-          <a:ext cx="10487025" cy="10887075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>10467975</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7859BC76-71C9-4871-8BA0-63D5D09F1478}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B4BE2803-5188-4BA2-B1CA-E87605BD4B36}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2686050" y="21488400"/>
-          <a:ext cx="10467975" cy="6229350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>10391775</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DED2FD9-E37F-4896-AE87-778AD0139504}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7859BC76-71C9-4871-8BA0-63D5D09F1478}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2686050" y="28679775"/>
-          <a:ext cx="10391775" cy="1885950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4122,964 +3941,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36926E04-CA90-4C00-B9CA-D6AA30EAC21F}">
-  <dimension ref="A1:AX172"/>
-  <sheetViews>
-    <sheetView topLeftCell="L44" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="1" width="35.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="178.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" style="3" customWidth="1"/>
-    <col min="4" max="32" width="9.140625" style="3"/>
-    <col min="33" max="33" width="20.85546875" style="3" customWidth="1"/>
-    <col min="34" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="B3" s="18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="B5" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="B11" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="B12" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="B13" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="25.5">
-      <c r="B19" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="B20" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="B30" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="B31" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="B32" s="17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="B36" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="B37" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="1:2" ht="44.25">
-      <c r="A39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="B40" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41"/>
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="B45" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="B46" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="1:50">
-      <c r="AG49" s="11"/>
-      <c r="AH49" s="11"/>
-      <c r="AI49" s="11"/>
-      <c r="AJ49" s="11"/>
-      <c r="AK49" s="11"/>
-      <c r="AL49" s="11"/>
-      <c r="AM49" s="11"/>
-      <c r="AN49" s="11"/>
-      <c r="AO49" s="11"/>
-      <c r="AP49" s="11"/>
-      <c r="AQ49" s="11"/>
-      <c r="AR49" s="11"/>
-      <c r="AS49" s="11"/>
-      <c r="AT49" s="11"/>
-      <c r="AU49" s="11"/>
-      <c r="AV49" s="11"/>
-      <c r="AW49" s="11"/>
-      <c r="AX49" s="11"/>
-    </row>
-    <row r="50" spans="1:50">
-      <c r="AG50" s="11"/>
-      <c r="AH50" s="11"/>
-      <c r="AI50" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ50" s="13"/>
-      <c r="AK50" s="13"/>
-      <c r="AL50" s="13"/>
-      <c r="AM50" s="11"/>
-      <c r="AN50" s="11"/>
-      <c r="AO50" s="11"/>
-      <c r="AP50" s="11"/>
-      <c r="AQ50" s="11"/>
-      <c r="AR50" s="11"/>
-      <c r="AS50" s="11"/>
-      <c r="AT50" s="11"/>
-      <c r="AU50" s="11"/>
-      <c r="AV50" s="11"/>
-      <c r="AW50" s="11"/>
-      <c r="AX50" s="11"/>
-    </row>
-    <row r="51" spans="1:50">
-      <c r="B51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG51" s="11"/>
-      <c r="AH51" s="11"/>
-      <c r="AI51" s="11"/>
-      <c r="AJ51" s="11"/>
-      <c r="AK51" s="11"/>
-      <c r="AL51" s="11"/>
-      <c r="AM51" s="11"/>
-      <c r="AN51" s="11"/>
-      <c r="AO51" s="11"/>
-      <c r="AP51" s="11"/>
-      <c r="AQ51" s="11"/>
-      <c r="AR51" s="11"/>
-      <c r="AS51" s="11"/>
-      <c r="AT51" s="11"/>
-      <c r="AU51" s="11"/>
-      <c r="AV51" s="11"/>
-      <c r="AW51" s="11"/>
-      <c r="AX51" s="11"/>
-    </row>
-    <row r="52" spans="1:50">
-      <c r="AG52" s="11">
-        <v>1</v>
-      </c>
-      <c r="AH52" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI52" s="11"/>
-      <c r="AJ52" s="11"/>
-      <c r="AK52" s="11"/>
-      <c r="AL52" s="11"/>
-      <c r="AM52" s="11"/>
-      <c r="AN52" s="11"/>
-      <c r="AO52" s="11"/>
-      <c r="AP52" s="11"/>
-      <c r="AQ52" s="11"/>
-      <c r="AR52" s="11"/>
-      <c r="AS52" s="11"/>
-      <c r="AT52" s="11"/>
-      <c r="AU52" s="11"/>
-      <c r="AV52" s="11"/>
-      <c r="AW52" s="11"/>
-      <c r="AX52" s="11"/>
-    </row>
-    <row r="53" spans="1:50">
-      <c r="AG53" s="11">
-        <v>2</v>
-      </c>
-      <c r="AH53" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="AI53" s="11"/>
-      <c r="AJ53" s="11"/>
-      <c r="AK53" s="11"/>
-      <c r="AL53" s="11"/>
-      <c r="AM53" s="11"/>
-      <c r="AN53" s="11"/>
-      <c r="AO53" s="11"/>
-      <c r="AP53" s="11"/>
-      <c r="AQ53" s="11"/>
-      <c r="AR53" s="11"/>
-      <c r="AS53" s="11"/>
-      <c r="AT53" s="11"/>
-      <c r="AU53" s="11"/>
-      <c r="AV53" s="11"/>
-      <c r="AW53" s="11"/>
-      <c r="AX53" s="11"/>
-    </row>
-    <row r="54" spans="1:50">
-      <c r="AG54" s="11">
-        <v>3</v>
-      </c>
-      <c r="AH54" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI54" s="11"/>
-      <c r="AJ54" s="11"/>
-      <c r="AK54" s="11"/>
-      <c r="AL54" s="11"/>
-      <c r="AM54" s="11"/>
-      <c r="AN54" s="11"/>
-      <c r="AO54" s="11"/>
-      <c r="AP54" s="11"/>
-      <c r="AQ54" s="11"/>
-      <c r="AR54" s="11"/>
-      <c r="AS54" s="11"/>
-      <c r="AT54" s="11"/>
-      <c r="AU54" s="11"/>
-      <c r="AV54" s="11"/>
-      <c r="AW54" s="11"/>
-      <c r="AX54" s="11"/>
-    </row>
-    <row r="55" spans="1:50">
-      <c r="D55" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG55" s="11">
-        <v>4</v>
-      </c>
-      <c r="AH55" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI55" s="11"/>
-      <c r="AJ55" s="11"/>
-      <c r="AK55" s="11"/>
-      <c r="AL55" s="11"/>
-      <c r="AM55" s="11"/>
-      <c r="AN55" s="11"/>
-      <c r="AO55" s="11"/>
-      <c r="AP55" s="11"/>
-      <c r="AQ55" s="11"/>
-      <c r="AR55" s="11"/>
-      <c r="AS55" s="11"/>
-      <c r="AT55" s="11"/>
-      <c r="AU55" s="11"/>
-      <c r="AV55" s="11"/>
-      <c r="AW55" s="11"/>
-      <c r="AX55" s="11"/>
-    </row>
-    <row r="56" spans="1:50">
-      <c r="AG56" s="11">
-        <v>5</v>
-      </c>
-      <c r="AH56" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="AI56" s="11"/>
-      <c r="AJ56" s="11"/>
-      <c r="AK56" s="11"/>
-      <c r="AL56" s="11"/>
-      <c r="AM56" s="11"/>
-      <c r="AN56" s="11"/>
-      <c r="AO56" s="11"/>
-      <c r="AP56" s="11"/>
-      <c r="AQ56" s="11"/>
-      <c r="AR56" s="11"/>
-      <c r="AS56" s="11"/>
-      <c r="AT56" s="11"/>
-      <c r="AU56" s="11"/>
-      <c r="AV56" s="11"/>
-      <c r="AW56" s="11"/>
-      <c r="AX56" s="11"/>
-    </row>
-    <row r="57" spans="1:50">
-      <c r="A57" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG57" s="11">
-        <v>6</v>
-      </c>
-      <c r="AH57" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI57" s="11"/>
-      <c r="AJ57" s="11"/>
-      <c r="AK57" s="11"/>
-      <c r="AL57" s="11"/>
-      <c r="AM57" s="11"/>
-      <c r="AN57" s="11"/>
-      <c r="AO57" s="11"/>
-      <c r="AP57" s="11"/>
-      <c r="AQ57" s="11"/>
-      <c r="AR57" s="11"/>
-      <c r="AS57" s="11"/>
-      <c r="AT57" s="11"/>
-      <c r="AU57" s="11"/>
-      <c r="AV57" s="11"/>
-      <c r="AW57" s="11"/>
-      <c r="AX57" s="11"/>
-    </row>
-    <row r="58" spans="1:50">
-      <c r="AG58" s="11">
-        <v>7</v>
-      </c>
-      <c r="AH58" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="AI58" s="11"/>
-      <c r="AJ58" s="11"/>
-      <c r="AK58" s="11"/>
-      <c r="AL58" s="11"/>
-      <c r="AM58" s="11"/>
-      <c r="AN58" s="11"/>
-      <c r="AO58" s="11"/>
-      <c r="AP58" s="11"/>
-      <c r="AQ58" s="11"/>
-      <c r="AR58" s="11"/>
-      <c r="AS58" s="11"/>
-      <c r="AT58" s="11"/>
-      <c r="AU58" s="11"/>
-      <c r="AV58" s="11"/>
-      <c r="AW58" s="11"/>
-      <c r="AX58" s="11"/>
-    </row>
-    <row r="59" spans="1:50">
-      <c r="AG59" s="11">
-        <v>8</v>
-      </c>
-      <c r="AH59" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI59" s="11"/>
-      <c r="AJ59" s="11"/>
-      <c r="AK59" s="11"/>
-      <c r="AL59" s="11"/>
-      <c r="AM59" s="11"/>
-      <c r="AN59" s="11"/>
-      <c r="AO59" s="11"/>
-      <c r="AP59" s="11"/>
-      <c r="AQ59" s="11"/>
-      <c r="AR59" s="11"/>
-      <c r="AS59" s="11"/>
-      <c r="AT59" s="11"/>
-      <c r="AU59" s="11"/>
-      <c r="AV59" s="11"/>
-      <c r="AW59" s="11"/>
-      <c r="AX59" s="11"/>
-    </row>
-    <row r="60" spans="1:50">
-      <c r="AG60" s="11">
-        <v>9</v>
-      </c>
-      <c r="AH60" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="AI60" s="11"/>
-      <c r="AJ60" s="11"/>
-      <c r="AK60" s="11"/>
-      <c r="AL60" s="11"/>
-      <c r="AM60" s="11"/>
-      <c r="AN60" s="11"/>
-      <c r="AO60" s="11"/>
-      <c r="AP60" s="11"/>
-      <c r="AQ60" s="11"/>
-      <c r="AR60" s="11"/>
-      <c r="AS60" s="11"/>
-      <c r="AT60" s="11"/>
-      <c r="AU60" s="11"/>
-      <c r="AV60" s="11"/>
-      <c r="AW60" s="11"/>
-      <c r="AX60" s="11"/>
-    </row>
-    <row r="61" spans="1:50">
-      <c r="AG61" s="11">
-        <v>10</v>
-      </c>
-      <c r="AH61" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="AI61" s="11"/>
-      <c r="AJ61" s="11"/>
-      <c r="AK61" s="11"/>
-      <c r="AL61" s="11"/>
-      <c r="AM61" s="11"/>
-      <c r="AN61" s="11"/>
-      <c r="AO61" s="11"/>
-      <c r="AP61" s="11"/>
-      <c r="AQ61" s="11"/>
-      <c r="AR61" s="11"/>
-      <c r="AS61" s="11"/>
-      <c r="AT61" s="11"/>
-      <c r="AU61" s="11"/>
-      <c r="AV61" s="11"/>
-      <c r="AW61" s="11"/>
-      <c r="AX61" s="11"/>
-    </row>
-    <row r="62" spans="1:50">
-      <c r="AG62" s="11">
-        <v>11</v>
-      </c>
-      <c r="AH62" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="AI62" s="11"/>
-      <c r="AJ62" s="11"/>
-      <c r="AK62" s="11"/>
-      <c r="AL62" s="11"/>
-      <c r="AM62" s="11"/>
-      <c r="AN62" s="11"/>
-      <c r="AO62" s="11"/>
-      <c r="AP62" s="11"/>
-      <c r="AQ62" s="11"/>
-      <c r="AR62" s="11"/>
-      <c r="AS62" s="11"/>
-      <c r="AT62" s="11"/>
-      <c r="AU62" s="11"/>
-      <c r="AV62" s="11"/>
-      <c r="AW62" s="11"/>
-      <c r="AX62" s="11"/>
-    </row>
-    <row r="63" spans="1:50">
-      <c r="AG63" s="11">
-        <v>12</v>
-      </c>
-      <c r="AH63" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI63" s="11"/>
-      <c r="AJ63" s="11"/>
-      <c r="AK63" s="11"/>
-      <c r="AL63" s="11"/>
-      <c r="AM63" s="11"/>
-      <c r="AN63" s="11"/>
-      <c r="AO63" s="11"/>
-      <c r="AP63" s="11"/>
-      <c r="AQ63" s="11"/>
-      <c r="AR63" s="11"/>
-      <c r="AS63" s="11"/>
-      <c r="AT63" s="11"/>
-      <c r="AU63" s="11"/>
-      <c r="AV63" s="11"/>
-      <c r="AW63" s="11"/>
-      <c r="AX63" s="11"/>
-    </row>
-    <row r="64" spans="1:50">
-      <c r="AG64" s="11">
-        <v>13</v>
-      </c>
-      <c r="AH64" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI64" s="11"/>
-      <c r="AJ64" s="11"/>
-      <c r="AK64" s="11"/>
-      <c r="AL64" s="11"/>
-      <c r="AM64" s="11"/>
-      <c r="AN64" s="11"/>
-      <c r="AO64" s="11"/>
-      <c r="AP64" s="11"/>
-      <c r="AQ64" s="11"/>
-      <c r="AR64" s="11"/>
-      <c r="AS64" s="11"/>
-      <c r="AT64" s="11"/>
-      <c r="AU64" s="11"/>
-      <c r="AV64" s="11"/>
-      <c r="AW64" s="11"/>
-      <c r="AX64" s="11"/>
-    </row>
-    <row r="65" spans="1:50">
-      <c r="AG65" s="11">
-        <v>14</v>
-      </c>
-      <c r="AH65" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="AI65" s="11"/>
-      <c r="AJ65" s="11"/>
-      <c r="AK65" s="11"/>
-      <c r="AL65" s="11"/>
-      <c r="AM65" s="11"/>
-      <c r="AN65" s="11"/>
-      <c r="AO65" s="11"/>
-      <c r="AP65" s="11"/>
-      <c r="AQ65" s="11"/>
-      <c r="AR65" s="11"/>
-      <c r="AS65" s="11"/>
-      <c r="AT65" s="11"/>
-      <c r="AU65" s="11"/>
-      <c r="AV65" s="11"/>
-      <c r="AW65" s="11"/>
-      <c r="AX65" s="11"/>
-    </row>
-    <row r="66" spans="1:50">
-      <c r="AG66" s="11"/>
-      <c r="AH66" s="11"/>
-      <c r="AI66" s="11"/>
-      <c r="AJ66" s="11"/>
-      <c r="AK66" s="11"/>
-      <c r="AL66" s="11"/>
-      <c r="AM66" s="11"/>
-      <c r="AN66" s="11"/>
-      <c r="AO66" s="11"/>
-      <c r="AP66" s="11"/>
-      <c r="AQ66" s="11"/>
-      <c r="AR66" s="11"/>
-      <c r="AS66" s="11"/>
-      <c r="AT66" s="11"/>
-      <c r="AU66" s="11"/>
-      <c r="AV66" s="11"/>
-      <c r="AW66" s="11"/>
-      <c r="AX66" s="11"/>
-    </row>
-    <row r="67" spans="1:50">
-      <c r="AG67" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH67" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI67" s="11"/>
-      <c r="AJ67" s="11"/>
-      <c r="AK67" s="11"/>
-      <c r="AL67" s="11"/>
-      <c r="AM67" s="11"/>
-      <c r="AN67" s="11"/>
-      <c r="AO67" s="11"/>
-      <c r="AP67" s="11"/>
-      <c r="AQ67" s="11"/>
-      <c r="AR67" s="11"/>
-      <c r="AS67" s="11"/>
-      <c r="AT67" s="11"/>
-      <c r="AU67" s="11"/>
-      <c r="AV67" s="11"/>
-      <c r="AW67" s="11"/>
-      <c r="AX67" s="11"/>
-    </row>
-    <row r="68" spans="1:50">
-      <c r="AG68" s="11"/>
-      <c r="AH68" s="11"/>
-      <c r="AI68" s="11"/>
-      <c r="AJ68" s="11"/>
-      <c r="AK68" s="11"/>
-      <c r="AL68" s="11"/>
-      <c r="AM68" s="11"/>
-      <c r="AN68" s="11"/>
-      <c r="AO68" s="11"/>
-      <c r="AP68" s="11"/>
-      <c r="AQ68" s="11"/>
-      <c r="AR68" s="11"/>
-      <c r="AS68" s="11"/>
-      <c r="AT68" s="11"/>
-      <c r="AU68" s="11"/>
-      <c r="AV68" s="11"/>
-      <c r="AW68" s="11"/>
-      <c r="AX68" s="11"/>
-    </row>
-    <row r="75" spans="1:50">
-      <c r="A75" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="B75" s="24"/>
-    </row>
-    <row r="76" spans="1:50">
-      <c r="B76" s="24"/>
-    </row>
-    <row r="77" spans="1:50">
-      <c r="B77" s="24"/>
-    </row>
-    <row r="78" spans="1:50">
-      <c r="B78" s="24"/>
-    </row>
-    <row r="79" spans="1:50">
-      <c r="B79" s="24"/>
-    </row>
-    <row r="80" spans="1:50">
-      <c r="B80" s="24"/>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="B81" s="24"/>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="B82" s="24"/>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="B83" s="24"/>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="B84" s="24"/>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="B85" s="24"/>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="B86" s="24"/>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="B87" s="24"/>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="B88" s="24"/>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="B89" s="24"/>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="B90" s="24"/>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="B91" s="24"/>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="B92" s="24"/>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="B93" s="24"/>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="B94" s="24"/>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="B95" s="24"/>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="B96" s="24"/>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="B97" s="24"/>
-      <c r="E97" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="B98" s="24"/>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="B105" s="23"/>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B106" s="23"/>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="B107" s="23"/>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="B108" s="23"/>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="B109" s="23"/>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="B110" s="23"/>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="B111" s="23"/>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="B112" s="23"/>
-    </row>
-    <row r="113" spans="2:2">
-      <c r="B113" s="23"/>
-    </row>
-    <row r="114" spans="2:2">
-      <c r="B114" s="23"/>
-    </row>
-    <row r="115" spans="2:2">
-      <c r="B115" s="23"/>
-    </row>
-    <row r="116" spans="2:2">
-      <c r="B116" s="23"/>
-    </row>
-    <row r="117" spans="2:2">
-      <c r="B117" s="23"/>
-    </row>
-    <row r="118" spans="2:2">
-      <c r="B118" s="23"/>
-    </row>
-    <row r="119" spans="2:2">
-      <c r="B119" s="23"/>
-    </row>
-    <row r="120" spans="2:2">
-      <c r="B120" s="23"/>
-    </row>
-    <row r="121" spans="2:2">
-      <c r="B121" s="23"/>
-    </row>
-    <row r="122" spans="2:2">
-      <c r="B122" s="23"/>
-    </row>
-    <row r="123" spans="2:2">
-      <c r="B123" s="23"/>
-    </row>
-    <row r="124" spans="2:2">
-      <c r="B124" s="23"/>
-    </row>
-    <row r="125" spans="2:2">
-      <c r="B125" s="23"/>
-    </row>
-    <row r="126" spans="2:2">
-      <c r="B126" s="23"/>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="B131" s="22"/>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B132" s="22"/>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="B133" s="22"/>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="B134" s="22"/>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="B135" s="22"/>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="B136" s="22"/>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="B137" s="22"/>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="B138" s="22"/>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="B139" s="22"/>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="B140" s="22"/>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="B141" s="22"/>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="B142" s="22"/>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="B143" s="22"/>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="B144" s="22"/>
-    </row>
-    <row r="145" spans="2:2">
-      <c r="B145" s="22"/>
-    </row>
-    <row r="146" spans="2:2">
-      <c r="B146" s="22"/>
-    </row>
-    <row r="147" spans="2:2">
-      <c r="B147" s="22"/>
-    </row>
-    <row r="148" spans="2:2">
-      <c r="B148" s="22"/>
-    </row>
-    <row r="149" spans="2:2">
-      <c r="B149" s="22"/>
-    </row>
-    <row r="150" spans="2:2">
-      <c r="B150" s="22"/>
-    </row>
-    <row r="151" spans="2:2">
-      <c r="B151" s="22"/>
-    </row>
-    <row r="152" spans="2:2">
-      <c r="B152" s="22"/>
-    </row>
-    <row r="153" spans="2:2">
-      <c r="B153" s="22"/>
-    </row>
-    <row r="154" spans="2:2">
-      <c r="B154" s="22"/>
-    </row>
-    <row r="155" spans="2:2">
-      <c r="B155" s="22"/>
-    </row>
-    <row r="156" spans="2:2">
-      <c r="B156" s="22"/>
-    </row>
-    <row r="157" spans="2:2">
-      <c r="B157" s="22"/>
-    </row>
-    <row r="167" spans="20:21">
-      <c r="T167" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="172" spans="20:21">
-      <c r="U172" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C641DA78-A8C7-45F3-87E3-0F8CD3145EAF}">
   <dimension ref="A1:BA164"/>
   <sheetViews>
@@ -5128,13 +3989,13 @@
         <v>61</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="18.75">
       <c r="A6" s="3"/>
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
@@ -5170,7 +4031,7 @@
     <row r="7" spans="1:33" ht="18.75">
       <c r="A7" s="3"/>
       <c r="B7" s="29" t="s">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
@@ -5272,10 +4133,10 @@
     </row>
     <row r="10" spans="1:33" ht="18.75">
       <c r="A10" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D10" s="38"/>
       <c r="E10" s="38"/>
@@ -5310,10 +4171,10 @@
     </row>
     <row r="11" spans="1:33" ht="18.75">
       <c r="A11" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D11" s="38"/>
       <c r="E11" s="38"/>
@@ -5349,7 +4210,7 @@
     <row r="12" spans="1:33" ht="18.75">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D12" s="38"/>
       <c r="E12" s="38"/>
@@ -5385,7 +4246,7 @@
     <row r="13" spans="1:33" ht="18.75">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D13" s="38"/>
       <c r="E13" s="38"/>
@@ -5421,7 +4282,7 @@
     <row r="14" spans="1:33" ht="18.75">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D14" s="38"/>
       <c r="E14" s="38"/>
@@ -5558,7 +4419,7 @@
     </row>
     <row r="18" spans="1:33" ht="18.75">
       <c r="A18" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B18" s="3"/>
       <c r="D18" s="38"/>
@@ -5594,10 +4455,10 @@
     </row>
     <row r="19" spans="1:33" ht="18">
       <c r="A19" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D19" s="38"/>
       <c r="E19" s="38"/>
@@ -5633,7 +4494,7 @@
     <row r="20" spans="1:33" ht="18.75">
       <c r="A20" s="3"/>
       <c r="B20" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D20" s="38"/>
       <c r="E20" s="38"/>
@@ -5849,7 +4710,7 @@
     <row r="26" spans="1:33" ht="18.75">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="D26" s="38"/>
       <c r="E26" s="38"/>
@@ -5952,10 +4813,10 @@
     </row>
     <row r="29" spans="1:33" ht="18">
       <c r="A29" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D29" s="38"/>
       <c r="E29" s="38"/>
@@ -5990,10 +4851,10 @@
     </row>
     <row r="30" spans="1:33" ht="18">
       <c r="A30" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D30" s="38"/>
       <c r="E30" s="38"/>
@@ -6029,7 +4890,7 @@
     <row r="31" spans="1:33" ht="18.75">
       <c r="A31" s="3"/>
       <c r="B31" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D31" s="38"/>
       <c r="E31" s="38"/>
@@ -6065,7 +4926,7 @@
     <row r="32" spans="1:33" ht="18.75">
       <c r="A32" s="3"/>
       <c r="B32" s="30" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="D32" s="38"/>
       <c r="E32" s="38"/>
@@ -6101,7 +4962,7 @@
     <row r="33" spans="1:53" ht="18.75">
       <c r="A33" s="3"/>
       <c r="B33" s="30" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="D33" s="38"/>
       <c r="E33" s="38"/>
@@ -6204,10 +5065,10 @@
     </row>
     <row r="35" spans="1:53" ht="18.75">
       <c r="A35" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D35" s="38"/>
       <c r="E35" s="38"/>
@@ -6242,7 +5103,7 @@
       <c r="AK35" s="11"/>
       <c r="AL35" s="11"/>
       <c r="AM35" s="12" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="AN35" s="13"/>
       <c r="AO35" s="13"/>
@@ -6261,10 +5122,10 @@
     </row>
     <row r="36" spans="1:53" ht="18.75">
       <c r="A36" s="3" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D36" s="38"/>
       <c r="E36" s="38"/>
@@ -6317,7 +5178,7 @@
     <row r="37" spans="1:53" ht="18.75">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D37" s="38"/>
       <c r="E37" s="38"/>
@@ -6353,7 +5214,7 @@
         <v>1</v>
       </c>
       <c r="AL37" s="11" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="AM37" s="11"/>
       <c r="AN37" s="11"/>
@@ -6408,7 +5269,7 @@
         <v>2</v>
       </c>
       <c r="AL38" s="11" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="AM38" s="11"/>
       <c r="AN38" s="11"/>
@@ -6461,7 +5322,7 @@
         <v>3</v>
       </c>
       <c r="AL39" s="11" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="AM39" s="11"/>
       <c r="AN39" s="11"/>
@@ -6514,7 +5375,7 @@
         <v>4</v>
       </c>
       <c r="AL40" s="11" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="AM40" s="11"/>
       <c r="AN40" s="11"/>
@@ -6567,7 +5428,7 @@
         <v>5</v>
       </c>
       <c r="AL41" s="11" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="AM41" s="11"/>
       <c r="AN41" s="11"/>
@@ -6620,7 +5481,7 @@
         <v>6</v>
       </c>
       <c r="AL42" s="11" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="AM42" s="11"/>
       <c r="AN42" s="11"/>
@@ -6673,7 +5534,7 @@
         <v>7</v>
       </c>
       <c r="AL43" s="11" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="AM43" s="11"/>
       <c r="AN43" s="11"/>
@@ -6724,7 +5585,7 @@
       <c r="AG44" s="38"/>
       <c r="AK44" s="11"/>
       <c r="AL44" s="33" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="AM44" s="11"/>
       <c r="AN44" s="11"/>
@@ -6744,7 +5605,7 @@
     </row>
     <row r="45" spans="1:53" ht="25.5">
       <c r="B45" s="25" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="D45" s="38"/>
       <c r="E45" s="38"/>
@@ -6780,7 +5641,7 @@
         <v>8</v>
       </c>
       <c r="AL45" s="11" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="AM45" s="11"/>
       <c r="AN45" s="11"/>
@@ -6833,7 +5694,7 @@
         <v>9</v>
       </c>
       <c r="AL46" s="11" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="AM46" s="11"/>
       <c r="AN46" s="11"/>
@@ -6887,7 +5748,7 @@
         <v>10</v>
       </c>
       <c r="AL47" s="11" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="AM47" s="11"/>
       <c r="AN47" s="11"/>
@@ -6907,7 +5768,7 @@
     </row>
     <row r="48" spans="1:53" ht="21">
       <c r="A48" s="27" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B48" s="26"/>
       <c r="D48" s="38"/>
@@ -6944,7 +5805,7 @@
         <v>11</v>
       </c>
       <c r="AL48" s="11" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="AM48" s="11"/>
       <c r="AN48" s="11"/>
@@ -7699,7 +6560,7 @@
     <row r="71" spans="1:33" ht="36.75">
       <c r="B71" s="26"/>
       <c r="D71" s="34" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:33">
@@ -7905,7 +6766,7 @@
     </row>
     <row r="79" spans="1:33" ht="21">
       <c r="A79" s="27" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B79" s="28"/>
       <c r="D79" s="39"/>
@@ -8889,7 +7750,7 @@
     </row>
     <row r="113" spans="1:33" ht="21">
       <c r="A113" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B113" s="31"/>
       <c r="D113" s="39"/>
@@ -9164,7 +8025,7 @@
     <row r="125" spans="1:33" ht="33">
       <c r="B125" s="31"/>
       <c r="D125" s="35" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
     </row>
     <row r="126" spans="1:33">
@@ -9685,7 +8546,7 @@
     </row>
     <row r="144" spans="1:33" ht="18.75">
       <c r="A144" s="3" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="B144" s="32"/>
       <c r="E144" s="36"/>
@@ -10161,6 +9022,964 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36926E04-CA90-4C00-B9CA-D6AA30EAC21F}">
+  <dimension ref="A1:AX172"/>
+  <sheetViews>
+    <sheetView topLeftCell="L44" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="35.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="178.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" style="3" customWidth="1"/>
+    <col min="4" max="32" width="9.140625" style="3"/>
+    <col min="33" max="33" width="20.85546875" style="3" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="25.5">
+      <c r="B19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="B30" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="B31" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="B32" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="B37" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:2" ht="44.25">
+      <c r="A39" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="B40" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41"/>
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="B45" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="B46" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="1:50">
+      <c r="AG49" s="11"/>
+      <c r="AH49" s="11"/>
+      <c r="AI49" s="11"/>
+      <c r="AJ49" s="11"/>
+      <c r="AK49" s="11"/>
+      <c r="AL49" s="11"/>
+      <c r="AM49" s="11"/>
+      <c r="AN49" s="11"/>
+      <c r="AO49" s="11"/>
+      <c r="AP49" s="11"/>
+      <c r="AQ49" s="11"/>
+      <c r="AR49" s="11"/>
+      <c r="AS49" s="11"/>
+      <c r="AT49" s="11"/>
+      <c r="AU49" s="11"/>
+      <c r="AV49" s="11"/>
+      <c r="AW49" s="11"/>
+      <c r="AX49" s="11"/>
+    </row>
+    <row r="50" spans="1:50">
+      <c r="AG50" s="11"/>
+      <c r="AH50" s="11"/>
+      <c r="AI50" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ50" s="13"/>
+      <c r="AK50" s="13"/>
+      <c r="AL50" s="13"/>
+      <c r="AM50" s="11"/>
+      <c r="AN50" s="11"/>
+      <c r="AO50" s="11"/>
+      <c r="AP50" s="11"/>
+      <c r="AQ50" s="11"/>
+      <c r="AR50" s="11"/>
+      <c r="AS50" s="11"/>
+      <c r="AT50" s="11"/>
+      <c r="AU50" s="11"/>
+      <c r="AV50" s="11"/>
+      <c r="AW50" s="11"/>
+      <c r="AX50" s="11"/>
+    </row>
+    <row r="51" spans="1:50">
+      <c r="B51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG51" s="11"/>
+      <c r="AH51" s="11"/>
+      <c r="AI51" s="11"/>
+      <c r="AJ51" s="11"/>
+      <c r="AK51" s="11"/>
+      <c r="AL51" s="11"/>
+      <c r="AM51" s="11"/>
+      <c r="AN51" s="11"/>
+      <c r="AO51" s="11"/>
+      <c r="AP51" s="11"/>
+      <c r="AQ51" s="11"/>
+      <c r="AR51" s="11"/>
+      <c r="AS51" s="11"/>
+      <c r="AT51" s="11"/>
+      <c r="AU51" s="11"/>
+      <c r="AV51" s="11"/>
+      <c r="AW51" s="11"/>
+      <c r="AX51" s="11"/>
+    </row>
+    <row r="52" spans="1:50">
+      <c r="AG52" s="11">
+        <v>1</v>
+      </c>
+      <c r="AH52" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI52" s="11"/>
+      <c r="AJ52" s="11"/>
+      <c r="AK52" s="11"/>
+      <c r="AL52" s="11"/>
+      <c r="AM52" s="11"/>
+      <c r="AN52" s="11"/>
+      <c r="AO52" s="11"/>
+      <c r="AP52" s="11"/>
+      <c r="AQ52" s="11"/>
+      <c r="AR52" s="11"/>
+      <c r="AS52" s="11"/>
+      <c r="AT52" s="11"/>
+      <c r="AU52" s="11"/>
+      <c r="AV52" s="11"/>
+      <c r="AW52" s="11"/>
+      <c r="AX52" s="11"/>
+    </row>
+    <row r="53" spans="1:50">
+      <c r="AG53" s="11">
+        <v>2</v>
+      </c>
+      <c r="AH53" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI53" s="11"/>
+      <c r="AJ53" s="11"/>
+      <c r="AK53" s="11"/>
+      <c r="AL53" s="11"/>
+      <c r="AM53" s="11"/>
+      <c r="AN53" s="11"/>
+      <c r="AO53" s="11"/>
+      <c r="AP53" s="11"/>
+      <c r="AQ53" s="11"/>
+      <c r="AR53" s="11"/>
+      <c r="AS53" s="11"/>
+      <c r="AT53" s="11"/>
+      <c r="AU53" s="11"/>
+      <c r="AV53" s="11"/>
+      <c r="AW53" s="11"/>
+      <c r="AX53" s="11"/>
+    </row>
+    <row r="54" spans="1:50">
+      <c r="AG54" s="11">
+        <v>3</v>
+      </c>
+      <c r="AH54" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI54" s="11"/>
+      <c r="AJ54" s="11"/>
+      <c r="AK54" s="11"/>
+      <c r="AL54" s="11"/>
+      <c r="AM54" s="11"/>
+      <c r="AN54" s="11"/>
+      <c r="AO54" s="11"/>
+      <c r="AP54" s="11"/>
+      <c r="AQ54" s="11"/>
+      <c r="AR54" s="11"/>
+      <c r="AS54" s="11"/>
+      <c r="AT54" s="11"/>
+      <c r="AU54" s="11"/>
+      <c r="AV54" s="11"/>
+      <c r="AW54" s="11"/>
+      <c r="AX54" s="11"/>
+    </row>
+    <row r="55" spans="1:50">
+      <c r="D55" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG55" s="11">
+        <v>4</v>
+      </c>
+      <c r="AH55" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI55" s="11"/>
+      <c r="AJ55" s="11"/>
+      <c r="AK55" s="11"/>
+      <c r="AL55" s="11"/>
+      <c r="AM55" s="11"/>
+      <c r="AN55" s="11"/>
+      <c r="AO55" s="11"/>
+      <c r="AP55" s="11"/>
+      <c r="AQ55" s="11"/>
+      <c r="AR55" s="11"/>
+      <c r="AS55" s="11"/>
+      <c r="AT55" s="11"/>
+      <c r="AU55" s="11"/>
+      <c r="AV55" s="11"/>
+      <c r="AW55" s="11"/>
+      <c r="AX55" s="11"/>
+    </row>
+    <row r="56" spans="1:50">
+      <c r="AG56" s="11">
+        <v>5</v>
+      </c>
+      <c r="AH56" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI56" s="11"/>
+      <c r="AJ56" s="11"/>
+      <c r="AK56" s="11"/>
+      <c r="AL56" s="11"/>
+      <c r="AM56" s="11"/>
+      <c r="AN56" s="11"/>
+      <c r="AO56" s="11"/>
+      <c r="AP56" s="11"/>
+      <c r="AQ56" s="11"/>
+      <c r="AR56" s="11"/>
+      <c r="AS56" s="11"/>
+      <c r="AT56" s="11"/>
+      <c r="AU56" s="11"/>
+      <c r="AV56" s="11"/>
+      <c r="AW56" s="11"/>
+      <c r="AX56" s="11"/>
+    </row>
+    <row r="57" spans="1:50">
+      <c r="A57" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG57" s="11">
+        <v>6</v>
+      </c>
+      <c r="AH57" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI57" s="11"/>
+      <c r="AJ57" s="11"/>
+      <c r="AK57" s="11"/>
+      <c r="AL57" s="11"/>
+      <c r="AM57" s="11"/>
+      <c r="AN57" s="11"/>
+      <c r="AO57" s="11"/>
+      <c r="AP57" s="11"/>
+      <c r="AQ57" s="11"/>
+      <c r="AR57" s="11"/>
+      <c r="AS57" s="11"/>
+      <c r="AT57" s="11"/>
+      <c r="AU57" s="11"/>
+      <c r="AV57" s="11"/>
+      <c r="AW57" s="11"/>
+      <c r="AX57" s="11"/>
+    </row>
+    <row r="58" spans="1:50">
+      <c r="AG58" s="11">
+        <v>7</v>
+      </c>
+      <c r="AH58" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI58" s="11"/>
+      <c r="AJ58" s="11"/>
+      <c r="AK58" s="11"/>
+      <c r="AL58" s="11"/>
+      <c r="AM58" s="11"/>
+      <c r="AN58" s="11"/>
+      <c r="AO58" s="11"/>
+      <c r="AP58" s="11"/>
+      <c r="AQ58" s="11"/>
+      <c r="AR58" s="11"/>
+      <c r="AS58" s="11"/>
+      <c r="AT58" s="11"/>
+      <c r="AU58" s="11"/>
+      <c r="AV58" s="11"/>
+      <c r="AW58" s="11"/>
+      <c r="AX58" s="11"/>
+    </row>
+    <row r="59" spans="1:50">
+      <c r="AG59" s="11">
+        <v>8</v>
+      </c>
+      <c r="AH59" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI59" s="11"/>
+      <c r="AJ59" s="11"/>
+      <c r="AK59" s="11"/>
+      <c r="AL59" s="11"/>
+      <c r="AM59" s="11"/>
+      <c r="AN59" s="11"/>
+      <c r="AO59" s="11"/>
+      <c r="AP59" s="11"/>
+      <c r="AQ59" s="11"/>
+      <c r="AR59" s="11"/>
+      <c r="AS59" s="11"/>
+      <c r="AT59" s="11"/>
+      <c r="AU59" s="11"/>
+      <c r="AV59" s="11"/>
+      <c r="AW59" s="11"/>
+      <c r="AX59" s="11"/>
+    </row>
+    <row r="60" spans="1:50">
+      <c r="AG60" s="11">
+        <v>9</v>
+      </c>
+      <c r="AH60" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI60" s="11"/>
+      <c r="AJ60" s="11"/>
+      <c r="AK60" s="11"/>
+      <c r="AL60" s="11"/>
+      <c r="AM60" s="11"/>
+      <c r="AN60" s="11"/>
+      <c r="AO60" s="11"/>
+      <c r="AP60" s="11"/>
+      <c r="AQ60" s="11"/>
+      <c r="AR60" s="11"/>
+      <c r="AS60" s="11"/>
+      <c r="AT60" s="11"/>
+      <c r="AU60" s="11"/>
+      <c r="AV60" s="11"/>
+      <c r="AW60" s="11"/>
+      <c r="AX60" s="11"/>
+    </row>
+    <row r="61" spans="1:50">
+      <c r="AG61" s="11">
+        <v>10</v>
+      </c>
+      <c r="AH61" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI61" s="11"/>
+      <c r="AJ61" s="11"/>
+      <c r="AK61" s="11"/>
+      <c r="AL61" s="11"/>
+      <c r="AM61" s="11"/>
+      <c r="AN61" s="11"/>
+      <c r="AO61" s="11"/>
+      <c r="AP61" s="11"/>
+      <c r="AQ61" s="11"/>
+      <c r="AR61" s="11"/>
+      <c r="AS61" s="11"/>
+      <c r="AT61" s="11"/>
+      <c r="AU61" s="11"/>
+      <c r="AV61" s="11"/>
+      <c r="AW61" s="11"/>
+      <c r="AX61" s="11"/>
+    </row>
+    <row r="62" spans="1:50">
+      <c r="AG62" s="11">
+        <v>11</v>
+      </c>
+      <c r="AH62" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI62" s="11"/>
+      <c r="AJ62" s="11"/>
+      <c r="AK62" s="11"/>
+      <c r="AL62" s="11"/>
+      <c r="AM62" s="11"/>
+      <c r="AN62" s="11"/>
+      <c r="AO62" s="11"/>
+      <c r="AP62" s="11"/>
+      <c r="AQ62" s="11"/>
+      <c r="AR62" s="11"/>
+      <c r="AS62" s="11"/>
+      <c r="AT62" s="11"/>
+      <c r="AU62" s="11"/>
+      <c r="AV62" s="11"/>
+      <c r="AW62" s="11"/>
+      <c r="AX62" s="11"/>
+    </row>
+    <row r="63" spans="1:50">
+      <c r="AG63" s="11">
+        <v>12</v>
+      </c>
+      <c r="AH63" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI63" s="11"/>
+      <c r="AJ63" s="11"/>
+      <c r="AK63" s="11"/>
+      <c r="AL63" s="11"/>
+      <c r="AM63" s="11"/>
+      <c r="AN63" s="11"/>
+      <c r="AO63" s="11"/>
+      <c r="AP63" s="11"/>
+      <c r="AQ63" s="11"/>
+      <c r="AR63" s="11"/>
+      <c r="AS63" s="11"/>
+      <c r="AT63" s="11"/>
+      <c r="AU63" s="11"/>
+      <c r="AV63" s="11"/>
+      <c r="AW63" s="11"/>
+      <c r="AX63" s="11"/>
+    </row>
+    <row r="64" spans="1:50">
+      <c r="AG64" s="11">
+        <v>13</v>
+      </c>
+      <c r="AH64" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI64" s="11"/>
+      <c r="AJ64" s="11"/>
+      <c r="AK64" s="11"/>
+      <c r="AL64" s="11"/>
+      <c r="AM64" s="11"/>
+      <c r="AN64" s="11"/>
+      <c r="AO64" s="11"/>
+      <c r="AP64" s="11"/>
+      <c r="AQ64" s="11"/>
+      <c r="AR64" s="11"/>
+      <c r="AS64" s="11"/>
+      <c r="AT64" s="11"/>
+      <c r="AU64" s="11"/>
+      <c r="AV64" s="11"/>
+      <c r="AW64" s="11"/>
+      <c r="AX64" s="11"/>
+    </row>
+    <row r="65" spans="1:50">
+      <c r="AG65" s="11">
+        <v>14</v>
+      </c>
+      <c r="AH65" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI65" s="11"/>
+      <c r="AJ65" s="11"/>
+      <c r="AK65" s="11"/>
+      <c r="AL65" s="11"/>
+      <c r="AM65" s="11"/>
+      <c r="AN65" s="11"/>
+      <c r="AO65" s="11"/>
+      <c r="AP65" s="11"/>
+      <c r="AQ65" s="11"/>
+      <c r="AR65" s="11"/>
+      <c r="AS65" s="11"/>
+      <c r="AT65" s="11"/>
+      <c r="AU65" s="11"/>
+      <c r="AV65" s="11"/>
+      <c r="AW65" s="11"/>
+      <c r="AX65" s="11"/>
+    </row>
+    <row r="66" spans="1:50">
+      <c r="AG66" s="11"/>
+      <c r="AH66" s="11"/>
+      <c r="AI66" s="11"/>
+      <c r="AJ66" s="11"/>
+      <c r="AK66" s="11"/>
+      <c r="AL66" s="11"/>
+      <c r="AM66" s="11"/>
+      <c r="AN66" s="11"/>
+      <c r="AO66" s="11"/>
+      <c r="AP66" s="11"/>
+      <c r="AQ66" s="11"/>
+      <c r="AR66" s="11"/>
+      <c r="AS66" s="11"/>
+      <c r="AT66" s="11"/>
+      <c r="AU66" s="11"/>
+      <c r="AV66" s="11"/>
+      <c r="AW66" s="11"/>
+      <c r="AX66" s="11"/>
+    </row>
+    <row r="67" spans="1:50">
+      <c r="AG67" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH67" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI67" s="11"/>
+      <c r="AJ67" s="11"/>
+      <c r="AK67" s="11"/>
+      <c r="AL67" s="11"/>
+      <c r="AM67" s="11"/>
+      <c r="AN67" s="11"/>
+      <c r="AO67" s="11"/>
+      <c r="AP67" s="11"/>
+      <c r="AQ67" s="11"/>
+      <c r="AR67" s="11"/>
+      <c r="AS67" s="11"/>
+      <c r="AT67" s="11"/>
+      <c r="AU67" s="11"/>
+      <c r="AV67" s="11"/>
+      <c r="AW67" s="11"/>
+      <c r="AX67" s="11"/>
+    </row>
+    <row r="68" spans="1:50">
+      <c r="AG68" s="11"/>
+      <c r="AH68" s="11"/>
+      <c r="AI68" s="11"/>
+      <c r="AJ68" s="11"/>
+      <c r="AK68" s="11"/>
+      <c r="AL68" s="11"/>
+      <c r="AM68" s="11"/>
+      <c r="AN68" s="11"/>
+      <c r="AO68" s="11"/>
+      <c r="AP68" s="11"/>
+      <c r="AQ68" s="11"/>
+      <c r="AR68" s="11"/>
+      <c r="AS68" s="11"/>
+      <c r="AT68" s="11"/>
+      <c r="AU68" s="11"/>
+      <c r="AV68" s="11"/>
+      <c r="AW68" s="11"/>
+      <c r="AX68" s="11"/>
+    </row>
+    <row r="75" spans="1:50">
+      <c r="A75" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B75" s="24"/>
+    </row>
+    <row r="76" spans="1:50">
+      <c r="B76" s="24"/>
+    </row>
+    <row r="77" spans="1:50">
+      <c r="B77" s="24"/>
+    </row>
+    <row r="78" spans="1:50">
+      <c r="B78" s="24"/>
+    </row>
+    <row r="79" spans="1:50">
+      <c r="B79" s="24"/>
+    </row>
+    <row r="80" spans="1:50">
+      <c r="B80" s="24"/>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="B81" s="24"/>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="B82" s="24"/>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="B83" s="24"/>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="B84" s="24"/>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="B85" s="24"/>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="B86" s="24"/>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="B87" s="24"/>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="B88" s="24"/>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="B89" s="24"/>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="B90" s="24"/>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="B91" s="24"/>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B92" s="24"/>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="B93" s="24"/>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="B94" s="24"/>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="B95" s="24"/>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="B96" s="24"/>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="B97" s="24"/>
+      <c r="E97" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="B98" s="24"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="B105" s="23"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" s="23"/>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="B107" s="23"/>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="B108" s="23"/>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="B109" s="23"/>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="B110" s="23"/>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="B111" s="23"/>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="B112" s="23"/>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="23"/>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="23"/>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="23"/>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="23"/>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="23"/>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="23"/>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="23"/>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="23"/>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="23"/>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="23"/>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="23"/>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="23"/>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="23"/>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="23"/>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="B131" s="22"/>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B132" s="22"/>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="B133" s="22"/>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="B134" s="22"/>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="B135" s="22"/>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="B136" s="22"/>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="B137" s="22"/>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="B138" s="22"/>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="B139" s="22"/>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="B140" s="22"/>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="B141" s="22"/>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="B142" s="22"/>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="B143" s="22"/>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="B144" s="22"/>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="22"/>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="22"/>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="22"/>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="22"/>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="22"/>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="22"/>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" s="22"/>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" s="22"/>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" s="22"/>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" s="22"/>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" s="22"/>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" s="22"/>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" s="22"/>
+    </row>
+    <row r="167" spans="20:21">
+      <c r="T167" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="172" spans="20:21">
+      <c r="U172" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{993709C1-C6B7-4A15-8237-BEE6A03D6F96}">
   <dimension ref="A1:AA137"/>
@@ -10190,10 +10009,10 @@
         <v>139</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="F1" s="42"/>
     </row>
@@ -10284,7 +10103,7 @@
     <row r="7" spans="1:27" ht="18.75">
       <c r="A7" s="17"/>
       <c r="B7" s="47" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>155</v>
@@ -10397,10 +10216,10 @@
     </row>
     <row r="11" spans="1:27" ht="21" customHeight="1">
       <c r="A11" s="17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>160</v>
@@ -10439,7 +10258,7 @@
         <v>164</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>165</v>
@@ -10476,7 +10295,7 @@
     <row r="13" spans="1:27" ht="21.75" customHeight="1">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>169</v>
@@ -10513,7 +10332,7 @@
     <row r="14" spans="1:27" ht="18" customHeight="1">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>173</v>
@@ -10636,7 +10455,7 @@
     </row>
     <row r="18" spans="1:27" ht="18.75">
       <c r="A18" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="14"/>
@@ -10667,10 +10486,10 @@
     </row>
     <row r="19" spans="1:27" ht="18.75">
       <c r="A19" s="44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>180</v>
@@ -10707,7 +10526,7 @@
     <row r="20" spans="1:27" ht="18.75">
       <c r="A20" s="17"/>
       <c r="B20" s="47" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>183</v>
@@ -11011,10 +10830,10 @@
     </row>
     <row r="29" spans="1:27" ht="18.75">
       <c r="A29" s="47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>208</v>
@@ -11050,10 +10869,10 @@
     </row>
     <row r="30" spans="1:27" ht="18.75">
       <c r="A30" s="47" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>210</v>
@@ -11090,7 +10909,7 @@
     <row r="31" spans="1:27" ht="18.75">
       <c r="A31" s="17"/>
       <c r="B31" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>214</v>
@@ -11127,7 +10946,7 @@
     <row r="32" spans="1:27" ht="18.75">
       <c r="A32" s="17"/>
       <c r="B32" s="40" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="C32" s="17" t="s">
         <v>218</v>
@@ -11164,7 +10983,7 @@
     <row r="33" spans="1:27" ht="18.75">
       <c r="A33" s="17"/>
       <c r="B33" s="40" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="C33" s="17" t="s">
         <v>222</v>
@@ -11229,10 +11048,10 @@
     </row>
     <row r="35" spans="1:27" ht="18.75">
       <c r="A35" s="17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C35" s="17" t="s">
         <v>227</v>
@@ -11264,10 +11083,10 @@
     </row>
     <row r="36" spans="1:27" ht="18.75">
       <c r="A36" s="17" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>229</v>
@@ -11304,7 +11123,7 @@
     <row r="37" spans="1:27" ht="18.75">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>233</v>
@@ -11385,7 +11204,7 @@
     </row>
     <row r="40" spans="1:27" ht="26.25">
       <c r="B40" s="41" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C40" s="15"/>
       <c r="E40" s="15"/>
@@ -11442,10 +11261,10 @@
         <v>139</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="F1" s="42"/>
     </row>
@@ -11536,7 +11355,7 @@
     <row r="7" spans="1:28" ht="18.75">
       <c r="A7" s="17"/>
       <c r="B7" s="47" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>155</v>
@@ -11644,10 +11463,10 @@
     </row>
     <row r="11" spans="1:28" ht="21" customHeight="1">
       <c r="A11" s="17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>160</v>
@@ -11685,7 +11504,7 @@
         <v>164</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>165</v>
@@ -11719,7 +11538,7 @@
     <row r="13" spans="1:28" ht="21.75" customHeight="1">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>169</v>
@@ -11757,7 +11576,7 @@
     <row r="14" spans="1:28" ht="18" customHeight="1">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>173</v>
@@ -11884,7 +11703,7 @@
     </row>
     <row r="18" spans="1:28" ht="18.75">
       <c r="A18" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="14"/>
@@ -11896,7 +11715,7 @@
         <v>6</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
@@ -11916,10 +11735,10 @@
     </row>
     <row r="19" spans="1:28" ht="18.75">
       <c r="A19" s="44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>180</v>
@@ -11936,7 +11755,7 @@
         <v>7</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
@@ -11957,7 +11776,7 @@
     <row r="20" spans="1:28" ht="18.75">
       <c r="A20" s="17"/>
       <c r="B20" s="47" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>183</v>
@@ -12270,10 +12089,10 @@
     </row>
     <row r="29" spans="1:28" ht="18.75">
       <c r="A29" s="47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>208</v>
@@ -12310,10 +12129,10 @@
     </row>
     <row r="30" spans="1:28" ht="18.75">
       <c r="A30" s="47" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>210</v>
@@ -12351,7 +12170,7 @@
     <row r="31" spans="1:28" ht="18.75">
       <c r="A31" s="17"/>
       <c r="B31" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>214</v>
@@ -12389,7 +12208,7 @@
     <row r="32" spans="1:28" ht="18.75">
       <c r="A32" s="17"/>
       <c r="B32" s="40" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="C32" s="17" t="s">
         <v>218</v>
@@ -12427,7 +12246,7 @@
     <row r="33" spans="1:28" ht="18.75">
       <c r="A33" s="17"/>
       <c r="B33" s="40" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="C33" s="17" t="s">
         <v>222</v>
@@ -12494,10 +12313,10 @@
     </row>
     <row r="35" spans="1:28" ht="18.75">
       <c r="A35" s="17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C35" s="17" t="s">
         <v>227</v>
@@ -12526,10 +12345,10 @@
     </row>
     <row r="36" spans="1:28" ht="18.75">
       <c r="A36" s="17" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>229</v>
@@ -12562,7 +12381,7 @@
     <row r="37" spans="1:28" ht="18.75">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>233</v>
@@ -12635,7 +12454,7 @@
     </row>
     <row r="40" spans="1:28" ht="26.25">
       <c r="B40" s="41" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C40" s="15"/>
       <c r="E40" s="15"/>
@@ -12670,7 +12489,7 @@
   <dimension ref="A1:AB137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12694,10 +12513,10 @@
         <v>139</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="F1" s="42"/>
     </row>
@@ -12706,7 +12525,7 @@
         <v>55</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>56</v>
+        <v>265</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>140</v>
@@ -12788,7 +12607,7 @@
     <row r="7" spans="1:28" ht="18.75">
       <c r="A7" s="17"/>
       <c r="B7" s="47" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>155</v>
@@ -12899,10 +12718,10 @@
     </row>
     <row r="11" spans="1:28" ht="21" customHeight="1">
       <c r="A11" s="17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>160</v>
@@ -12918,7 +12737,7 @@
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
       <c r="N11" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O11" s="13"/>
       <c r="P11" s="13"/>
@@ -12940,7 +12759,7 @@
         <v>164</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>165</v>
@@ -12974,7 +12793,7 @@
     <row r="13" spans="1:28" ht="21.75" customHeight="1">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>169</v>
@@ -12991,7 +12810,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
@@ -13012,7 +12831,7 @@
     <row r="14" spans="1:28" ht="18" customHeight="1">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>173</v>
@@ -13029,7 +12848,7 @@
         <v>2</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
@@ -13059,7 +12878,7 @@
         <v>3</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
@@ -13089,7 +12908,7 @@
         <v>4</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
@@ -13119,7 +12938,7 @@
         <v>5</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
@@ -13139,7 +12958,7 @@
     </row>
     <row r="18" spans="1:28" ht="18.75">
       <c r="A18" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="14"/>
@@ -13151,7 +12970,7 @@
         <v>6</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
@@ -13171,10 +12990,10 @@
     </row>
     <row r="19" spans="1:28" ht="18.75">
       <c r="A19" s="44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>180</v>
@@ -13191,7 +13010,7 @@
         <v>7</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
@@ -13212,7 +13031,7 @@
     <row r="20" spans="1:28" ht="18.75">
       <c r="A20" s="17"/>
       <c r="B20" s="47" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>183</v>
@@ -13229,7 +13048,7 @@
         <v>8</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
@@ -13267,7 +13086,7 @@
         <v>9</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
@@ -13297,7 +13116,7 @@
         <v>10</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
@@ -13327,7 +13146,7 @@
         <v>11</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N23" s="11"/>
       <c r="O23" s="11"/>
@@ -13359,7 +13178,7 @@
         <v>195</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="F24" s="14"/>
       <c r="K24" s="11"/>
@@ -13367,7 +13186,7 @@
         <v>12</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
@@ -13399,7 +13218,7 @@
         <v>151</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="F25" s="14"/>
       <c r="K25" s="11"/>
@@ -13433,7 +13252,7 @@
         <v>151</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>204</v>
+        <v>281</v>
       </c>
       <c r="F26" s="14"/>
       <c r="L26" s="10"/>
@@ -13506,10 +13325,10 @@
     </row>
     <row r="29" spans="1:28" ht="18.75">
       <c r="A29" s="47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>208</v>
@@ -13524,10 +13343,10 @@
     </row>
     <row r="30" spans="1:28" ht="18.75">
       <c r="A30" s="47" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>210</v>
@@ -13543,7 +13362,7 @@
     <row r="31" spans="1:28" ht="18.75">
       <c r="A31" s="17"/>
       <c r="B31" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>214</v>
@@ -13559,7 +13378,7 @@
     <row r="32" spans="1:28" ht="18.75">
       <c r="A32" s="17"/>
       <c r="B32" s="40" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="C32" s="17" t="s">
         <v>218</v>
@@ -13575,7 +13394,7 @@
     <row r="33" spans="1:6" ht="18.75">
       <c r="A33" s="17"/>
       <c r="B33" s="40" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="C33" s="17" t="s">
         <v>222</v>
@@ -13598,10 +13417,10 @@
     </row>
     <row r="35" spans="1:6" ht="18.75">
       <c r="A35" s="17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C35" s="17" t="s">
         <v>227</v>
@@ -13612,10 +13431,10 @@
     </row>
     <row r="36" spans="1:6" ht="18.75">
       <c r="A36" s="17" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>229</v>
@@ -13631,7 +13450,7 @@
     <row r="37" spans="1:6" ht="18.75">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>233</v>
@@ -13670,7 +13489,7 @@
     </row>
     <row r="40" spans="1:6" ht="26.25">
       <c r="B40" s="41" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C40" s="15"/>
       <c r="E40" s="15"/>
@@ -13702,10 +13521,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EACAC6B-D990-46F0-B332-418979E9AC02}">
-  <dimension ref="A1:AB137"/>
+  <dimension ref="A1:AB134"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13730,10 +13549,10 @@
         <v>139</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="F1" s="42"/>
     </row>
@@ -13742,16 +13561,16 @@
         <v>55</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>56</v>
+        <v>282</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>140</v>
+        <v>283</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>141</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>142</v>
+        <v>284</v>
       </c>
       <c r="F2" s="14"/>
     </row>
@@ -13759,17 +13578,17 @@
       <c r="A3" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="46" t="s">
-        <v>58</v>
+      <c r="B3" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>143</v>
+        <v>285</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>144</v>
+        <v>286</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>145</v>
+        <v>287</v>
       </c>
       <c r="F3" s="14"/>
     </row>
@@ -13779,62 +13598,102 @@
         <v>59</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>146</v>
+        <v>288</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>147</v>
+        <v>289</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>148</v>
+        <v>290</v>
       </c>
       <c r="F4" s="14"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="O4" s="50"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="43"/>
     </row>
     <row r="5" spans="1:28" ht="18.75">
       <c r="A5" s="17"/>
-      <c r="B5" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>150</v>
+      <c r="B5" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>293</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>151</v>
+        <v>294</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>152</v>
+        <v>295</v>
       </c>
       <c r="F5" s="14"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="43"/>
     </row>
     <row r="6" spans="1:28" ht="18.75">
       <c r="A6" s="17"/>
-      <c r="B6" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>154</v>
-      </c>
+      <c r="B6" s="51"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
       <c r="F6" s="14"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="43"/>
     </row>
     <row r="7" spans="1:28" ht="18.75">
       <c r="A7" s="17"/>
-      <c r="B7" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>157</v>
-      </c>
+      <c r="B7" s="47"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
       <c r="F7" s="14"/>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
@@ -13853,22 +13712,30 @@
       <c r="Y7" s="11"/>
       <c r="Z7" s="11"/>
       <c r="AA7" s="11"/>
-      <c r="AB7" s="43"/>
-    </row>
-    <row r="8" spans="1:28" ht="18.75">
-      <c r="A8" s="17"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
+      <c r="AB7" s="11"/>
+    </row>
+    <row r="8" spans="1:28" ht="21" customHeight="1">
+      <c r="A8" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>296</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>298</v>
+      </c>
       <c r="F8" s="14"/>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="O8" s="50"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="11"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
@@ -13881,14 +13748,24 @@
       <c r="Y8" s="11"/>
       <c r="Z8" s="11"/>
       <c r="AA8" s="11"/>
-      <c r="AB8" s="43"/>
+      <c r="AB8" s="11"/>
     </row>
     <row r="9" spans="1:28" ht="18.75">
-      <c r="A9" s="17"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
+      <c r="A9" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>301</v>
+      </c>
       <c r="F9" s="14"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
@@ -13907,14 +13784,22 @@
       <c r="Y9" s="11"/>
       <c r="Z9" s="11"/>
       <c r="AA9" s="11"/>
-      <c r="AB9" s="43"/>
-    </row>
-    <row r="10" spans="1:28" ht="18.75">
+      <c r="AB9" s="11"/>
+    </row>
+    <row r="10" spans="1:28" ht="21.75" customHeight="1">
       <c r="A10" s="17"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
+      <c r="B10" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>304</v>
+      </c>
       <c r="F10" s="14"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
@@ -13935,27 +13820,25 @@
       <c r="AA10" s="11"/>
       <c r="AB10" s="11"/>
     </row>
-    <row r="11" spans="1:28" ht="21" customHeight="1">
-      <c r="A11" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>64</v>
+    <row r="11" spans="1:28" ht="18" customHeight="1">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17" t="s">
+        <v>305</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>160</v>
+        <v>306</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>161</v>
+        <v>307</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>162</v>
+        <v>308</v>
       </c>
       <c r="F11" s="14"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
-      <c r="N11" s="43"/>
+      <c r="N11" s="11"/>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
@@ -13972,20 +13855,18 @@
       <c r="AB11" s="11"/>
     </row>
     <row r="12" spans="1:28" ht="18.75">
-      <c r="A12" s="17" t="s">
-        <v>164</v>
-      </c>
+      <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
-        <v>68</v>
+        <v>309</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>165</v>
+        <v>310</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>166</v>
+        <v>311</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>167</v>
+        <v>312</v>
       </c>
       <c r="F12" s="14"/>
       <c r="K12" s="11"/>
@@ -14007,20 +13888,12 @@
       <c r="AA12" s="11"/>
       <c r="AB12" s="11"/>
     </row>
-    <row r="13" spans="1:28" ht="21.75" customHeight="1">
+    <row r="13" spans="1:28" ht="18.75">
       <c r="A13" s="17"/>
-      <c r="B13" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>171</v>
-      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
       <c r="F13" s="14"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
@@ -14041,20 +13914,12 @@
       <c r="AA13" s="11"/>
       <c r="AB13" s="11"/>
     </row>
-    <row r="14" spans="1:28" ht="18" customHeight="1">
+    <row r="14" spans="1:28" ht="18.75">
       <c r="A14" s="17"/>
-      <c r="B14" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>174</v>
-      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
       <c r="F14" s="14"/>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
@@ -14076,7 +13941,9 @@
       <c r="AB14" s="11"/>
     </row>
     <row r="15" spans="1:28" ht="18.75">
-      <c r="A15" s="17"/>
+      <c r="A15" s="17" t="s">
+        <v>72</v>
+      </c>
       <c r="B15" s="17"/>
       <c r="C15" s="14"/>
       <c r="D15" s="49"/>
@@ -14102,11 +13969,21 @@
       <c r="AB15" s="11"/>
     </row>
     <row r="16" spans="1:28" ht="18.75">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
+      <c r="A16" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>181</v>
+      </c>
       <c r="F16" s="14"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
@@ -14129,10 +14006,18 @@
     </row>
     <row r="17" spans="1:28" ht="18.75">
       <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
+      <c r="B17" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>185</v>
+      </c>
       <c r="F17" s="14"/>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
@@ -14154,13 +14039,19 @@
       <c r="AB17" s="11"/>
     </row>
     <row r="18" spans="1:28" ht="18.75">
-      <c r="A18" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>189</v>
+      </c>
       <c r="F18" s="14"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
@@ -14182,21 +14073,11 @@
       <c r="AB18" s="11"/>
     </row>
     <row r="19" spans="1:28" ht="18.75">
-      <c r="A19" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>181</v>
-      </c>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
       <c r="F19" s="14"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
@@ -14219,18 +14100,10 @@
     </row>
     <row r="20" spans="1:28" ht="18.75">
       <c r="A20" s="17"/>
-      <c r="B20" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>185</v>
-      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
       <c r="F20" s="14"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
@@ -14252,18 +14125,20 @@
       <c r="AB20" s="11"/>
     </row>
     <row r="21" spans="1:28" ht="18.75">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17" t="s">
-        <v>76</v>
+      <c r="A21" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>193</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F21" s="14"/>
       <c r="K21" s="11"/>
@@ -14286,11 +14161,21 @@
       <c r="AB21" s="11"/>
     </row>
     <row r="22" spans="1:28" ht="18.75">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
+      <c r="A22" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>200</v>
+      </c>
       <c r="F22" s="14"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
@@ -14313,377 +14198,272 @@
     </row>
     <row r="23" spans="1:28" ht="18.75">
       <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
+      <c r="B23" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>204</v>
+      </c>
       <c r="F23" s="14"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="11"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
     </row>
     <row r="24" spans="1:28" ht="18.75">
-      <c r="A24" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="47" t="s">
-        <v>193</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>196</v>
-      </c>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
       <c r="F24" s="14"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
-      <c r="AB24" s="11"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
     </row>
     <row r="25" spans="1:28" ht="18.75">
-      <c r="A25" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="D25" s="17" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="14"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+    </row>
+    <row r="26" spans="1:28" ht="18.75">
+      <c r="A26" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="D26" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="E25" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="F25" s="14"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="11"/>
-      <c r="AA25" s="11"/>
-      <c r="AB25" s="11"/>
-    </row>
-    <row r="26" spans="1:28" ht="18.75">
-      <c r="A26" s="17"/>
-      <c r="B26" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>151</v>
-      </c>
       <c r="E26" s="17" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="F26" s="14"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="10"/>
-      <c r="Z26" s="10"/>
-      <c r="AA26" s="10"/>
-      <c r="AB26" s="10"/>
     </row>
     <row r="27" spans="1:28" ht="18.75">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
+      <c r="A27" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>212</v>
+      </c>
       <c r="F27" s="14"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="10"/>
-      <c r="AA27" s="10"/>
-      <c r="AB27" s="10"/>
     </row>
     <row r="28" spans="1:28" ht="18.75">
       <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="17"/>
+      <c r="B28" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>216</v>
+      </c>
       <c r="F28" s="14"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="10"/>
-      <c r="Y28" s="10"/>
-      <c r="Z28" s="10"/>
-      <c r="AA28" s="10"/>
-      <c r="AB28" s="10"/>
     </row>
     <row r="29" spans="1:28" ht="18.75">
-      <c r="A29" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="B29" s="47" t="s">
-        <v>82</v>
+      <c r="A29" s="17"/>
+      <c r="B29" s="40" t="s">
+        <v>87</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="D29" s="49" t="s">
-        <v>151</v>
+        <v>218</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>219</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="F29" s="14"/>
     </row>
     <row r="30" spans="1:28" ht="18.75">
-      <c r="A30" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="B30" s="47" t="s">
-        <v>84</v>
+      <c r="A30" s="17"/>
+      <c r="B30" s="40" t="s">
+        <v>88</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="F30" s="14"/>
     </row>
     <row r="31" spans="1:28" ht="18.75">
       <c r="A31" s="17"/>
-      <c r="B31" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>216</v>
-      </c>
+      <c r="B31" s="17"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="49"/>
       <c r="F31" s="14"/>
     </row>
     <row r="32" spans="1:28" ht="18.75">
-      <c r="A32" s="17"/>
-      <c r="B32" s="40" t="s">
-        <v>119</v>
+      <c r="A32" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>90</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>220</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
       <c r="F32" s="14"/>
     </row>
     <row r="33" spans="1:6" ht="18.75">
-      <c r="A33" s="17"/>
-      <c r="B33" s="40" t="s">
-        <v>120</v>
+      <c r="A33" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>93</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="F33" s="14"/>
     </row>
     <row r="34" spans="1:6" ht="18.75">
       <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="49"/>
+      <c r="B34" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>235</v>
+      </c>
       <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6" ht="18.75">
-      <c r="A35" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>89</v>
-      </c>
+      <c r="A35" s="17"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
+        <v>237</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>239</v>
+      </c>
       <c r="F35" s="14"/>
     </row>
     <row r="36" spans="1:6" ht="18.75">
-      <c r="A36" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>91</v>
-      </c>
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>231</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
       <c r="F36" s="14"/>
     </row>
-    <row r="37" spans="1:6" ht="18.75">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="F37" s="14"/>
+    <row r="37" spans="1:6" ht="26.25">
+      <c r="B37" s="41"/>
+      <c r="C37" s="15"/>
+      <c r="E37" s="15"/>
     </row>
     <row r="38" spans="1:6" ht="18.75">
-      <c r="A38" s="17"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="F38" s="14"/>
+      <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:6" ht="18.75">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="14"/>
-    </row>
-    <row r="40" spans="1:6" ht="26.25">
-      <c r="B40" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" s="15"/>
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="1:6" ht="18.75">
       <c r="E40" s="15"/>
     </row>
-    <row r="41" spans="1:6" ht="18.75">
-      <c r="E41" s="15"/>
-    </row>
-    <row r="42" spans="1:6" ht="18.75">
-      <c r="E42" s="15"/>
-    </row>
-    <row r="43" spans="1:6" ht="18.75">
-      <c r="E43" s="15"/>
-    </row>
-    <row r="100" spans="2:2" ht="26.25">
-      <c r="B100" s="41" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="137" spans="2:2" ht="26.25">
-      <c r="B137" s="41" t="s">
-        <v>243</v>
-      </c>
+    <row r="97" spans="2:2" ht="26.25">
+      <c r="B97" s="41"/>
+    </row>
+    <row r="134" spans="2:2" ht="26.25">
+      <c r="B134" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Aurora/Requirements/User Stories/Requirement Gathering process.xlsx
+++ b/Aurora/Requirements/User Stories/Requirement Gathering process.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25207"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1D106DD-3FD7-4989-A307-502ACA45713B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8201F54F-89AC-4410-85B5-A31104D1F9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day1   04.04.2022" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="Day 5   08.04.2022" sheetId="6" r:id="rId5"/>
     <sheet name="Day6   09.04.2022" sheetId="7" r:id="rId6"/>
     <sheet name="Day7   11.04.2022" sheetId="8" r:id="rId7"/>
+    <sheet name="Day 8 12.04.2022" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="378">
   <si>
     <t>Actors</t>
   </si>
@@ -1311,6 +1312,15 @@
     <t>for viewing Profile,it needs authors profile</t>
   </si>
   <si>
+    <t>To Change the between dates in the search after searching</t>
+  </si>
+  <si>
+    <t>view more link should be not dynamic placed fixed</t>
+  </si>
+  <si>
+    <t>View Queries page,in the filter keep solved and unsolved queries</t>
+  </si>
+  <si>
     <t>I can read articles . </t>
   </si>
   <si>
@@ -1320,6 +1330,9 @@
     <t>For Reading a articles I needarticle</t>
   </si>
   <si>
+    <t>solved and unsolved queries page should be same,maintain consistency</t>
+  </si>
+  <si>
     <t xml:space="preserve">I can share the article </t>
   </si>
   <si>
@@ -1329,6 +1342,9 @@
     <t>For share a articles I need article</t>
   </si>
   <si>
+    <t>click query change to view query</t>
+  </si>
+  <si>
     <t>I can like the article.</t>
   </si>
   <si>
@@ -1338,6 +1354,9 @@
     <t>For like a articles I need article</t>
   </si>
   <si>
+    <t>Follow same naming convention all the area</t>
+  </si>
+  <si>
     <t>I can comment article</t>
   </si>
   <si>
@@ -1350,6 +1369,9 @@
     <t>For comment a articles I need article</t>
   </si>
   <si>
+    <t>In dropdown,solved queries changed to my queries</t>
+  </si>
+  <si>
     <t>I can search the article.</t>
   </si>
   <si>
@@ -1360,13 +1382,187 @@
   </si>
   <si>
     <t>For Searching article i need article</t>
+  </si>
+  <si>
+    <t>unsolved and solved queries should be kept in filter</t>
+  </si>
+  <si>
+    <t>keep question mark in unsolved queries</t>
+  </si>
+  <si>
+    <t>Published and draft should be kept in filter in the my articles page</t>
+  </si>
+  <si>
+    <t>acronmys need to removed</t>
+  </si>
+  <si>
+    <t>Age not need, instead keep department</t>
+  </si>
+  <si>
+    <t>search in the reviewer page</t>
+  </si>
+  <si>
+    <t>Spelling mistake in ascending</t>
+  </si>
+  <si>
+    <t>keep isreviewer in the user table</t>
+  </si>
+  <si>
+    <t>Data model should be refined</t>
+  </si>
+  <si>
+    <t>Department table should be added</t>
+  </si>
+  <si>
+    <t>For writing the article,adding images,I need to login to the application and than i can write article,add image to the article</t>
+  </si>
+  <si>
+    <t>For writing a Article, Author needs content</t>
+  </si>
+  <si>
+    <t>To add specific users it should depend on Users</t>
+  </si>
+  <si>
+    <t>For adding specific users,author needs user name</t>
+  </si>
+  <si>
+    <t>To update the article we should have atleast one article so it should depend on article</t>
+  </si>
+  <si>
+    <t>For updating article,it needs article</t>
+  </si>
+  <si>
+    <t>Day 8 -Minutes of Meeting</t>
+  </si>
+  <si>
+    <t>To view the profile you should be a verified user so it should depend on user</t>
+  </si>
+  <si>
+    <t>For viewing Profile, the user should be a verified user.</t>
+  </si>
+  <si>
+    <t>In Timesheet - Mention hours individually.</t>
+  </si>
+  <si>
+    <t>Filter should be kept in top.</t>
+  </si>
+  <si>
+    <t>Naming convention for forum page.</t>
+  </si>
+  <si>
+    <t>I can search,read the  articles . </t>
+  </si>
+  <si>
+    <t>For searching,reading a article, I need to login to the application and in the list of articles I can select the particular article or I can search a particular article  and view that article</t>
+  </si>
+  <si>
+    <t>To Search and read an article, it should depend on other articles written by other users</t>
+  </si>
+  <si>
+    <t>For search or read a articles I needarticle</t>
+  </si>
+  <si>
+    <t>Tooltip should be solved and unsolved.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can like,comment,share the article </t>
+  </si>
+  <si>
+    <t>To share,like,comment the article,I need to login to the application and in the list of articles I can select the particular article and view that specific article and share,like,comment that article</t>
+  </si>
+  <si>
+    <t>To like,comment,share the articles,it should depend on article written by other users</t>
+  </si>
+  <si>
+    <t>For share,like,comment a articles I need article</t>
+  </si>
+  <si>
+    <t>Publish  and draft  shoud be in filter.</t>
+  </si>
+  <si>
+    <t>Change the name invite user to create group.</t>
+  </si>
+  <si>
+    <t>Naming convention Technology---&gt; Department.</t>
+  </si>
+  <si>
+    <t>After department ,Then we select designation.</t>
+  </si>
+  <si>
+    <t>Naming convention  Publisher --&gt; Creater.</t>
+  </si>
+  <si>
+    <t>I can raise new queries in the forum, If I faced any issues. </t>
+  </si>
+  <si>
+    <t>To raise the query in the forum,I  need to login the application and i will search for the query that I needed If the query  is not there I will raise New query.</t>
+  </si>
+  <si>
+    <t>I need a doubt or query in my mind so that I can Raise new query</t>
+  </si>
+  <si>
+    <t>For raise a query the user should be a verified user.</t>
+  </si>
+  <si>
+    <t>I can search for the queries in the forum</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To get the solution to the query raised by me I need to select  my queries and in that my queries we have solved and unsolved queries if  my query is solved I will mark the query as solved and give the verified mark. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To solve the query I should have a query </t>
+  </si>
+  <si>
+    <t>To search the queries,i need the list of queries.</t>
+  </si>
+  <si>
+    <t>I can make a query  verified when I got  my solution.</t>
+  </si>
+  <si>
+    <t>If my query is solved then I can give verified mark to it , so it is depends on query solver</t>
+  </si>
+  <si>
+    <t>To verify the answer,i need the exact answer.</t>
+  </si>
+  <si>
+    <t>I can able to answer Queries raised by anyone in the technical forum, So that I can solve others problem .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I should depend on query Raiser,Because If he raise any query then only I  can solve. </t>
+  </si>
+  <si>
+    <t>I can Report Spam Queries if I find something is wrong in this query</t>
+  </si>
+  <si>
+    <t>Given that if the query was sensitive or unwanted content so I can mark it as spam query</t>
+  </si>
+  <si>
+    <t>If there is query that feels sensitive then only I can report it as spam, so it depends on user</t>
+  </si>
+  <si>
+    <t>Given that I can view the overview of the dashboard and I can view number of users,number of reviewers,number of article , number of  solved and unsolved queries.</t>
+  </si>
+  <si>
+    <t>I want to login as Admin.(Need Admin access)</t>
+  </si>
+  <si>
+    <t>I will approve the correct employee those who belongs to our organisation else I will reject his/her registration process.If a employee is accepted he/she can has access to read and write the article and raise queries or solve the unsolved queries.</t>
+  </si>
+  <si>
+    <t>I can verify and remove spam queries.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When some user is reporting, that query is spam content  then I can able to verify and remove it . Once a query is removed notification will be sent to the specific user with reason for the removal. </t>
+  </si>
+  <si>
+    <t>I can able to review the article and I can approve or reject the article before publishing.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1544,6 +1740,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -1710,7 +1912,7 @@
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11238,7 +11440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E2053A0-5113-459B-BA42-3BA7767703C4}">
   <dimension ref="A1:AB137"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B59" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -12489,7 +12691,7 @@
   <dimension ref="A1:AB137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13523,8 +13725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EACAC6B-D990-46F0-B332-418979E9AC02}">
   <dimension ref="A1:AB134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13643,8 +13845,12 @@
         <v>295</v>
       </c>
       <c r="F5" s="14"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
+      <c r="K5" s="11">
+        <v>1</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>296</v>
+      </c>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
@@ -13664,13 +13870,17 @@
     </row>
     <row r="6" spans="1:28" ht="18.75">
       <c r="A6" s="17"/>
-      <c r="B6" s="51"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="14"/>
       <c r="D6" s="49"/>
       <c r="E6" s="49"/>
       <c r="F6" s="14"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
+      <c r="K6" s="11">
+        <v>2</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>297</v>
+      </c>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
@@ -13695,8 +13905,12 @@
       <c r="D7" s="49"/>
       <c r="E7" s="49"/>
       <c r="F7" s="14"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
+      <c r="K7" s="11">
+        <v>3</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>298</v>
+      </c>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
@@ -13719,20 +13933,24 @@
         <v>65</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>160</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F8" s="14"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
+      <c r="K8" s="11">
+        <v>4</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>302</v>
+      </c>
       <c r="M8" s="11"/>
       <c r="N8" s="43"/>
       <c r="O8" s="11"/>
@@ -13755,20 +13973,24 @@
         <v>164</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>165</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F9" s="14"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
+      <c r="K9" s="11">
+        <v>5</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>306</v>
+      </c>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
@@ -13789,20 +14011,24 @@
     <row r="10" spans="1:28" ht="21.75" customHeight="1">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>169</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="F10" s="14"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
+      <c r="K10" s="11">
+        <v>6</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>310</v>
+      </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
@@ -13823,20 +14049,24 @@
     <row r="11" spans="1:28" ht="18" customHeight="1">
       <c r="A11" s="17"/>
       <c r="B11" s="17" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F11" s="14"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
+      <c r="K11" s="11">
+        <v>7</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>315</v>
+      </c>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
@@ -13857,20 +14087,24 @@
     <row r="12" spans="1:28" ht="18.75">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="F12" s="14"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
+      <c r="K12" s="11">
+        <v>8</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>320</v>
+      </c>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
@@ -13895,8 +14129,1005 @@
       <c r="D13" s="49"/>
       <c r="E13" s="49"/>
       <c r="F13" s="14"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
+      <c r="K13" s="11">
+        <v>9</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+    </row>
+    <row r="14" spans="1:28" ht="18.75">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="14"/>
+      <c r="K14" s="11">
+        <v>10</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+    </row>
+    <row r="15" spans="1:28" ht="18.75">
+      <c r="A15" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="14"/>
+      <c r="K15" s="11">
+        <v>11</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+    </row>
+    <row r="16" spans="1:28" ht="18.75">
+      <c r="A16" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="K16" s="11">
+        <v>12</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+    </row>
+    <row r="17" spans="1:28" ht="18.75">
+      <c r="A17" s="17"/>
+      <c r="B17" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="K17" s="11">
+        <v>13</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+    </row>
+    <row r="18" spans="1:28" ht="18.75">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="K18" s="11">
+        <v>14</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+    </row>
+    <row r="19" spans="1:28" ht="18.75">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="14"/>
+      <c r="K19" s="11">
+        <v>15</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+    </row>
+    <row r="20" spans="1:28" ht="18.75">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="14"/>
+      <c r="K20" s="11">
+        <v>16</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+    </row>
+    <row r="21" spans="1:28" ht="18.75">
+      <c r="A21" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="K21" s="11">
+        <v>17</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+    </row>
+    <row r="22" spans="1:28" ht="18.75">
+      <c r="A22" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+    </row>
+    <row r="23" spans="1:28" ht="18.75">
+      <c r="A23" s="17"/>
+      <c r="B23" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+    </row>
+    <row r="24" spans="1:28" ht="18.75">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="14"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+    </row>
+    <row r="25" spans="1:28" ht="18.75">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="14"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+    </row>
+    <row r="26" spans="1:28" ht="18.75">
+      <c r="A26" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="1:28" ht="18.75">
+      <c r="A27" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:28" ht="18.75">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:28" ht="18.75">
+      <c r="A29" s="17"/>
+      <c r="B29" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:28" ht="18.75">
+      <c r="A30" s="17"/>
+      <c r="B30" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:28" ht="18.75">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:28" ht="18.75">
+      <c r="A32" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="1:6" ht="18.75">
+      <c r="A33" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="1:6" ht="18.75">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" spans="1:6" ht="18.75">
+      <c r="A35" s="17"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" spans="1:6" ht="18.75">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="14"/>
+    </row>
+    <row r="37" spans="1:6" ht="26.25">
+      <c r="B37" s="41"/>
+      <c r="C37" s="15"/>
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="1:6" ht="18.75">
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:6" ht="18.75">
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="1:6" ht="18.75">
+      <c r="E40" s="15"/>
+    </row>
+    <row r="97" spans="2:2" ht="26.25">
+      <c r="B97" s="41"/>
+    </row>
+    <row r="134" spans="2:2" ht="26.25">
+      <c r="B134" s="41"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA799802-B8AA-4F35-BAEB-F61B84E3C279}">
+  <dimension ref="A1:AB134"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40.28515625" customWidth="1"/>
+    <col min="2" max="2" width="159.28515625" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" customWidth="1"/>
+    <col min="4" max="4" width="177.28515625" customWidth="1"/>
+    <col min="5" max="5" width="65.5703125" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" customWidth="1"/>
+    <col min="14" max="14" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="26.25">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="42"/>
+    </row>
+    <row r="2" spans="1:28" ht="18.75">
+      <c r="A2" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:28" ht="18.75">
+      <c r="A3" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:28" ht="18.75">
+      <c r="A4" s="17"/>
+      <c r="B4" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="O4" s="50"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="43"/>
+    </row>
+    <row r="5" spans="1:28" ht="18.75">
+      <c r="A5" s="17"/>
+      <c r="B5" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>293</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="K5" s="11">
+        <v>1</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="43"/>
+    </row>
+    <row r="6" spans="1:28" ht="18.75">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="14"/>
+      <c r="K6" s="11">
+        <v>2</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="43"/>
+    </row>
+    <row r="7" spans="1:28" ht="18.75">
+      <c r="A7" s="17"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="14"/>
+      <c r="K7" s="11">
+        <v>3</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+    </row>
+    <row r="8" spans="1:28" ht="21" customHeight="1">
+      <c r="A8" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>342</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="K8" s="11">
+        <v>4</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+    </row>
+    <row r="9" spans="1:28" ht="18.75">
+      <c r="A9" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="K9" s="11">
+        <v>5</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+    </row>
+    <row r="10" spans="1:28" ht="21.75" customHeight="1">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="14"/>
+      <c r="K10" s="11">
+        <v>6</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+    </row>
+    <row r="11" spans="1:28" ht="18" customHeight="1">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="14"/>
+      <c r="K11" s="11">
+        <v>7</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+    </row>
+    <row r="12" spans="1:28" ht="18.75">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="14"/>
+      <c r="K12" s="11">
+        <v>8</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+    </row>
+    <row r="13" spans="1:28" ht="18.75">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="14"/>
+      <c r="K13" s="11">
+        <v>9</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>355</v>
+      </c>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
@@ -13973,16 +15204,16 @@
         <v>73</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>74</v>
+        <v>356</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>180</v>
+        <v>357</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>151</v>
+        <v>358</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>181</v>
+        <v>359</v>
       </c>
       <c r="F16" s="14"/>
       <c r="K16" s="11"/>
@@ -14007,16 +15238,16 @@
     <row r="17" spans="1:28" ht="18.75">
       <c r="A17" s="17"/>
       <c r="B17" s="47" t="s">
-        <v>75</v>
+        <v>360</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>184</v>
+        <v>361</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>362</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>185</v>
+        <v>363</v>
       </c>
       <c r="F17" s="14"/>
       <c r="K17" s="11"/>
@@ -14041,16 +15272,14 @@
     <row r="18" spans="1:28" ht="18.75">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>187</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="C18" s="17"/>
       <c r="D18" s="17" t="s">
-        <v>188</v>
+        <v>365</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>189</v>
+        <v>366</v>
       </c>
       <c r="F18" s="14"/>
       <c r="K18" s="11"/>
@@ -14129,13 +15358,13 @@
         <v>77</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>193</v>
+        <v>367</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>194</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>195</v>
+        <v>368</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>196</v>
@@ -14164,17 +15393,17 @@
       <c r="A22" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>198</v>
+      <c r="B22" s="40" t="s">
+        <v>369</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>199</v>
+        <v>370</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>151</v>
+        <v>371</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F22" s="14"/>
       <c r="K22" s="11"/>
@@ -14198,18 +15427,9 @@
     </row>
     <row r="23" spans="1:28" ht="18.75">
       <c r="A23" s="17"/>
-      <c r="B23" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>204</v>
-      </c>
+      <c r="B23" s="40"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
       <c r="F23" s="14"/>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
@@ -14231,7 +15451,7 @@
     </row>
     <row r="24" spans="1:28" ht="18.75">
       <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="14"/>
       <c r="D24" s="49"/>
       <c r="E24" s="49"/>
@@ -14287,10 +15507,10 @@
         <v>83</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="D26" s="49" t="s">
-        <v>151</v>
+        <v>372</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>373</v>
       </c>
       <c r="E26" s="17" t="s">
         <v>181</v>
@@ -14304,8 +15524,8 @@
       <c r="B27" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="17" t="s">
-        <v>210</v>
+      <c r="C27" s="51" t="s">
+        <v>374</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>211</v>
@@ -14317,11 +15537,11 @@
     </row>
     <row r="28" spans="1:28" ht="18.75">
       <c r="A28" s="17"/>
-      <c r="B28" s="17" t="s">
-        <v>86</v>
+      <c r="B28" s="40" t="s">
+        <v>87</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>215</v>
@@ -14334,10 +15554,10 @@
     <row r="29" spans="1:28" ht="18.75">
       <c r="A29" s="17"/>
       <c r="B29" s="40" t="s">
-        <v>87</v>
+        <v>375</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>218</v>
+        <v>376</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>219</v>
@@ -14349,12 +15569,8 @@
     </row>
     <row r="30" spans="1:28" ht="18.75">
       <c r="A30" s="17"/>
-      <c r="B30" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>222</v>
-      </c>
+      <c r="B30" s="40"/>
+      <c r="C30" s="17"/>
       <c r="D30" s="17" t="s">
         <v>223</v>
       </c>
@@ -14376,7 +15592,7 @@
         <v>89</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>90</v>
+        <v>377</v>
       </c>
       <c r="C32" s="17" t="s">
         <v>227</v>
@@ -14389,9 +15605,7 @@
       <c r="A33" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="B33" s="17" t="s">
-        <v>93</v>
-      </c>
+      <c r="B33" s="17"/>
       <c r="C33" s="17" t="s">
         <v>229</v>
       </c>
@@ -14405,9 +15619,7 @@
     </row>
     <row r="34" spans="1:6" ht="18.75">
       <c r="A34" s="17"/>
-      <c r="B34" s="17" t="s">
-        <v>94</v>
-      </c>
+      <c r="B34" s="17"/>
       <c r="C34" s="17" t="s">
         <v>233</v>
       </c>

--- a/Aurora/Requirements/User Stories/Requirement Gathering process.xlsx
+++ b/Aurora/Requirements/User Stories/Requirement Gathering process.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25217"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8201F54F-89AC-4410-85B5-A31104D1F9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C0AEE02-A830-498D-81B3-BBA11D75DF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day1   04.04.2022" sheetId="1" r:id="rId1"/>
-    <sheet name="Day 3   06.04.22" sheetId="3" r:id="rId2"/>
-    <sheet name="Day2   05.04.22" sheetId="2" r:id="rId3"/>
+    <sheet name="Day2   05.04.22" sheetId="2" r:id="rId2"/>
+    <sheet name="Day 3   06.04.22" sheetId="3" r:id="rId3"/>
     <sheet name="Day 4   07.04.22" sheetId="4" r:id="rId4"/>
     <sheet name="Day 5   08.04.2022" sheetId="6" r:id="rId5"/>
     <sheet name="Day6   09.04.2022" sheetId="7" r:id="rId6"/>
     <sheet name="Day7   11.04.2022" sheetId="8" r:id="rId7"/>
     <sheet name="Day 8 12.04.2022" sheetId="9" r:id="rId8"/>
+    <sheet name="Day 9 13.04.2022 " sheetId="10" r:id="rId9"/>
+    <sheet name="Day 10  18.04.2022  " sheetId="11" r:id="rId10"/>
+    <sheet name="Day 11 19.04.2022  " sheetId="12" r:id="rId11"/>
+    <sheet name="Day 12 20.04.2022  " sheetId="13" r:id="rId12"/>
+    <sheet name="Day 13 21.04.2022   " sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="395">
   <si>
     <t>Actors</t>
   </si>
@@ -610,105 +615,189 @@
     <t>I can update and manage my profile.</t>
   </si>
   <si>
+    <t>I can invite certain people to read my article.</t>
+  </si>
+  <si>
+    <t>Id:2</t>
+  </si>
+  <si>
+    <t>I used to read articles to gain more knowledge </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Article Reader:</t>
+  </si>
+  <si>
+    <t>I want to save the article  which impress me.</t>
+  </si>
+  <si>
+    <t>I want to share the article which has new impact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want to like the article which I love. </t>
+  </si>
+  <si>
+    <t>I can also follow the author I like.</t>
+  </si>
+  <si>
+    <t>Id:3</t>
+  </si>
+  <si>
+    <t>Queries Raiser(Any Employee): </t>
+  </si>
+  <si>
+    <t>I can raise queries in the forum, If I faced any issues. </t>
+  </si>
+  <si>
+    <t>I can search for query in the forum</t>
+  </si>
+  <si>
     <t>User Flow</t>
   </si>
   <si>
-    <t>I can invite certain people to read my article.</t>
+    <t>I can also give verified mark If I get my solution.</t>
+  </si>
+  <si>
+    <t>Id:4</t>
+  </si>
+  <si>
+    <t>I can able to answer Queries raised by anyone in the technical forum.  </t>
+  </si>
+  <si>
+    <t>Queries Solver (Any Employee):</t>
+  </si>
+  <si>
+    <t>I can also interact with query raiser if the question is not clear.</t>
+  </si>
+  <si>
+    <t>Id:5 </t>
+  </si>
+  <si>
+    <t>I can able to view the dashboard. </t>
+  </si>
+  <si>
+    <t>System Admin: </t>
+  </si>
+  <si>
+    <t>I can approve the employee who register ,so that they can able to access our website ,read/write articles ,raise queries and solve queries. </t>
+  </si>
+  <si>
+    <t>I can also give the ratings for authors with their writings.</t>
+  </si>
+  <si>
+    <t>I can manage the author and user profile.</t>
+  </si>
+  <si>
+    <t>I can report and delete the spam content and users.</t>
+  </si>
+  <si>
+    <t>Id:6</t>
+  </si>
+  <si>
+    <t>I can able to review the others articles before publishing.</t>
+  </si>
+  <si>
+    <t>Reviewer:</t>
+  </si>
+  <si>
+    <t>I can able to reject the article if the article content is not good.</t>
+  </si>
+  <si>
+    <t>I can able to approve the article.</t>
+  </si>
+  <si>
+    <t>Day 2 -Minutes of Meeting</t>
+  </si>
+  <si>
+    <t>Register should be added in user flow</t>
+  </si>
+  <si>
+    <t>Add draft section in the articles</t>
+  </si>
+  <si>
+    <t>Expert Flow diagram should be removed</t>
+  </si>
+  <si>
+    <t>Admin Flow</t>
+  </si>
+  <si>
+    <t>My articles section should be added</t>
+  </si>
+  <si>
+    <t>For reading a article we should select the specific article</t>
+  </si>
+  <si>
+    <t>Notification for Approving and rejecting in admin</t>
+  </si>
+  <si>
+    <t>User has to report spam queries</t>
+  </si>
+  <si>
+    <t>For rejected articles,Notified with the reason and allowed to Update</t>
+  </si>
+  <si>
+    <t>Admin cant allowed to raise queries</t>
+  </si>
+  <si>
+    <t>Any user can share their articles either by private or public</t>
+  </si>
+  <si>
+    <t>Latest or recently added three queries should be viewed</t>
+  </si>
+  <si>
+    <t>Queries can be searched and answered</t>
+  </si>
+  <si>
+    <t>The user who raised the query can have a option to close once it is resolved.</t>
+  </si>
+  <si>
+    <t>After answering a query,it can also be discussed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Add on ideas</t>
+  </si>
+  <si>
+    <t>Dashboard section in the my article page(No of articles,Views,Likes).</t>
+  </si>
+  <si>
+    <t>Query Raiser</t>
+  </si>
+  <si>
+    <t>Query Solver</t>
+  </si>
+  <si>
+    <t>Expert Flow</t>
+  </si>
+  <si>
+    <t>Reviewer Flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                              </t>
   </si>
   <si>
     <t>I can View my published articles and draft articles in MY ARTICLES page.</t>
   </si>
   <si>
-    <t>Id:2</t>
-  </si>
-  <si>
-    <t>I used to read articles to gain more knowledge </t>
-  </si>
-  <si>
-    <t>Article Reader:</t>
-  </si>
-  <si>
-    <t>I want to save the article  which impress me.</t>
-  </si>
-  <si>
-    <t>I want to share the article which has new impact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I want to like the article which I love. </t>
-  </si>
-  <si>
-    <t>I can also follow the author I like.</t>
-  </si>
-  <si>
-    <t>Id:3</t>
-  </si>
-  <si>
-    <t>Queries Raiser(Any Employee): </t>
-  </si>
-  <si>
-    <t>I can raise queries in the forum, If I faced any issues. </t>
-  </si>
-  <si>
-    <t>I can search for query in the forum</t>
-  </si>
-  <si>
-    <t>I can also give verified mark If I get my solution.</t>
-  </si>
-  <si>
-    <t>Id:4</t>
-  </si>
-  <si>
-    <t>I can able to answer Queries raised by anyone in the technical forum.  </t>
-  </si>
-  <si>
-    <t>Queries Solver (Any Employee):</t>
-  </si>
-  <si>
-    <t>I can also interact with query raiser if the question is not clear.</t>
-  </si>
-  <si>
     <t>I can Report Spam Queries.</t>
   </si>
   <si>
-    <t>Id:5 </t>
-  </si>
-  <si>
-    <t>I can able to view the dashboard. </t>
-  </si>
-  <si>
-    <t>System Admin: </t>
-  </si>
-  <si>
-    <t>I can approve the employee who register ,so that they can able to access our website ,read/write articles ,raise queries and solve queries. </t>
-  </si>
-  <si>
-    <t>I can also give the ratings for authors with their writings.</t>
-  </si>
-  <si>
     <t>I can manage List of Article Approvers</t>
   </si>
   <si>
     <t>I can verify and remove spam queries and send notification with reason</t>
   </si>
   <si>
-    <t>Id:6</t>
-  </si>
-  <si>
-    <t>I can able to review the others articles before publishing.</t>
-  </si>
-  <si>
     <t>Day 3 -Minutes of Meeting</t>
   </si>
   <si>
     <t>Article Approver:</t>
   </si>
   <si>
-    <t>I can able to reject the article if the article content is not good.</t>
-  </si>
-  <si>
-    <t>I can able to approve the article.</t>
-  </si>
-  <si>
     <t>Timesheet should contain each person Individual work</t>
   </si>
   <si>
@@ -745,99 +834,15 @@
     <t>Dependencies</t>
   </si>
   <si>
-    <t>Admin Flow</t>
-  </si>
-  <si>
     <t>Constraints</t>
   </si>
   <si>
-    <t>Reviewer Flow</t>
-  </si>
-  <si>
-    <t>Query Raiser</t>
-  </si>
-  <si>
     <t>Approver Flow</t>
   </si>
   <si>
     <t>Query solver</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>I can manage the author and user profile.</t>
-  </si>
-  <si>
-    <t>I can report and delete the spam content and users.</t>
-  </si>
-  <si>
-    <t>Reviewer:</t>
-  </si>
-  <si>
-    <t>Day 2 -Minutes of Meeting</t>
-  </si>
-  <si>
-    <t>Register should be added in user flow</t>
-  </si>
-  <si>
-    <t>Add draft section in the articles</t>
-  </si>
-  <si>
-    <t>Expert Flow diagram should be removed</t>
-  </si>
-  <si>
-    <t>My articles section should be added</t>
-  </si>
-  <si>
-    <t>For reading a article we should select the specific article</t>
-  </si>
-  <si>
-    <t>Notification for Approving and rejecting in admin</t>
-  </si>
-  <si>
-    <t>User has to report spam queries</t>
-  </si>
-  <si>
-    <t>For rejected articles,Notified with the reason and allowed to Update</t>
-  </si>
-  <si>
-    <t>Admin cant allowed to raise queries</t>
-  </si>
-  <si>
-    <t>Any user can share their articles either by private or public</t>
-  </si>
-  <si>
-    <t>Latest or recently added three queries should be viewed</t>
-  </si>
-  <si>
-    <t>Queries can be searched and answered</t>
-  </si>
-  <si>
-    <t>The user who raised the query can have a option to close once it is resolved.</t>
-  </si>
-  <si>
-    <t>After answering a query,it can also be discussed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          Add on ideas</t>
-  </si>
-  <si>
-    <t>Dashboard section in the my article page(No of articles,Views,Likes).</t>
-  </si>
-  <si>
-    <t>Query Solver</t>
-  </si>
-  <si>
-    <t>Expert Flow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                              </t>
-  </si>
-  <si>
     <t>User Stories</t>
   </si>
   <si>
@@ -1556,6 +1561,57 @@
   </si>
   <si>
     <t>I can able to review the article and I can approve or reject the article before publishing.</t>
+  </si>
+  <si>
+    <t>Day 9 -Minutes of Meeting</t>
+  </si>
+  <si>
+    <t>Solved and unsolved queries should be in radio button</t>
+  </si>
+  <si>
+    <t>Gender should be in radio button</t>
+  </si>
+  <si>
+    <t>Date textbox should be in last for all pages</t>
+  </si>
+  <si>
+    <t>Gender--&gt;Master table</t>
+  </si>
+  <si>
+    <t>UserTable should have either DesignationId or DepartmentId</t>
+  </si>
+  <si>
+    <t>Naming convention for forum(Questions)</t>
+  </si>
+  <si>
+    <t>Change Getspam to getspams and search spam by using getspambyid</t>
+  </si>
+  <si>
+    <t>Day 12-Minutes of Meeting</t>
+  </si>
+  <si>
+    <t>Add Audit field to the database</t>
+  </si>
+  <si>
+    <t>Refine the Operations in the data model</t>
+  </si>
+  <si>
+    <t>Add input and output to the operations</t>
+  </si>
+  <si>
+    <t>Article Table should contain multiple input-author,title,date</t>
+  </si>
+  <si>
+    <t>Article with same name operation</t>
+  </si>
+  <si>
+    <t>Get article by author and title</t>
+  </si>
+  <si>
+    <t>Get article by ID method</t>
+  </si>
+  <si>
+    <t>Day 13-Minutes of Meeting</t>
   </si>
 </sst>
 </file>
@@ -1854,7 +1910,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1913,6 +1969,12 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1936,6 +1998,337 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAF722E5-4E88-4D53-BA56-45DAB579C575}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16983075" y="5019675"/>
+          <a:ext cx="13154025" cy="4972050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{470E7F49-AA62-4D67-A55A-7C1DC13B2E0A}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{BAF722E5-4E88-4D53-BA56-45DAB579C575}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17554575" y="13620750"/>
+          <a:ext cx="8915400" cy="5267325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25D4C2DC-E5B8-40E6-A897-964E611231E4}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{470E7F49-AA62-4D67-A55A-7C1DC13B2E0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15640050" y="20002500"/>
+          <a:ext cx="11687175" cy="9201150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11182350</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15A3C8C8-ECBE-4691-98AD-E1C5D67DE4ED}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{25D4C2DC-E5B8-40E6-A897-964E611231E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2781300" y="17021175"/>
+          <a:ext cx="10763250" cy="3724275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10534650</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2663F82-C13B-47A9-B3AD-41E961FF462B}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{15A3C8C8-ECBE-4691-98AD-E1C5D67DE4ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3181350" y="8915400"/>
+          <a:ext cx="9715500" cy="4572000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10277475</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BED5FE83-5753-4973-AC59-6420BC4E0E76}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F2663F82-C13B-47A9-B3AD-41E961FF462B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3448050" y="27670125"/>
+          <a:ext cx="9191625" cy="4524375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10210800</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B3A019E-60A6-45BF-B240-12A3CDB352F9}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{BED5FE83-5753-4973-AC59-6420BC4E0E76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3238500" y="22774275"/>
+          <a:ext cx="9334500" cy="3409950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2258,337 +2651,6 @@
         <a:xfrm rot="21585853">
           <a:off x="3019425" y="29746575"/>
           <a:ext cx="9124950" cy="4057650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAF722E5-4E88-4D53-BA56-45DAB579C575}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16983075" y="5019675"/>
-          <a:ext cx="13154025" cy="4972050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{470E7F49-AA62-4D67-A55A-7C1DC13B2E0A}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{BAF722E5-4E88-4D53-BA56-45DAB579C575}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17554575" y="13620750"/>
-          <a:ext cx="8915400" cy="5267325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25D4C2DC-E5B8-40E6-A897-964E611231E4}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{470E7F49-AA62-4D67-A55A-7C1DC13B2E0A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15640050" y="20002500"/>
-          <a:ext cx="11687175" cy="9201150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>11182350</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15A3C8C8-ECBE-4691-98AD-E1C5D67DE4ED}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{25D4C2DC-E5B8-40E6-A897-964E611231E4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2781300" y="17021175"/>
-          <a:ext cx="10763250" cy="3724275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>10534650</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2663F82-C13B-47A9-B3AD-41E961FF462B}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{15A3C8C8-ECBE-4691-98AD-E1C5D67DE4ED}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3181350" y="8915400"/>
-          <a:ext cx="9715500" cy="4572000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1085850</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>10277475</xdr:colOff>
-      <xdr:row>149</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BED5FE83-5753-4973-AC59-6420BC4E0E76}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F2663F82-C13B-47A9-B3AD-41E961FF462B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3448050" y="27670125"/>
-          <a:ext cx="9191625" cy="4524375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>10210800</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Picture 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B3A019E-60A6-45BF-B240-12A3CDB352F9}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{BED5FE83-5753-4973-AC59-6420BC4E0E76}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3238500" y="22774275"/>
-          <a:ext cx="9334500" cy="3409950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3077,53 +3139,6 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>10467975</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92B86D90-6533-43E9-848A-67BD7FDC704F}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C2EA6BCC-5F3D-4838-8F7A-A50BD90C6BF8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2686050" y="21488400"/>
-          <a:ext cx="10467975" cy="6229350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>137</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -3470,7 +3485,7 @@
   <dimension ref="D5:AF61"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6:AF24"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4142,11 +4157,4613 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF1956F-8EB2-4360-A2BC-18095F64453A}">
+  <dimension ref="A1:AB134"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40.28515625" customWidth="1"/>
+    <col min="2" max="2" width="159.28515625" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" customWidth="1"/>
+    <col min="4" max="4" width="177.28515625" customWidth="1"/>
+    <col min="5" max="5" width="65.5703125" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" customWidth="1"/>
+    <col min="14" max="14" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="26.25">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="42"/>
+    </row>
+    <row r="2" spans="1:28" ht="18.75">
+      <c r="A2" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:28" ht="18.75">
+      <c r="A3" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:28" ht="18.75">
+      <c r="A4" s="17"/>
+      <c r="B4" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+    </row>
+    <row r="5" spans="1:28" ht="18.75">
+      <c r="A5" s="17"/>
+      <c r="B5" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>293</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+    </row>
+    <row r="6" spans="1:28" ht="18.75">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="14"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+    </row>
+    <row r="7" spans="1:28" ht="18.75">
+      <c r="A7" s="17"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="14"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+    </row>
+    <row r="8" spans="1:28" ht="21" customHeight="1">
+      <c r="A8" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>342</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+    </row>
+    <row r="9" spans="1:28" ht="18.75">
+      <c r="A9" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+    </row>
+    <row r="10" spans="1:28" ht="21.75" customHeight="1">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="14"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+    </row>
+    <row r="11" spans="1:28" ht="18" customHeight="1">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="14"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+    </row>
+    <row r="12" spans="1:28" ht="18.75">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="14"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+    </row>
+    <row r="13" spans="1:28" ht="18.75">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="14"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+    </row>
+    <row r="14" spans="1:28" ht="18.75">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="14"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+    </row>
+    <row r="15" spans="1:28" ht="18.75">
+      <c r="A15" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="14"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+    </row>
+    <row r="16" spans="1:28" ht="18.75">
+      <c r="A16" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>356</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+    </row>
+    <row r="17" spans="1:28" ht="18.75">
+      <c r="A17" s="17"/>
+      <c r="B17" s="47" t="s">
+        <v>360</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>362</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+    </row>
+    <row r="18" spans="1:28" ht="18.75">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+    </row>
+    <row r="19" spans="1:28" ht="18.75">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="14"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+    </row>
+    <row r="20" spans="1:28" ht="18.75">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="14"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+    </row>
+    <row r="21" spans="1:28" ht="18.75">
+      <c r="A21" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>367</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+    </row>
+    <row r="22" spans="1:28" ht="18.75">
+      <c r="A22" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+    </row>
+    <row r="23" spans="1:28" ht="18.75">
+      <c r="A23" s="17"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="F23" s="14"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+    </row>
+    <row r="24" spans="1:28" ht="18.75">
+      <c r="A24" s="17"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="14"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+    </row>
+    <row r="25" spans="1:28" ht="18.75">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="14"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+    </row>
+    <row r="26" spans="1:28" ht="18.75">
+      <c r="A26" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="1:28" ht="18.75">
+      <c r="A27" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="51" t="s">
+        <v>374</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:28" ht="18.75">
+      <c r="A28" s="17"/>
+      <c r="B28" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:28" ht="18.75">
+      <c r="A29" s="17"/>
+      <c r="B29" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:28" ht="18.75">
+      <c r="A30" s="17"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:28" ht="18.75">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:28" ht="18.75">
+      <c r="A32" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="1:6" ht="18.75">
+      <c r="A33" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="1:6" ht="18.75">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" spans="1:6" ht="18.75">
+      <c r="A35" s="17"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" spans="1:6" ht="18.75">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="14"/>
+    </row>
+    <row r="37" spans="1:6" ht="26.25">
+      <c r="B37" s="41"/>
+      <c r="C37" s="15"/>
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="1:6" ht="18.75">
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:6" ht="18.75">
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="1:6" ht="18.75">
+      <c r="E40" s="15"/>
+    </row>
+    <row r="97" spans="2:2" ht="26.25">
+      <c r="B97" s="41"/>
+    </row>
+    <row r="134" spans="2:2" ht="26.25">
+      <c r="B134" s="41"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68102724-3E13-4E06-BC8C-B9ABD562740D}">
+  <dimension ref="A1:AB134"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40.28515625" customWidth="1"/>
+    <col min="2" max="2" width="159.28515625" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" customWidth="1"/>
+    <col min="4" max="4" width="177.28515625" customWidth="1"/>
+    <col min="5" max="5" width="65.5703125" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" customWidth="1"/>
+    <col min="14" max="14" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="26.25">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="42"/>
+    </row>
+    <row r="2" spans="1:28" ht="18.75">
+      <c r="A2" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:28" ht="18.75">
+      <c r="A3" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:28" ht="18.75">
+      <c r="A4" s="17"/>
+      <c r="B4" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="57"/>
+    </row>
+    <row r="5" spans="1:28" ht="18.75">
+      <c r="A5" s="17"/>
+      <c r="B5" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>293</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="54"/>
+      <c r="Z5" s="54"/>
+      <c r="AA5" s="54"/>
+      <c r="AB5" s="57"/>
+    </row>
+    <row r="6" spans="1:28" ht="18.75">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="14"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="54"/>
+      <c r="X6" s="54"/>
+      <c r="Y6" s="54"/>
+      <c r="Z6" s="54"/>
+      <c r="AA6" s="54"/>
+      <c r="AB6" s="57"/>
+    </row>
+    <row r="7" spans="1:28" ht="18.75">
+      <c r="A7" s="17"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="14"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="54"/>
+      <c r="AA7" s="54"/>
+      <c r="AB7" s="54"/>
+    </row>
+    <row r="8" spans="1:28" ht="21" customHeight="1">
+      <c r="A8" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>342</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="54"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="54"/>
+      <c r="X8" s="54"/>
+      <c r="Y8" s="54"/>
+      <c r="Z8" s="54"/>
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="54"/>
+    </row>
+    <row r="9" spans="1:28" ht="18.75">
+      <c r="A9" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="54"/>
+      <c r="V9" s="54"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="54"/>
+      <c r="Y9" s="54"/>
+      <c r="Z9" s="54"/>
+      <c r="AA9" s="54"/>
+      <c r="AB9" s="54"/>
+    </row>
+    <row r="10" spans="1:28" ht="21.75" customHeight="1">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="14"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="54"/>
+      <c r="V10" s="54"/>
+      <c r="W10" s="54"/>
+      <c r="X10" s="54"/>
+      <c r="Y10" s="54"/>
+      <c r="Z10" s="54"/>
+      <c r="AA10" s="54"/>
+      <c r="AB10" s="54"/>
+    </row>
+    <row r="11" spans="1:28" ht="18" customHeight="1">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="14"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="54"/>
+      <c r="W11" s="54"/>
+      <c r="X11" s="54"/>
+      <c r="Y11" s="54"/>
+      <c r="Z11" s="54"/>
+      <c r="AA11" s="54"/>
+      <c r="AB11" s="54"/>
+    </row>
+    <row r="12" spans="1:28" ht="18.75">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="14"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="54"/>
+      <c r="V12" s="54"/>
+      <c r="W12" s="54"/>
+      <c r="X12" s="54"/>
+      <c r="Y12" s="54"/>
+      <c r="Z12" s="54"/>
+      <c r="AA12" s="54"/>
+      <c r="AB12" s="54"/>
+    </row>
+    <row r="13" spans="1:28" ht="18.75">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="14"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="54"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="54"/>
+      <c r="Y13" s="54"/>
+      <c r="Z13" s="54"/>
+      <c r="AA13" s="54"/>
+      <c r="AB13" s="54"/>
+    </row>
+    <row r="14" spans="1:28" ht="18.75">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="14"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="54"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="54"/>
+      <c r="Y14" s="54"/>
+      <c r="Z14" s="54"/>
+      <c r="AA14" s="54"/>
+      <c r="AB14" s="54"/>
+    </row>
+    <row r="15" spans="1:28" ht="18.75">
+      <c r="A15" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="14"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="54"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="54"/>
+      <c r="W15" s="54"/>
+      <c r="X15" s="54"/>
+      <c r="Y15" s="54"/>
+      <c r="Z15" s="54"/>
+      <c r="AA15" s="54"/>
+      <c r="AB15" s="54"/>
+    </row>
+    <row r="16" spans="1:28" ht="18.75">
+      <c r="A16" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>356</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="54"/>
+      <c r="W16" s="54"/>
+      <c r="X16" s="54"/>
+      <c r="Y16" s="54"/>
+      <c r="Z16" s="54"/>
+      <c r="AA16" s="54"/>
+      <c r="AB16" s="54"/>
+    </row>
+    <row r="17" spans="1:28" ht="18.75">
+      <c r="A17" s="17"/>
+      <c r="B17" s="47" t="s">
+        <v>360</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>362</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="54"/>
+      <c r="W17" s="54"/>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="54"/>
+      <c r="Z17" s="54"/>
+      <c r="AA17" s="54"/>
+      <c r="AB17" s="54"/>
+    </row>
+    <row r="18" spans="1:28" ht="18.75">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="54"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="54"/>
+      <c r="W18" s="54"/>
+      <c r="X18" s="54"/>
+      <c r="Y18" s="54"/>
+      <c r="Z18" s="54"/>
+      <c r="AA18" s="54"/>
+      <c r="AB18" s="54"/>
+    </row>
+    <row r="19" spans="1:28" ht="18.75">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="14"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="54"/>
+      <c r="S19" s="54"/>
+      <c r="T19" s="54"/>
+      <c r="U19" s="54"/>
+      <c r="V19" s="54"/>
+      <c r="W19" s="54"/>
+      <c r="X19" s="54"/>
+      <c r="Y19" s="54"/>
+      <c r="Z19" s="54"/>
+      <c r="AA19" s="54"/>
+      <c r="AB19" s="54"/>
+    </row>
+    <row r="20" spans="1:28" ht="18.75">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="14"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="54"/>
+      <c r="V20" s="54"/>
+      <c r="W20" s="54"/>
+      <c r="X20" s="54"/>
+      <c r="Y20" s="54"/>
+      <c r="Z20" s="54"/>
+      <c r="AA20" s="54"/>
+      <c r="AB20" s="54"/>
+    </row>
+    <row r="21" spans="1:28" ht="18.75">
+      <c r="A21" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>367</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="54"/>
+      <c r="T21" s="54"/>
+      <c r="U21" s="54"/>
+      <c r="V21" s="54"/>
+      <c r="W21" s="54"/>
+      <c r="X21" s="54"/>
+      <c r="Y21" s="54"/>
+      <c r="Z21" s="54"/>
+      <c r="AA21" s="54"/>
+      <c r="AB21" s="54"/>
+    </row>
+    <row r="22" spans="1:28" ht="18.75">
+      <c r="A22" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="54"/>
+      <c r="T22" s="54"/>
+      <c r="U22" s="54"/>
+      <c r="V22" s="54"/>
+      <c r="W22" s="54"/>
+      <c r="X22" s="54"/>
+      <c r="Y22" s="54"/>
+      <c r="Z22" s="54"/>
+      <c r="AA22" s="54"/>
+      <c r="AB22" s="54"/>
+    </row>
+    <row r="23" spans="1:28" ht="18.75">
+      <c r="A23" s="17"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="F23" s="14"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+    </row>
+    <row r="24" spans="1:28" ht="18.75">
+      <c r="A24" s="17"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="14"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+    </row>
+    <row r="25" spans="1:28" ht="18.75">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="14"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+    </row>
+    <row r="26" spans="1:28" ht="18.75">
+      <c r="A26" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="1:28" ht="18.75">
+      <c r="A27" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="51" t="s">
+        <v>374</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:28" ht="18.75">
+      <c r="A28" s="17"/>
+      <c r="B28" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:28" ht="18.75">
+      <c r="A29" s="17"/>
+      <c r="B29" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:28" ht="18.75">
+      <c r="A30" s="17"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:28" ht="18.75">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:28" ht="18.75">
+      <c r="A32" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="1:6" ht="18.75">
+      <c r="A33" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="1:6" ht="18.75">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" spans="1:6" ht="18.75">
+      <c r="A35" s="17"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" spans="1:6" ht="18.75">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="14"/>
+    </row>
+    <row r="37" spans="1:6" ht="26.25">
+      <c r="B37" s="41"/>
+      <c r="C37" s="15"/>
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="1:6" ht="18.75">
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:6" ht="18.75">
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="1:6" ht="18.75">
+      <c r="E40" s="15"/>
+    </row>
+    <row r="97" spans="2:2" ht="26.25">
+      <c r="B97" s="41"/>
+    </row>
+    <row r="134" spans="2:2" ht="26.25">
+      <c r="B134" s="41"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A51174F-F026-42FE-8ACB-943928A6F88B}">
+  <dimension ref="A1:AB134"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40.28515625" customWidth="1"/>
+    <col min="2" max="2" width="159.28515625" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" customWidth="1"/>
+    <col min="4" max="4" width="177.28515625" customWidth="1"/>
+    <col min="5" max="5" width="65.5703125" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" customWidth="1"/>
+    <col min="14" max="14" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="26.25">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="42"/>
+    </row>
+    <row r="2" spans="1:28" ht="18.75">
+      <c r="A2" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:28" ht="18.75">
+      <c r="A3" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:28" ht="18.75">
+      <c r="A4" s="17"/>
+      <c r="B4" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="O4" s="50"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="43"/>
+    </row>
+    <row r="5" spans="1:28" ht="18.75">
+      <c r="A5" s="17"/>
+      <c r="B5" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>293</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="K5" s="11">
+        <v>1</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="43"/>
+    </row>
+    <row r="6" spans="1:28" ht="18.75">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="14"/>
+      <c r="K6" s="11">
+        <v>2</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="43"/>
+    </row>
+    <row r="7" spans="1:28" ht="18.75">
+      <c r="A7" s="17"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="14"/>
+      <c r="K7" s="11">
+        <v>3</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+    </row>
+    <row r="8" spans="1:28" ht="21" customHeight="1">
+      <c r="A8" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>342</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="K8" s="11">
+        <v>4</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+    </row>
+    <row r="9" spans="1:28" ht="18.75">
+      <c r="A9" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="K9" s="11">
+        <v>5</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+    </row>
+    <row r="10" spans="1:28" ht="21.75" customHeight="1">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="14"/>
+      <c r="K10" s="11">
+        <v>6</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+    </row>
+    <row r="11" spans="1:28" ht="18" customHeight="1">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="14"/>
+      <c r="K11" s="11">
+        <v>7</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+    </row>
+    <row r="12" spans="1:28" ht="18.75">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="14"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+    </row>
+    <row r="13" spans="1:28" ht="18.75">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="14"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+    </row>
+    <row r="14" spans="1:28" ht="18.75">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="14"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+    </row>
+    <row r="15" spans="1:28" ht="18.75">
+      <c r="A15" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="14"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+    </row>
+    <row r="16" spans="1:28" ht="18.75">
+      <c r="A16" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>356</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+    </row>
+    <row r="17" spans="1:28" ht="18.75">
+      <c r="A17" s="17"/>
+      <c r="B17" s="47" t="s">
+        <v>360</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>362</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+    </row>
+    <row r="18" spans="1:28" ht="18.75">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+    </row>
+    <row r="19" spans="1:28" ht="18.75">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="14"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+    </row>
+    <row r="20" spans="1:28" ht="18.75">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="14"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+    </row>
+    <row r="21" spans="1:28" ht="18.75">
+      <c r="A21" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>367</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+    </row>
+    <row r="22" spans="1:28" ht="18.75">
+      <c r="A22" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+    </row>
+    <row r="23" spans="1:28" ht="18.75">
+      <c r="A23" s="17"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="F23" s="14"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+    </row>
+    <row r="24" spans="1:28" ht="18.75">
+      <c r="A24" s="17"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="14"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+    </row>
+    <row r="25" spans="1:28" ht="18.75">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="14"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+    </row>
+    <row r="26" spans="1:28" ht="18.75">
+      <c r="A26" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="1:28" ht="18.75">
+      <c r="A27" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="51" t="s">
+        <v>374</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:28" ht="18.75">
+      <c r="A28" s="17"/>
+      <c r="B28" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:28" ht="18.75">
+      <c r="A29" s="17"/>
+      <c r="B29" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:28" ht="18.75">
+      <c r="A30" s="17"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:28" ht="18.75">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:28" ht="18.75">
+      <c r="A32" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="1:6" ht="18.75">
+      <c r="A33" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="1:6" ht="18.75">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" spans="1:6" ht="18.75">
+      <c r="A35" s="17"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" spans="1:6" ht="18.75">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="14"/>
+    </row>
+    <row r="37" spans="1:6" ht="26.25">
+      <c r="B37" s="41"/>
+      <c r="C37" s="15"/>
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="1:6" ht="18.75">
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:6" ht="18.75">
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="1:6" ht="18.75">
+      <c r="E40" s="15"/>
+    </row>
+    <row r="97" spans="2:2" ht="26.25">
+      <c r="B97" s="41"/>
+    </row>
+    <row r="134" spans="2:2" ht="26.25">
+      <c r="B134" s="41"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031FEEDE-288C-47BB-B4CE-7DBF47C44A5D}">
+  <dimension ref="A1:AB134"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40.28515625" customWidth="1"/>
+    <col min="2" max="2" width="159.28515625" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" customWidth="1"/>
+    <col min="4" max="4" width="177.28515625" customWidth="1"/>
+    <col min="5" max="5" width="65.5703125" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" customWidth="1"/>
+    <col min="14" max="14" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="26.25">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="42"/>
+    </row>
+    <row r="2" spans="1:28" ht="18.75">
+      <c r="A2" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:28" ht="18.75">
+      <c r="A3" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:28" ht="18.75">
+      <c r="A4" s="17"/>
+      <c r="B4" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="O4" s="50"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="43"/>
+    </row>
+    <row r="5" spans="1:28" ht="18.75">
+      <c r="A5" s="17"/>
+      <c r="B5" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>293</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="43"/>
+    </row>
+    <row r="6" spans="1:28" ht="18.75">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="14"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="43"/>
+    </row>
+    <row r="7" spans="1:28" ht="18.75">
+      <c r="A7" s="17"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="14"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+    </row>
+    <row r="8" spans="1:28" ht="21" customHeight="1">
+      <c r="A8" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>342</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+    </row>
+    <row r="9" spans="1:28" ht="18.75">
+      <c r="A9" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+    </row>
+    <row r="10" spans="1:28" ht="21.75" customHeight="1">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="14"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+    </row>
+    <row r="11" spans="1:28" ht="18" customHeight="1">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="14"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+    </row>
+    <row r="12" spans="1:28" ht="18.75">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="14"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+    </row>
+    <row r="13" spans="1:28" ht="18.75">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="14"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+    </row>
+    <row r="14" spans="1:28" ht="18.75">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="14"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+    </row>
+    <row r="15" spans="1:28" ht="18.75">
+      <c r="A15" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="14"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+    </row>
+    <row r="16" spans="1:28" ht="18.75">
+      <c r="A16" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>356</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+    </row>
+    <row r="17" spans="1:28" ht="18.75">
+      <c r="A17" s="17"/>
+      <c r="B17" s="47" t="s">
+        <v>360</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>362</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+    </row>
+    <row r="18" spans="1:28" ht="18.75">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+    </row>
+    <row r="19" spans="1:28" ht="18.75">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="14"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+    </row>
+    <row r="20" spans="1:28" ht="18.75">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="14"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+    </row>
+    <row r="21" spans="1:28" ht="18.75">
+      <c r="A21" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>367</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+    </row>
+    <row r="22" spans="1:28" ht="18.75">
+      <c r="A22" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+    </row>
+    <row r="23" spans="1:28" ht="18.75">
+      <c r="A23" s="17"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="F23" s="14"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+    </row>
+    <row r="24" spans="1:28" ht="18.75">
+      <c r="A24" s="17"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="14"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+    </row>
+    <row r="25" spans="1:28" ht="18.75">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="14"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+    </row>
+    <row r="26" spans="1:28" ht="18.75">
+      <c r="A26" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="1:28" ht="18.75">
+      <c r="A27" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="51" t="s">
+        <v>374</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:28" ht="18.75">
+      <c r="A28" s="17"/>
+      <c r="B28" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:28" ht="18.75">
+      <c r="A29" s="17"/>
+      <c r="B29" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:28" ht="18.75">
+      <c r="A30" s="17"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:28" ht="18.75">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:28" ht="18.75">
+      <c r="A32" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="1:6" ht="18.75">
+      <c r="A33" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="1:6" ht="18.75">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" spans="1:6" ht="18.75">
+      <c r="A35" s="17"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" spans="1:6" ht="18.75">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="14"/>
+    </row>
+    <row r="37" spans="1:6" ht="26.25">
+      <c r="B37" s="41"/>
+      <c r="C37" s="15"/>
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="1:6" ht="18.75">
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:6" ht="18.75">
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="1:6" ht="18.75">
+      <c r="E40" s="15"/>
+    </row>
+    <row r="97" spans="2:2" ht="26.25">
+      <c r="B97" s="41"/>
+    </row>
+    <row r="134" spans="2:2" ht="26.25">
+      <c r="B134" s="41"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36926E04-CA90-4C00-B9CA-D6AA30EAC21F}">
+  <dimension ref="A1:AX172"/>
+  <sheetViews>
+    <sheetView topLeftCell="L9" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="35.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="178.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" style="3" customWidth="1"/>
+    <col min="4" max="32" width="9.140625" style="3"/>
+    <col min="33" max="33" width="20.85546875" style="3" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="25.5">
+      <c r="B19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="B30" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="B31" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="B32" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="B37" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:2" ht="44.25">
+      <c r="A39" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="B40" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41"/>
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="B45" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="B46" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="1:50">
+      <c r="AG49" s="11"/>
+      <c r="AH49" s="11"/>
+      <c r="AI49" s="11"/>
+      <c r="AJ49" s="11"/>
+      <c r="AK49" s="11"/>
+      <c r="AL49" s="11"/>
+      <c r="AM49" s="11"/>
+      <c r="AN49" s="11"/>
+      <c r="AO49" s="11"/>
+      <c r="AP49" s="11"/>
+      <c r="AQ49" s="11"/>
+      <c r="AR49" s="11"/>
+      <c r="AS49" s="11"/>
+      <c r="AT49" s="11"/>
+      <c r="AU49" s="11"/>
+      <c r="AV49" s="11"/>
+      <c r="AW49" s="11"/>
+      <c r="AX49" s="11"/>
+    </row>
+    <row r="50" spans="1:50">
+      <c r="AG50" s="11"/>
+      <c r="AH50" s="11"/>
+      <c r="AI50" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ50" s="13"/>
+      <c r="AK50" s="13"/>
+      <c r="AL50" s="13"/>
+      <c r="AM50" s="11"/>
+      <c r="AN50" s="11"/>
+      <c r="AO50" s="11"/>
+      <c r="AP50" s="11"/>
+      <c r="AQ50" s="11"/>
+      <c r="AR50" s="11"/>
+      <c r="AS50" s="11"/>
+      <c r="AT50" s="11"/>
+      <c r="AU50" s="11"/>
+      <c r="AV50" s="11"/>
+      <c r="AW50" s="11"/>
+      <c r="AX50" s="11"/>
+    </row>
+    <row r="51" spans="1:50">
+      <c r="B51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG51" s="11"/>
+      <c r="AH51" s="11"/>
+      <c r="AI51" s="11"/>
+      <c r="AJ51" s="11"/>
+      <c r="AK51" s="11"/>
+      <c r="AL51" s="11"/>
+      <c r="AM51" s="11"/>
+      <c r="AN51" s="11"/>
+      <c r="AO51" s="11"/>
+      <c r="AP51" s="11"/>
+      <c r="AQ51" s="11"/>
+      <c r="AR51" s="11"/>
+      <c r="AS51" s="11"/>
+      <c r="AT51" s="11"/>
+      <c r="AU51" s="11"/>
+      <c r="AV51" s="11"/>
+      <c r="AW51" s="11"/>
+      <c r="AX51" s="11"/>
+    </row>
+    <row r="52" spans="1:50">
+      <c r="AG52" s="11">
+        <v>1</v>
+      </c>
+      <c r="AH52" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI52" s="11"/>
+      <c r="AJ52" s="11"/>
+      <c r="AK52" s="11"/>
+      <c r="AL52" s="11"/>
+      <c r="AM52" s="11"/>
+      <c r="AN52" s="11"/>
+      <c r="AO52" s="11"/>
+      <c r="AP52" s="11"/>
+      <c r="AQ52" s="11"/>
+      <c r="AR52" s="11"/>
+      <c r="AS52" s="11"/>
+      <c r="AT52" s="11"/>
+      <c r="AU52" s="11"/>
+      <c r="AV52" s="11"/>
+      <c r="AW52" s="11"/>
+      <c r="AX52" s="11"/>
+    </row>
+    <row r="53" spans="1:50">
+      <c r="AG53" s="11">
+        <v>2</v>
+      </c>
+      <c r="AH53" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI53" s="11"/>
+      <c r="AJ53" s="11"/>
+      <c r="AK53" s="11"/>
+      <c r="AL53" s="11"/>
+      <c r="AM53" s="11"/>
+      <c r="AN53" s="11"/>
+      <c r="AO53" s="11"/>
+      <c r="AP53" s="11"/>
+      <c r="AQ53" s="11"/>
+      <c r="AR53" s="11"/>
+      <c r="AS53" s="11"/>
+      <c r="AT53" s="11"/>
+      <c r="AU53" s="11"/>
+      <c r="AV53" s="11"/>
+      <c r="AW53" s="11"/>
+      <c r="AX53" s="11"/>
+    </row>
+    <row r="54" spans="1:50">
+      <c r="AG54" s="11">
+        <v>3</v>
+      </c>
+      <c r="AH54" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI54" s="11"/>
+      <c r="AJ54" s="11"/>
+      <c r="AK54" s="11"/>
+      <c r="AL54" s="11"/>
+      <c r="AM54" s="11"/>
+      <c r="AN54" s="11"/>
+      <c r="AO54" s="11"/>
+      <c r="AP54" s="11"/>
+      <c r="AQ54" s="11"/>
+      <c r="AR54" s="11"/>
+      <c r="AS54" s="11"/>
+      <c r="AT54" s="11"/>
+      <c r="AU54" s="11"/>
+      <c r="AV54" s="11"/>
+      <c r="AW54" s="11"/>
+      <c r="AX54" s="11"/>
+    </row>
+    <row r="55" spans="1:50">
+      <c r="D55" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG55" s="11">
+        <v>4</v>
+      </c>
+      <c r="AH55" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI55" s="11"/>
+      <c r="AJ55" s="11"/>
+      <c r="AK55" s="11"/>
+      <c r="AL55" s="11"/>
+      <c r="AM55" s="11"/>
+      <c r="AN55" s="11"/>
+      <c r="AO55" s="11"/>
+      <c r="AP55" s="11"/>
+      <c r="AQ55" s="11"/>
+      <c r="AR55" s="11"/>
+      <c r="AS55" s="11"/>
+      <c r="AT55" s="11"/>
+      <c r="AU55" s="11"/>
+      <c r="AV55" s="11"/>
+      <c r="AW55" s="11"/>
+      <c r="AX55" s="11"/>
+    </row>
+    <row r="56" spans="1:50">
+      <c r="AG56" s="11">
+        <v>5</v>
+      </c>
+      <c r="AH56" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI56" s="11"/>
+      <c r="AJ56" s="11"/>
+      <c r="AK56" s="11"/>
+      <c r="AL56" s="11"/>
+      <c r="AM56" s="11"/>
+      <c r="AN56" s="11"/>
+      <c r="AO56" s="11"/>
+      <c r="AP56" s="11"/>
+      <c r="AQ56" s="11"/>
+      <c r="AR56" s="11"/>
+      <c r="AS56" s="11"/>
+      <c r="AT56" s="11"/>
+      <c r="AU56" s="11"/>
+      <c r="AV56" s="11"/>
+      <c r="AW56" s="11"/>
+      <c r="AX56" s="11"/>
+    </row>
+    <row r="57" spans="1:50">
+      <c r="A57" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG57" s="11">
+        <v>6</v>
+      </c>
+      <c r="AH57" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI57" s="11"/>
+      <c r="AJ57" s="11"/>
+      <c r="AK57" s="11"/>
+      <c r="AL57" s="11"/>
+      <c r="AM57" s="11"/>
+      <c r="AN57" s="11"/>
+      <c r="AO57" s="11"/>
+      <c r="AP57" s="11"/>
+      <c r="AQ57" s="11"/>
+      <c r="AR57" s="11"/>
+      <c r="AS57" s="11"/>
+      <c r="AT57" s="11"/>
+      <c r="AU57" s="11"/>
+      <c r="AV57" s="11"/>
+      <c r="AW57" s="11"/>
+      <c r="AX57" s="11"/>
+    </row>
+    <row r="58" spans="1:50">
+      <c r="AG58" s="11">
+        <v>7</v>
+      </c>
+      <c r="AH58" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI58" s="11"/>
+      <c r="AJ58" s="11"/>
+      <c r="AK58" s="11"/>
+      <c r="AL58" s="11"/>
+      <c r="AM58" s="11"/>
+      <c r="AN58" s="11"/>
+      <c r="AO58" s="11"/>
+      <c r="AP58" s="11"/>
+      <c r="AQ58" s="11"/>
+      <c r="AR58" s="11"/>
+      <c r="AS58" s="11"/>
+      <c r="AT58" s="11"/>
+      <c r="AU58" s="11"/>
+      <c r="AV58" s="11"/>
+      <c r="AW58" s="11"/>
+      <c r="AX58" s="11"/>
+    </row>
+    <row r="59" spans="1:50">
+      <c r="AG59" s="11">
+        <v>8</v>
+      </c>
+      <c r="AH59" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI59" s="11"/>
+      <c r="AJ59" s="11"/>
+      <c r="AK59" s="11"/>
+      <c r="AL59" s="11"/>
+      <c r="AM59" s="11"/>
+      <c r="AN59" s="11"/>
+      <c r="AO59" s="11"/>
+      <c r="AP59" s="11"/>
+      <c r="AQ59" s="11"/>
+      <c r="AR59" s="11"/>
+      <c r="AS59" s="11"/>
+      <c r="AT59" s="11"/>
+      <c r="AU59" s="11"/>
+      <c r="AV59" s="11"/>
+      <c r="AW59" s="11"/>
+      <c r="AX59" s="11"/>
+    </row>
+    <row r="60" spans="1:50">
+      <c r="AG60" s="11">
+        <v>9</v>
+      </c>
+      <c r="AH60" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI60" s="11"/>
+      <c r="AJ60" s="11"/>
+      <c r="AK60" s="11"/>
+      <c r="AL60" s="11"/>
+      <c r="AM60" s="11"/>
+      <c r="AN60" s="11"/>
+      <c r="AO60" s="11"/>
+      <c r="AP60" s="11"/>
+      <c r="AQ60" s="11"/>
+      <c r="AR60" s="11"/>
+      <c r="AS60" s="11"/>
+      <c r="AT60" s="11"/>
+      <c r="AU60" s="11"/>
+      <c r="AV60" s="11"/>
+      <c r="AW60" s="11"/>
+      <c r="AX60" s="11"/>
+    </row>
+    <row r="61" spans="1:50">
+      <c r="AG61" s="11">
+        <v>10</v>
+      </c>
+      <c r="AH61" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI61" s="11"/>
+      <c r="AJ61" s="11"/>
+      <c r="AK61" s="11"/>
+      <c r="AL61" s="11"/>
+      <c r="AM61" s="11"/>
+      <c r="AN61" s="11"/>
+      <c r="AO61" s="11"/>
+      <c r="AP61" s="11"/>
+      <c r="AQ61" s="11"/>
+      <c r="AR61" s="11"/>
+      <c r="AS61" s="11"/>
+      <c r="AT61" s="11"/>
+      <c r="AU61" s="11"/>
+      <c r="AV61" s="11"/>
+      <c r="AW61" s="11"/>
+      <c r="AX61" s="11"/>
+    </row>
+    <row r="62" spans="1:50">
+      <c r="AG62" s="11">
+        <v>11</v>
+      </c>
+      <c r="AH62" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI62" s="11"/>
+      <c r="AJ62" s="11"/>
+      <c r="AK62" s="11"/>
+      <c r="AL62" s="11"/>
+      <c r="AM62" s="11"/>
+      <c r="AN62" s="11"/>
+      <c r="AO62" s="11"/>
+      <c r="AP62" s="11"/>
+      <c r="AQ62" s="11"/>
+      <c r="AR62" s="11"/>
+      <c r="AS62" s="11"/>
+      <c r="AT62" s="11"/>
+      <c r="AU62" s="11"/>
+      <c r="AV62" s="11"/>
+      <c r="AW62" s="11"/>
+      <c r="AX62" s="11"/>
+    </row>
+    <row r="63" spans="1:50">
+      <c r="AG63" s="11">
+        <v>12</v>
+      </c>
+      <c r="AH63" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI63" s="11"/>
+      <c r="AJ63" s="11"/>
+      <c r="AK63" s="11"/>
+      <c r="AL63" s="11"/>
+      <c r="AM63" s="11"/>
+      <c r="AN63" s="11"/>
+      <c r="AO63" s="11"/>
+      <c r="AP63" s="11"/>
+      <c r="AQ63" s="11"/>
+      <c r="AR63" s="11"/>
+      <c r="AS63" s="11"/>
+      <c r="AT63" s="11"/>
+      <c r="AU63" s="11"/>
+      <c r="AV63" s="11"/>
+      <c r="AW63" s="11"/>
+      <c r="AX63" s="11"/>
+    </row>
+    <row r="64" spans="1:50">
+      <c r="AG64" s="11">
+        <v>13</v>
+      </c>
+      <c r="AH64" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI64" s="11"/>
+      <c r="AJ64" s="11"/>
+      <c r="AK64" s="11"/>
+      <c r="AL64" s="11"/>
+      <c r="AM64" s="11"/>
+      <c r="AN64" s="11"/>
+      <c r="AO64" s="11"/>
+      <c r="AP64" s="11"/>
+      <c r="AQ64" s="11"/>
+      <c r="AR64" s="11"/>
+      <c r="AS64" s="11"/>
+      <c r="AT64" s="11"/>
+      <c r="AU64" s="11"/>
+      <c r="AV64" s="11"/>
+      <c r="AW64" s="11"/>
+      <c r="AX64" s="11"/>
+    </row>
+    <row r="65" spans="1:50">
+      <c r="AG65" s="11">
+        <v>14</v>
+      </c>
+      <c r="AH65" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI65" s="11"/>
+      <c r="AJ65" s="11"/>
+      <c r="AK65" s="11"/>
+      <c r="AL65" s="11"/>
+      <c r="AM65" s="11"/>
+      <c r="AN65" s="11"/>
+      <c r="AO65" s="11"/>
+      <c r="AP65" s="11"/>
+      <c r="AQ65" s="11"/>
+      <c r="AR65" s="11"/>
+      <c r="AS65" s="11"/>
+      <c r="AT65" s="11"/>
+      <c r="AU65" s="11"/>
+      <c r="AV65" s="11"/>
+      <c r="AW65" s="11"/>
+      <c r="AX65" s="11"/>
+    </row>
+    <row r="66" spans="1:50">
+      <c r="AG66" s="11"/>
+      <c r="AH66" s="11"/>
+      <c r="AI66" s="11"/>
+      <c r="AJ66" s="11"/>
+      <c r="AK66" s="11"/>
+      <c r="AL66" s="11"/>
+      <c r="AM66" s="11"/>
+      <c r="AN66" s="11"/>
+      <c r="AO66" s="11"/>
+      <c r="AP66" s="11"/>
+      <c r="AQ66" s="11"/>
+      <c r="AR66" s="11"/>
+      <c r="AS66" s="11"/>
+      <c r="AT66" s="11"/>
+      <c r="AU66" s="11"/>
+      <c r="AV66" s="11"/>
+      <c r="AW66" s="11"/>
+      <c r="AX66" s="11"/>
+    </row>
+    <row r="67" spans="1:50">
+      <c r="AG67" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH67" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI67" s="11"/>
+      <c r="AJ67" s="11"/>
+      <c r="AK67" s="11"/>
+      <c r="AL67" s="11"/>
+      <c r="AM67" s="11"/>
+      <c r="AN67" s="11"/>
+      <c r="AO67" s="11"/>
+      <c r="AP67" s="11"/>
+      <c r="AQ67" s="11"/>
+      <c r="AR67" s="11"/>
+      <c r="AS67" s="11"/>
+      <c r="AT67" s="11"/>
+      <c r="AU67" s="11"/>
+      <c r="AV67" s="11"/>
+      <c r="AW67" s="11"/>
+      <c r="AX67" s="11"/>
+    </row>
+    <row r="68" spans="1:50">
+      <c r="AG68" s="11"/>
+      <c r="AH68" s="11"/>
+      <c r="AI68" s="11"/>
+      <c r="AJ68" s="11"/>
+      <c r="AK68" s="11"/>
+      <c r="AL68" s="11"/>
+      <c r="AM68" s="11"/>
+      <c r="AN68" s="11"/>
+      <c r="AO68" s="11"/>
+      <c r="AP68" s="11"/>
+      <c r="AQ68" s="11"/>
+      <c r="AR68" s="11"/>
+      <c r="AS68" s="11"/>
+      <c r="AT68" s="11"/>
+      <c r="AU68" s="11"/>
+      <c r="AV68" s="11"/>
+      <c r="AW68" s="11"/>
+      <c r="AX68" s="11"/>
+    </row>
+    <row r="75" spans="1:50">
+      <c r="A75" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B75" s="24"/>
+    </row>
+    <row r="76" spans="1:50">
+      <c r="B76" s="24"/>
+    </row>
+    <row r="77" spans="1:50">
+      <c r="B77" s="24"/>
+    </row>
+    <row r="78" spans="1:50">
+      <c r="B78" s="24"/>
+    </row>
+    <row r="79" spans="1:50">
+      <c r="B79" s="24"/>
+    </row>
+    <row r="80" spans="1:50">
+      <c r="B80" s="24"/>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="B81" s="24"/>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="B82" s="24"/>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="B83" s="24"/>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="B84" s="24"/>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="B85" s="24"/>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="B86" s="24"/>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="B87" s="24"/>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="B88" s="24"/>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="B89" s="24"/>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="B90" s="24"/>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="B91" s="24"/>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B92" s="24"/>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="B93" s="24"/>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="B94" s="24"/>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="B95" s="24"/>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="B96" s="24"/>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="B97" s="24"/>
+      <c r="E97" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="B98" s="24"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="B105" s="23"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B106" s="23"/>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="B107" s="23"/>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="B108" s="23"/>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="B109" s="23"/>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="B110" s="23"/>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="B111" s="23"/>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="B112" s="23"/>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="23"/>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="23"/>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="23"/>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="23"/>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="23"/>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="23"/>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="23"/>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="23"/>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="23"/>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="23"/>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="23"/>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="23"/>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="23"/>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="23"/>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="B131" s="22"/>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B132" s="22"/>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="B133" s="22"/>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="B134" s="22"/>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="B135" s="22"/>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="B136" s="22"/>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="B137" s="22"/>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="B138" s="22"/>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="B139" s="22"/>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="B140" s="22"/>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="B141" s="22"/>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="B142" s="22"/>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="B143" s="22"/>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="B144" s="22"/>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="22"/>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="22"/>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="22"/>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="22"/>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="22"/>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="22"/>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" s="22"/>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" s="22"/>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" s="22"/>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" s="22"/>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" s="22"/>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" s="22"/>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" s="22"/>
+    </row>
+    <row r="167" spans="20:21">
+      <c r="T167" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="172" spans="20:21">
+      <c r="U172" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C641DA78-A8C7-45F3-87E3-0F8CD3145EAF}">
   <dimension ref="A1:BA164"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="AD14" workbookViewId="0">
       <selection activeCell="BF48" sqref="BF48"/>
     </sheetView>
   </sheetViews>
@@ -4191,13 +8808,13 @@
         <v>61</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="18.75">
       <c r="A6" s="3"/>
       <c r="B6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
@@ -4233,7 +8850,7 @@
     <row r="7" spans="1:33" ht="18.75">
       <c r="A7" s="3"/>
       <c r="B7" s="29" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
@@ -4335,10 +8952,10 @@
     </row>
     <row r="10" spans="1:33" ht="18.75">
       <c r="A10" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="38"/>
       <c r="E10" s="38"/>
@@ -4373,10 +8990,10 @@
     </row>
     <row r="11" spans="1:33" ht="18.75">
       <c r="A11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="D11" s="38"/>
       <c r="E11" s="38"/>
@@ -4412,7 +9029,7 @@
     <row r="12" spans="1:33" ht="18.75">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" s="38"/>
       <c r="E12" s="38"/>
@@ -4448,7 +9065,7 @@
     <row r="13" spans="1:33" ht="18.75">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="38"/>
       <c r="E13" s="38"/>
@@ -4484,7 +9101,7 @@
     <row r="14" spans="1:33" ht="18.75">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14" s="38"/>
       <c r="E14" s="38"/>
@@ -4621,7 +9238,7 @@
     </row>
     <row r="18" spans="1:33" ht="18.75">
       <c r="A18" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B18" s="3"/>
       <c r="D18" s="38"/>
@@ -4657,10 +9274,10 @@
     </row>
     <row r="19" spans="1:33" ht="18">
       <c r="A19" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="D19" s="38"/>
       <c r="E19" s="38"/>
@@ -4696,7 +9313,7 @@
     <row r="20" spans="1:33" ht="18.75">
       <c r="A20" s="3"/>
       <c r="B20" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D20" s="38"/>
       <c r="E20" s="38"/>
@@ -4912,7 +9529,7 @@
     <row r="26" spans="1:33" ht="18.75">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="D26" s="38"/>
       <c r="E26" s="38"/>
@@ -5015,10 +9632,10 @@
     </row>
     <row r="29" spans="1:33" ht="18">
       <c r="A29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D29" s="38"/>
       <c r="E29" s="38"/>
@@ -5053,10 +9670,10 @@
     </row>
     <row r="30" spans="1:33" ht="18">
       <c r="A30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="D30" s="38"/>
       <c r="E30" s="38"/>
@@ -5092,7 +9709,7 @@
     <row r="31" spans="1:33" ht="18.75">
       <c r="A31" s="3"/>
       <c r="B31" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D31" s="38"/>
       <c r="E31" s="38"/>
@@ -5128,7 +9745,7 @@
     <row r="32" spans="1:33" ht="18.75">
       <c r="A32" s="3"/>
       <c r="B32" s="30" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="D32" s="38"/>
       <c r="E32" s="38"/>
@@ -5164,7 +9781,7 @@
     <row r="33" spans="1:53" ht="18.75">
       <c r="A33" s="3"/>
       <c r="B33" s="30" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="D33" s="38"/>
       <c r="E33" s="38"/>
@@ -5267,10 +9884,10 @@
     </row>
     <row r="35" spans="1:53" ht="18.75">
       <c r="A35" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="D35" s="38"/>
       <c r="E35" s="38"/>
@@ -5305,7 +9922,7 @@
       <c r="AK35" s="11"/>
       <c r="AL35" s="11"/>
       <c r="AM35" s="12" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="AN35" s="13"/>
       <c r="AO35" s="13"/>
@@ -5324,10 +9941,10 @@
     </row>
     <row r="36" spans="1:53" ht="18.75">
       <c r="A36" s="3" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D36" s="38"/>
       <c r="E36" s="38"/>
@@ -5380,7 +9997,7 @@
     <row r="37" spans="1:53" ht="18.75">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D37" s="38"/>
       <c r="E37" s="38"/>
@@ -5416,7 +10033,7 @@
         <v>1</v>
       </c>
       <c r="AL37" s="11" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="AM37" s="11"/>
       <c r="AN37" s="11"/>
@@ -5471,7 +10088,7 @@
         <v>2</v>
       </c>
       <c r="AL38" s="11" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="AM38" s="11"/>
       <c r="AN38" s="11"/>
@@ -5524,7 +10141,7 @@
         <v>3</v>
       </c>
       <c r="AL39" s="11" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="AM39" s="11"/>
       <c r="AN39" s="11"/>
@@ -5577,7 +10194,7 @@
         <v>4</v>
       </c>
       <c r="AL40" s="11" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="AM40" s="11"/>
       <c r="AN40" s="11"/>
@@ -5630,7 +10247,7 @@
         <v>5</v>
       </c>
       <c r="AL41" s="11" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="AM41" s="11"/>
       <c r="AN41" s="11"/>
@@ -5683,7 +10300,7 @@
         <v>6</v>
       </c>
       <c r="AL42" s="11" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="AM42" s="11"/>
       <c r="AN42" s="11"/>
@@ -5736,7 +10353,7 @@
         <v>7</v>
       </c>
       <c r="AL43" s="11" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="AM43" s="11"/>
       <c r="AN43" s="11"/>
@@ -5787,7 +10404,7 @@
       <c r="AG44" s="38"/>
       <c r="AK44" s="11"/>
       <c r="AL44" s="33" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="AM44" s="11"/>
       <c r="AN44" s="11"/>
@@ -5807,7 +10424,7 @@
     </row>
     <row r="45" spans="1:53" ht="25.5">
       <c r="B45" s="25" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="D45" s="38"/>
       <c r="E45" s="38"/>
@@ -5843,7 +10460,7 @@
         <v>8</v>
       </c>
       <c r="AL45" s="11" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="AM45" s="11"/>
       <c r="AN45" s="11"/>
@@ -5896,7 +10513,7 @@
         <v>9</v>
       </c>
       <c r="AL46" s="11" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="AM46" s="11"/>
       <c r="AN46" s="11"/>
@@ -5950,7 +10567,7 @@
         <v>10</v>
       </c>
       <c r="AL47" s="11" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="AM47" s="11"/>
       <c r="AN47" s="11"/>
@@ -5970,7 +10587,7 @@
     </row>
     <row r="48" spans="1:53" ht="21">
       <c r="A48" s="27" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B48" s="26"/>
       <c r="D48" s="38"/>
@@ -6007,7 +10624,7 @@
         <v>11</v>
       </c>
       <c r="AL48" s="11" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="AM48" s="11"/>
       <c r="AN48" s="11"/>
@@ -6762,7 +11379,7 @@
     <row r="71" spans="1:33" ht="36.75">
       <c r="B71" s="26"/>
       <c r="D71" s="34" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="1:33">
@@ -6968,7 +11585,7 @@
     </row>
     <row r="79" spans="1:33" ht="21">
       <c r="A79" s="27" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B79" s="28"/>
       <c r="D79" s="39"/>
@@ -7952,7 +12569,7 @@
     </row>
     <row r="113" spans="1:33" ht="21">
       <c r="A113" s="27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B113" s="31"/>
       <c r="D113" s="39"/>
@@ -8227,7 +12844,7 @@
     <row r="125" spans="1:33" ht="33">
       <c r="B125" s="31"/>
       <c r="D125" s="35" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
     </row>
     <row r="126" spans="1:33">
@@ -8748,7 +13365,7 @@
     </row>
     <row r="144" spans="1:33" ht="18.75">
       <c r="A144" s="3" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B144" s="32"/>
       <c r="E144" s="36"/>
@@ -9224,964 +13841,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36926E04-CA90-4C00-B9CA-D6AA30EAC21F}">
-  <dimension ref="A1:AX172"/>
-  <sheetViews>
-    <sheetView topLeftCell="L44" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="1" width="35.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="178.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" style="3" customWidth="1"/>
-    <col min="4" max="32" width="9.140625" style="3"/>
-    <col min="33" max="33" width="20.85546875" style="3" customWidth="1"/>
-    <col min="34" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="B3" s="18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="B5" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="B11" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="B12" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="B13" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="25.5">
-      <c r="B19" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="B20" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="B30" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="B31" s="17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="B32" s="17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="B36" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="B37" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="1:2" ht="44.25">
-      <c r="A39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="B40" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41"/>
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="B45" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="B46" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="1:50">
-      <c r="AG49" s="11"/>
-      <c r="AH49" s="11"/>
-      <c r="AI49" s="11"/>
-      <c r="AJ49" s="11"/>
-      <c r="AK49" s="11"/>
-      <c r="AL49" s="11"/>
-      <c r="AM49" s="11"/>
-      <c r="AN49" s="11"/>
-      <c r="AO49" s="11"/>
-      <c r="AP49" s="11"/>
-      <c r="AQ49" s="11"/>
-      <c r="AR49" s="11"/>
-      <c r="AS49" s="11"/>
-      <c r="AT49" s="11"/>
-      <c r="AU49" s="11"/>
-      <c r="AV49" s="11"/>
-      <c r="AW49" s="11"/>
-      <c r="AX49" s="11"/>
-    </row>
-    <row r="50" spans="1:50">
-      <c r="AG50" s="11"/>
-      <c r="AH50" s="11"/>
-      <c r="AI50" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ50" s="13"/>
-      <c r="AK50" s="13"/>
-      <c r="AL50" s="13"/>
-      <c r="AM50" s="11"/>
-      <c r="AN50" s="11"/>
-      <c r="AO50" s="11"/>
-      <c r="AP50" s="11"/>
-      <c r="AQ50" s="11"/>
-      <c r="AR50" s="11"/>
-      <c r="AS50" s="11"/>
-      <c r="AT50" s="11"/>
-      <c r="AU50" s="11"/>
-      <c r="AV50" s="11"/>
-      <c r="AW50" s="11"/>
-      <c r="AX50" s="11"/>
-    </row>
-    <row r="51" spans="1:50">
-      <c r="B51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG51" s="11"/>
-      <c r="AH51" s="11"/>
-      <c r="AI51" s="11"/>
-      <c r="AJ51" s="11"/>
-      <c r="AK51" s="11"/>
-      <c r="AL51" s="11"/>
-      <c r="AM51" s="11"/>
-      <c r="AN51" s="11"/>
-      <c r="AO51" s="11"/>
-      <c r="AP51" s="11"/>
-      <c r="AQ51" s="11"/>
-      <c r="AR51" s="11"/>
-      <c r="AS51" s="11"/>
-      <c r="AT51" s="11"/>
-      <c r="AU51" s="11"/>
-      <c r="AV51" s="11"/>
-      <c r="AW51" s="11"/>
-      <c r="AX51" s="11"/>
-    </row>
-    <row r="52" spans="1:50">
-      <c r="AG52" s="11">
-        <v>1</v>
-      </c>
-      <c r="AH52" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI52" s="11"/>
-      <c r="AJ52" s="11"/>
-      <c r="AK52" s="11"/>
-      <c r="AL52" s="11"/>
-      <c r="AM52" s="11"/>
-      <c r="AN52" s="11"/>
-      <c r="AO52" s="11"/>
-      <c r="AP52" s="11"/>
-      <c r="AQ52" s="11"/>
-      <c r="AR52" s="11"/>
-      <c r="AS52" s="11"/>
-      <c r="AT52" s="11"/>
-      <c r="AU52" s="11"/>
-      <c r="AV52" s="11"/>
-      <c r="AW52" s="11"/>
-      <c r="AX52" s="11"/>
-    </row>
-    <row r="53" spans="1:50">
-      <c r="AG53" s="11">
-        <v>2</v>
-      </c>
-      <c r="AH53" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI53" s="11"/>
-      <c r="AJ53" s="11"/>
-      <c r="AK53" s="11"/>
-      <c r="AL53" s="11"/>
-      <c r="AM53" s="11"/>
-      <c r="AN53" s="11"/>
-      <c r="AO53" s="11"/>
-      <c r="AP53" s="11"/>
-      <c r="AQ53" s="11"/>
-      <c r="AR53" s="11"/>
-      <c r="AS53" s="11"/>
-      <c r="AT53" s="11"/>
-      <c r="AU53" s="11"/>
-      <c r="AV53" s="11"/>
-      <c r="AW53" s="11"/>
-      <c r="AX53" s="11"/>
-    </row>
-    <row r="54" spans="1:50">
-      <c r="AG54" s="11">
-        <v>3</v>
-      </c>
-      <c r="AH54" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI54" s="11"/>
-      <c r="AJ54" s="11"/>
-      <c r="AK54" s="11"/>
-      <c r="AL54" s="11"/>
-      <c r="AM54" s="11"/>
-      <c r="AN54" s="11"/>
-      <c r="AO54" s="11"/>
-      <c r="AP54" s="11"/>
-      <c r="AQ54" s="11"/>
-      <c r="AR54" s="11"/>
-      <c r="AS54" s="11"/>
-      <c r="AT54" s="11"/>
-      <c r="AU54" s="11"/>
-      <c r="AV54" s="11"/>
-      <c r="AW54" s="11"/>
-      <c r="AX54" s="11"/>
-    </row>
-    <row r="55" spans="1:50">
-      <c r="D55" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG55" s="11">
-        <v>4</v>
-      </c>
-      <c r="AH55" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI55" s="11"/>
-      <c r="AJ55" s="11"/>
-      <c r="AK55" s="11"/>
-      <c r="AL55" s="11"/>
-      <c r="AM55" s="11"/>
-      <c r="AN55" s="11"/>
-      <c r="AO55" s="11"/>
-      <c r="AP55" s="11"/>
-      <c r="AQ55" s="11"/>
-      <c r="AR55" s="11"/>
-      <c r="AS55" s="11"/>
-      <c r="AT55" s="11"/>
-      <c r="AU55" s="11"/>
-      <c r="AV55" s="11"/>
-      <c r="AW55" s="11"/>
-      <c r="AX55" s="11"/>
-    </row>
-    <row r="56" spans="1:50">
-      <c r="AG56" s="11">
-        <v>5</v>
-      </c>
-      <c r="AH56" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="AI56" s="11"/>
-      <c r="AJ56" s="11"/>
-      <c r="AK56" s="11"/>
-      <c r="AL56" s="11"/>
-      <c r="AM56" s="11"/>
-      <c r="AN56" s="11"/>
-      <c r="AO56" s="11"/>
-      <c r="AP56" s="11"/>
-      <c r="AQ56" s="11"/>
-      <c r="AR56" s="11"/>
-      <c r="AS56" s="11"/>
-      <c r="AT56" s="11"/>
-      <c r="AU56" s="11"/>
-      <c r="AV56" s="11"/>
-      <c r="AW56" s="11"/>
-      <c r="AX56" s="11"/>
-    </row>
-    <row r="57" spans="1:50">
-      <c r="A57" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG57" s="11">
-        <v>6</v>
-      </c>
-      <c r="AH57" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI57" s="11"/>
-      <c r="AJ57" s="11"/>
-      <c r="AK57" s="11"/>
-      <c r="AL57" s="11"/>
-      <c r="AM57" s="11"/>
-      <c r="AN57" s="11"/>
-      <c r="AO57" s="11"/>
-      <c r="AP57" s="11"/>
-      <c r="AQ57" s="11"/>
-      <c r="AR57" s="11"/>
-      <c r="AS57" s="11"/>
-      <c r="AT57" s="11"/>
-      <c r="AU57" s="11"/>
-      <c r="AV57" s="11"/>
-      <c r="AW57" s="11"/>
-      <c r="AX57" s="11"/>
-    </row>
-    <row r="58" spans="1:50">
-      <c r="AG58" s="11">
-        <v>7</v>
-      </c>
-      <c r="AH58" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI58" s="11"/>
-      <c r="AJ58" s="11"/>
-      <c r="AK58" s="11"/>
-      <c r="AL58" s="11"/>
-      <c r="AM58" s="11"/>
-      <c r="AN58" s="11"/>
-      <c r="AO58" s="11"/>
-      <c r="AP58" s="11"/>
-      <c r="AQ58" s="11"/>
-      <c r="AR58" s="11"/>
-      <c r="AS58" s="11"/>
-      <c r="AT58" s="11"/>
-      <c r="AU58" s="11"/>
-      <c r="AV58" s="11"/>
-      <c r="AW58" s="11"/>
-      <c r="AX58" s="11"/>
-    </row>
-    <row r="59" spans="1:50">
-      <c r="AG59" s="11">
-        <v>8</v>
-      </c>
-      <c r="AH59" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="AI59" s="11"/>
-      <c r="AJ59" s="11"/>
-      <c r="AK59" s="11"/>
-      <c r="AL59" s="11"/>
-      <c r="AM59" s="11"/>
-      <c r="AN59" s="11"/>
-      <c r="AO59" s="11"/>
-      <c r="AP59" s="11"/>
-      <c r="AQ59" s="11"/>
-      <c r="AR59" s="11"/>
-      <c r="AS59" s="11"/>
-      <c r="AT59" s="11"/>
-      <c r="AU59" s="11"/>
-      <c r="AV59" s="11"/>
-      <c r="AW59" s="11"/>
-      <c r="AX59" s="11"/>
-    </row>
-    <row r="60" spans="1:50">
-      <c r="AG60" s="11">
-        <v>9</v>
-      </c>
-      <c r="AH60" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI60" s="11"/>
-      <c r="AJ60" s="11"/>
-      <c r="AK60" s="11"/>
-      <c r="AL60" s="11"/>
-      <c r="AM60" s="11"/>
-      <c r="AN60" s="11"/>
-      <c r="AO60" s="11"/>
-      <c r="AP60" s="11"/>
-      <c r="AQ60" s="11"/>
-      <c r="AR60" s="11"/>
-      <c r="AS60" s="11"/>
-      <c r="AT60" s="11"/>
-      <c r="AU60" s="11"/>
-      <c r="AV60" s="11"/>
-      <c r="AW60" s="11"/>
-      <c r="AX60" s="11"/>
-    </row>
-    <row r="61" spans="1:50">
-      <c r="AG61" s="11">
-        <v>10</v>
-      </c>
-      <c r="AH61" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI61" s="11"/>
-      <c r="AJ61" s="11"/>
-      <c r="AK61" s="11"/>
-      <c r="AL61" s="11"/>
-      <c r="AM61" s="11"/>
-      <c r="AN61" s="11"/>
-      <c r="AO61" s="11"/>
-      <c r="AP61" s="11"/>
-      <c r="AQ61" s="11"/>
-      <c r="AR61" s="11"/>
-      <c r="AS61" s="11"/>
-      <c r="AT61" s="11"/>
-      <c r="AU61" s="11"/>
-      <c r="AV61" s="11"/>
-      <c r="AW61" s="11"/>
-      <c r="AX61" s="11"/>
-    </row>
-    <row r="62" spans="1:50">
-      <c r="AG62" s="11">
-        <v>11</v>
-      </c>
-      <c r="AH62" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI62" s="11"/>
-      <c r="AJ62" s="11"/>
-      <c r="AK62" s="11"/>
-      <c r="AL62" s="11"/>
-      <c r="AM62" s="11"/>
-      <c r="AN62" s="11"/>
-      <c r="AO62" s="11"/>
-      <c r="AP62" s="11"/>
-      <c r="AQ62" s="11"/>
-      <c r="AR62" s="11"/>
-      <c r="AS62" s="11"/>
-      <c r="AT62" s="11"/>
-      <c r="AU62" s="11"/>
-      <c r="AV62" s="11"/>
-      <c r="AW62" s="11"/>
-      <c r="AX62" s="11"/>
-    </row>
-    <row r="63" spans="1:50">
-      <c r="AG63" s="11">
-        <v>12</v>
-      </c>
-      <c r="AH63" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="AI63" s="11"/>
-      <c r="AJ63" s="11"/>
-      <c r="AK63" s="11"/>
-      <c r="AL63" s="11"/>
-      <c r="AM63" s="11"/>
-      <c r="AN63" s="11"/>
-      <c r="AO63" s="11"/>
-      <c r="AP63" s="11"/>
-      <c r="AQ63" s="11"/>
-      <c r="AR63" s="11"/>
-      <c r="AS63" s="11"/>
-      <c r="AT63" s="11"/>
-      <c r="AU63" s="11"/>
-      <c r="AV63" s="11"/>
-      <c r="AW63" s="11"/>
-      <c r="AX63" s="11"/>
-    </row>
-    <row r="64" spans="1:50">
-      <c r="AG64" s="11">
-        <v>13</v>
-      </c>
-      <c r="AH64" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI64" s="11"/>
-      <c r="AJ64" s="11"/>
-      <c r="AK64" s="11"/>
-      <c r="AL64" s="11"/>
-      <c r="AM64" s="11"/>
-      <c r="AN64" s="11"/>
-      <c r="AO64" s="11"/>
-      <c r="AP64" s="11"/>
-      <c r="AQ64" s="11"/>
-      <c r="AR64" s="11"/>
-      <c r="AS64" s="11"/>
-      <c r="AT64" s="11"/>
-      <c r="AU64" s="11"/>
-      <c r="AV64" s="11"/>
-      <c r="AW64" s="11"/>
-      <c r="AX64" s="11"/>
-    </row>
-    <row r="65" spans="1:50">
-      <c r="AG65" s="11">
-        <v>14</v>
-      </c>
-      <c r="AH65" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI65" s="11"/>
-      <c r="AJ65" s="11"/>
-      <c r="AK65" s="11"/>
-      <c r="AL65" s="11"/>
-      <c r="AM65" s="11"/>
-      <c r="AN65" s="11"/>
-      <c r="AO65" s="11"/>
-      <c r="AP65" s="11"/>
-      <c r="AQ65" s="11"/>
-      <c r="AR65" s="11"/>
-      <c r="AS65" s="11"/>
-      <c r="AT65" s="11"/>
-      <c r="AU65" s="11"/>
-      <c r="AV65" s="11"/>
-      <c r="AW65" s="11"/>
-      <c r="AX65" s="11"/>
-    </row>
-    <row r="66" spans="1:50">
-      <c r="AG66" s="11"/>
-      <c r="AH66" s="11"/>
-      <c r="AI66" s="11"/>
-      <c r="AJ66" s="11"/>
-      <c r="AK66" s="11"/>
-      <c r="AL66" s="11"/>
-      <c r="AM66" s="11"/>
-      <c r="AN66" s="11"/>
-      <c r="AO66" s="11"/>
-      <c r="AP66" s="11"/>
-      <c r="AQ66" s="11"/>
-      <c r="AR66" s="11"/>
-      <c r="AS66" s="11"/>
-      <c r="AT66" s="11"/>
-      <c r="AU66" s="11"/>
-      <c r="AV66" s="11"/>
-      <c r="AW66" s="11"/>
-      <c r="AX66" s="11"/>
-    </row>
-    <row r="67" spans="1:50">
-      <c r="AG67" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="AH67" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI67" s="11"/>
-      <c r="AJ67" s="11"/>
-      <c r="AK67" s="11"/>
-      <c r="AL67" s="11"/>
-      <c r="AM67" s="11"/>
-      <c r="AN67" s="11"/>
-      <c r="AO67" s="11"/>
-      <c r="AP67" s="11"/>
-      <c r="AQ67" s="11"/>
-      <c r="AR67" s="11"/>
-      <c r="AS67" s="11"/>
-      <c r="AT67" s="11"/>
-      <c r="AU67" s="11"/>
-      <c r="AV67" s="11"/>
-      <c r="AW67" s="11"/>
-      <c r="AX67" s="11"/>
-    </row>
-    <row r="68" spans="1:50">
-      <c r="AG68" s="11"/>
-      <c r="AH68" s="11"/>
-      <c r="AI68" s="11"/>
-      <c r="AJ68" s="11"/>
-      <c r="AK68" s="11"/>
-      <c r="AL68" s="11"/>
-      <c r="AM68" s="11"/>
-      <c r="AN68" s="11"/>
-      <c r="AO68" s="11"/>
-      <c r="AP68" s="11"/>
-      <c r="AQ68" s="11"/>
-      <c r="AR68" s="11"/>
-      <c r="AS68" s="11"/>
-      <c r="AT68" s="11"/>
-      <c r="AU68" s="11"/>
-      <c r="AV68" s="11"/>
-      <c r="AW68" s="11"/>
-      <c r="AX68" s="11"/>
-    </row>
-    <row r="75" spans="1:50">
-      <c r="A75" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="B75" s="24"/>
-    </row>
-    <row r="76" spans="1:50">
-      <c r="B76" s="24"/>
-    </row>
-    <row r="77" spans="1:50">
-      <c r="B77" s="24"/>
-    </row>
-    <row r="78" spans="1:50">
-      <c r="B78" s="24"/>
-    </row>
-    <row r="79" spans="1:50">
-      <c r="B79" s="24"/>
-    </row>
-    <row r="80" spans="1:50">
-      <c r="B80" s="24"/>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="B81" s="24"/>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="B82" s="24"/>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="B83" s="24"/>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="B84" s="24"/>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="B85" s="24"/>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="B86" s="24"/>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="B87" s="24"/>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="B88" s="24"/>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="B89" s="24"/>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="B90" s="24"/>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="B91" s="24"/>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="B92" s="24"/>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="B93" s="24"/>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="B94" s="24"/>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="B95" s="24"/>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="B96" s="24"/>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="B97" s="24"/>
-      <c r="E97" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="B98" s="24"/>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="B105" s="23"/>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B106" s="23"/>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="B107" s="23"/>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="B108" s="23"/>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="B109" s="23"/>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="B110" s="23"/>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="B111" s="23"/>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="B112" s="23"/>
-    </row>
-    <row r="113" spans="2:2">
-      <c r="B113" s="23"/>
-    </row>
-    <row r="114" spans="2:2">
-      <c r="B114" s="23"/>
-    </row>
-    <row r="115" spans="2:2">
-      <c r="B115" s="23"/>
-    </row>
-    <row r="116" spans="2:2">
-      <c r="B116" s="23"/>
-    </row>
-    <row r="117" spans="2:2">
-      <c r="B117" s="23"/>
-    </row>
-    <row r="118" spans="2:2">
-      <c r="B118" s="23"/>
-    </row>
-    <row r="119" spans="2:2">
-      <c r="B119" s="23"/>
-    </row>
-    <row r="120" spans="2:2">
-      <c r="B120" s="23"/>
-    </row>
-    <row r="121" spans="2:2">
-      <c r="B121" s="23"/>
-    </row>
-    <row r="122" spans="2:2">
-      <c r="B122" s="23"/>
-    </row>
-    <row r="123" spans="2:2">
-      <c r="B123" s="23"/>
-    </row>
-    <row r="124" spans="2:2">
-      <c r="B124" s="23"/>
-    </row>
-    <row r="125" spans="2:2">
-      <c r="B125" s="23"/>
-    </row>
-    <row r="126" spans="2:2">
-      <c r="B126" s="23"/>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="B131" s="22"/>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B132" s="22"/>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="B133" s="22"/>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="B134" s="22"/>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="B135" s="22"/>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="B136" s="22"/>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="B137" s="22"/>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="B138" s="22"/>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="B139" s="22"/>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="B140" s="22"/>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="B141" s="22"/>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="B142" s="22"/>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="B143" s="22"/>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="B144" s="22"/>
-    </row>
-    <row r="145" spans="2:2">
-      <c r="B145" s="22"/>
-    </row>
-    <row r="146" spans="2:2">
-      <c r="B146" s="22"/>
-    </row>
-    <row r="147" spans="2:2">
-      <c r="B147" s="22"/>
-    </row>
-    <row r="148" spans="2:2">
-      <c r="B148" s="22"/>
-    </row>
-    <row r="149" spans="2:2">
-      <c r="B149" s="22"/>
-    </row>
-    <row r="150" spans="2:2">
-      <c r="B150" s="22"/>
-    </row>
-    <row r="151" spans="2:2">
-      <c r="B151" s="22"/>
-    </row>
-    <row r="152" spans="2:2">
-      <c r="B152" s="22"/>
-    </row>
-    <row r="153" spans="2:2">
-      <c r="B153" s="22"/>
-    </row>
-    <row r="154" spans="2:2">
-      <c r="B154" s="22"/>
-    </row>
-    <row r="155" spans="2:2">
-      <c r="B155" s="22"/>
-    </row>
-    <row r="156" spans="2:2">
-      <c r="B156" s="22"/>
-    </row>
-    <row r="157" spans="2:2">
-      <c r="B157" s="22"/>
-    </row>
-    <row r="167" spans="20:21">
-      <c r="T167" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="172" spans="20:21">
-      <c r="U172" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{993709C1-C6B7-4A15-8237-BEE6A03D6F96}">
   <dimension ref="A1:AA137"/>
@@ -10211,10 +13870,10 @@
         <v>139</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="F1" s="42"/>
     </row>
@@ -10305,7 +13964,7 @@
     <row r="7" spans="1:27" ht="18.75">
       <c r="A7" s="17"/>
       <c r="B7" s="47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>155</v>
@@ -10418,10 +14077,10 @@
     </row>
     <row r="11" spans="1:27" ht="21" customHeight="1">
       <c r="A11" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>160</v>
@@ -10460,7 +14119,7 @@
         <v>164</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>165</v>
@@ -10497,7 +14156,7 @@
     <row r="13" spans="1:27" ht="21.75" customHeight="1">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>169</v>
@@ -10534,7 +14193,7 @@
     <row r="14" spans="1:27" ht="18" customHeight="1">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>173</v>
@@ -10657,7 +14316,7 @@
     </row>
     <row r="18" spans="1:27" ht="18.75">
       <c r="A18" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="14"/>
@@ -10688,10 +14347,10 @@
     </row>
     <row r="19" spans="1:27" ht="18.75">
       <c r="A19" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="47" t="s">
         <v>73</v>
-      </c>
-      <c r="B19" s="47" t="s">
-        <v>74</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>180</v>
@@ -10728,7 +14387,7 @@
     <row r="20" spans="1:27" ht="18.75">
       <c r="A20" s="17"/>
       <c r="B20" s="47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>183</v>
@@ -11032,10 +14691,10 @@
     </row>
     <row r="29" spans="1:27" ht="18.75">
       <c r="A29" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="47" t="s">
         <v>82</v>
-      </c>
-      <c r="B29" s="47" t="s">
-        <v>83</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>208</v>
@@ -11071,10 +14730,10 @@
     </row>
     <row r="30" spans="1:27" ht="18.75">
       <c r="A30" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="47" t="s">
         <v>84</v>
-      </c>
-      <c r="B30" s="47" t="s">
-        <v>85</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>210</v>
@@ -11111,7 +14770,7 @@
     <row r="31" spans="1:27" ht="18.75">
       <c r="A31" s="17"/>
       <c r="B31" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>214</v>
@@ -11148,7 +14807,7 @@
     <row r="32" spans="1:27" ht="18.75">
       <c r="A32" s="17"/>
       <c r="B32" s="40" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="C32" s="17" t="s">
         <v>218</v>
@@ -11185,7 +14844,7 @@
     <row r="33" spans="1:27" ht="18.75">
       <c r="A33" s="17"/>
       <c r="B33" s="40" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="C33" s="17" t="s">
         <v>222</v>
@@ -11250,10 +14909,10 @@
     </row>
     <row r="35" spans="1:27" ht="18.75">
       <c r="A35" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="17" t="s">
         <v>89</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>90</v>
       </c>
       <c r="C35" s="17" t="s">
         <v>227</v>
@@ -11285,10 +14944,10 @@
     </row>
     <row r="36" spans="1:27" ht="18.75">
       <c r="A36" s="17" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>229</v>
@@ -11325,7 +14984,7 @@
     <row r="37" spans="1:27" ht="18.75">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>233</v>
@@ -11406,7 +15065,7 @@
     </row>
     <row r="40" spans="1:27" ht="26.25">
       <c r="B40" s="41" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C40" s="15"/>
       <c r="E40" s="15"/>
@@ -11440,7 +15099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E2053A0-5113-459B-BA42-3BA7767703C4}">
   <dimension ref="A1:AB137"/>
   <sheetViews>
-    <sheetView topLeftCell="B59" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -11463,10 +15122,10 @@
         <v>139</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="F1" s="42"/>
     </row>
@@ -11557,7 +15216,7 @@
     <row r="7" spans="1:28" ht="18.75">
       <c r="A7" s="17"/>
       <c r="B7" s="47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>155</v>
@@ -11665,10 +15324,10 @@
     </row>
     <row r="11" spans="1:28" ht="21" customHeight="1">
       <c r="A11" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>160</v>
@@ -11706,7 +15365,7 @@
         <v>164</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>165</v>
@@ -11740,7 +15399,7 @@
     <row r="13" spans="1:28" ht="21.75" customHeight="1">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>169</v>
@@ -11778,7 +15437,7 @@
     <row r="14" spans="1:28" ht="18" customHeight="1">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>173</v>
@@ -11905,7 +15564,7 @@
     </row>
     <row r="18" spans="1:28" ht="18.75">
       <c r="A18" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="14"/>
@@ -11917,7 +15576,7 @@
         <v>6</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
@@ -11937,10 +15596,10 @@
     </row>
     <row r="19" spans="1:28" ht="18.75">
       <c r="A19" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="47" t="s">
         <v>73</v>
-      </c>
-      <c r="B19" s="47" t="s">
-        <v>74</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>180</v>
@@ -11957,7 +15616,7 @@
         <v>7</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
@@ -11978,7 +15637,7 @@
     <row r="20" spans="1:28" ht="18.75">
       <c r="A20" s="17"/>
       <c r="B20" s="47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>183</v>
@@ -12291,10 +15950,10 @@
     </row>
     <row r="29" spans="1:28" ht="18.75">
       <c r="A29" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="47" t="s">
         <v>82</v>
-      </c>
-      <c r="B29" s="47" t="s">
-        <v>83</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>208</v>
@@ -12331,10 +15990,10 @@
     </row>
     <row r="30" spans="1:28" ht="18.75">
       <c r="A30" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="47" t="s">
         <v>84</v>
-      </c>
-      <c r="B30" s="47" t="s">
-        <v>85</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>210</v>
@@ -12372,7 +16031,7 @@
     <row r="31" spans="1:28" ht="18.75">
       <c r="A31" s="17"/>
       <c r="B31" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>214</v>
@@ -12410,7 +16069,7 @@
     <row r="32" spans="1:28" ht="18.75">
       <c r="A32" s="17"/>
       <c r="B32" s="40" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="C32" s="17" t="s">
         <v>218</v>
@@ -12448,7 +16107,7 @@
     <row r="33" spans="1:28" ht="18.75">
       <c r="A33" s="17"/>
       <c r="B33" s="40" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="C33" s="17" t="s">
         <v>222</v>
@@ -12515,10 +16174,10 @@
     </row>
     <row r="35" spans="1:28" ht="18.75">
       <c r="A35" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="17" t="s">
         <v>89</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>90</v>
       </c>
       <c r="C35" s="17" t="s">
         <v>227</v>
@@ -12547,10 +16206,10 @@
     </row>
     <row r="36" spans="1:28" ht="18.75">
       <c r="A36" s="17" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>229</v>
@@ -12583,7 +16242,7 @@
     <row r="37" spans="1:28" ht="18.75">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>233</v>
@@ -12656,7 +16315,7 @@
     </row>
     <row r="40" spans="1:28" ht="26.25">
       <c r="B40" s="41" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C40" s="15"/>
       <c r="E40" s="15"/>
@@ -12690,7 +16349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443E481D-CB9A-4E23-B5C3-2822F01A6396}">
   <dimension ref="A1:AB137"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B33" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -12715,10 +16374,10 @@
         <v>139</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="F1" s="42"/>
     </row>
@@ -12809,7 +16468,7 @@
     <row r="7" spans="1:28" ht="18.75">
       <c r="A7" s="17"/>
       <c r="B7" s="47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>155</v>
@@ -12920,10 +16579,10 @@
     </row>
     <row r="11" spans="1:28" ht="21" customHeight="1">
       <c r="A11" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>160</v>
@@ -12961,7 +16620,7 @@
         <v>164</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>165</v>
@@ -12995,7 +16654,7 @@
     <row r="13" spans="1:28" ht="21.75" customHeight="1">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>169</v>
@@ -13033,7 +16692,7 @@
     <row r="14" spans="1:28" ht="18" customHeight="1">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>173</v>
@@ -13160,7 +16819,7 @@
     </row>
     <row r="18" spans="1:28" ht="18.75">
       <c r="A18" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="14"/>
@@ -13192,10 +16851,10 @@
     </row>
     <row r="19" spans="1:28" ht="18.75">
       <c r="A19" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="47" t="s">
         <v>73</v>
-      </c>
-      <c r="B19" s="47" t="s">
-        <v>74</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>180</v>
@@ -13233,7 +16892,7 @@
     <row r="20" spans="1:28" ht="18.75">
       <c r="A20" s="17"/>
       <c r="B20" s="47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>183</v>
@@ -13527,10 +17186,10 @@
     </row>
     <row r="29" spans="1:28" ht="18.75">
       <c r="A29" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="47" t="s">
         <v>82</v>
-      </c>
-      <c r="B29" s="47" t="s">
-        <v>83</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>208</v>
@@ -13545,10 +17204,10 @@
     </row>
     <row r="30" spans="1:28" ht="18.75">
       <c r="A30" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="47" t="s">
         <v>84</v>
-      </c>
-      <c r="B30" s="47" t="s">
-        <v>85</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>210</v>
@@ -13564,7 +17223,7 @@
     <row r="31" spans="1:28" ht="18.75">
       <c r="A31" s="17"/>
       <c r="B31" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>214</v>
@@ -13580,7 +17239,7 @@
     <row r="32" spans="1:28" ht="18.75">
       <c r="A32" s="17"/>
       <c r="B32" s="40" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="C32" s="17" t="s">
         <v>218</v>
@@ -13596,7 +17255,7 @@
     <row r="33" spans="1:6" ht="18.75">
       <c r="A33" s="17"/>
       <c r="B33" s="40" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="C33" s="17" t="s">
         <v>222</v>
@@ -13619,10 +17278,10 @@
     </row>
     <row r="35" spans="1:6" ht="18.75">
       <c r="A35" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="17" t="s">
         <v>89</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>90</v>
       </c>
       <c r="C35" s="17" t="s">
         <v>227</v>
@@ -13633,10 +17292,10 @@
     </row>
     <row r="36" spans="1:6" ht="18.75">
       <c r="A36" s="17" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>229</v>
@@ -13652,7 +17311,7 @@
     <row r="37" spans="1:6" ht="18.75">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>233</v>
@@ -13691,7 +17350,7 @@
     </row>
     <row r="40" spans="1:6" ht="26.25">
       <c r="B40" s="41" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C40" s="15"/>
       <c r="E40" s="15"/>
@@ -13751,10 +17410,10 @@
         <v>139</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="F1" s="42"/>
     </row>
@@ -13781,7 +17440,7 @@
         <v>57</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>285</v>
@@ -13930,7 +17589,7 @@
     </row>
     <row r="8" spans="1:28" ht="21" customHeight="1">
       <c r="A8" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8" s="44" t="s">
         <v>299</v>
@@ -14184,7 +17843,7 @@
     </row>
     <row r="15" spans="1:28" ht="18.75">
       <c r="A15" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="14"/>
@@ -14216,10 +17875,10 @@
     </row>
     <row r="16" spans="1:28" ht="18.75">
       <c r="A16" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="47" t="s">
         <v>73</v>
-      </c>
-      <c r="B16" s="47" t="s">
-        <v>74</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>180</v>
@@ -14257,7 +17916,7 @@
     <row r="17" spans="1:28" ht="18.75">
       <c r="A17" s="17"/>
       <c r="B17" s="47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>183</v>
@@ -14551,10 +18210,10 @@
     </row>
     <row r="26" spans="1:28" ht="18.75">
       <c r="A26" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="47" t="s">
         <v>82</v>
-      </c>
-      <c r="B26" s="47" t="s">
-        <v>83</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>208</v>
@@ -14569,10 +18228,10 @@
     </row>
     <row r="27" spans="1:28" ht="18.75">
       <c r="A27" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="47" t="s">
         <v>84</v>
-      </c>
-      <c r="B27" s="47" t="s">
-        <v>85</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>210</v>
@@ -14588,7 +18247,7 @@
     <row r="28" spans="1:28" ht="18.75">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>214</v>
@@ -14604,7 +18263,7 @@
     <row r="29" spans="1:28" ht="18.75">
       <c r="A29" s="17"/>
       <c r="B29" s="40" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>218</v>
@@ -14620,7 +18279,7 @@
     <row r="30" spans="1:28" ht="18.75">
       <c r="A30" s="17"/>
       <c r="B30" s="40" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>222</v>
@@ -14643,10 +18302,10 @@
     </row>
     <row r="32" spans="1:28" ht="18.75">
       <c r="A32" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="17" t="s">
         <v>89</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>90</v>
       </c>
       <c r="C32" s="17" t="s">
         <v>227</v>
@@ -14657,10 +18316,10 @@
     </row>
     <row r="33" spans="1:6" ht="18.75">
       <c r="A33" s="17" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C33" s="17" t="s">
         <v>229</v>
@@ -14676,7 +18335,7 @@
     <row r="34" spans="1:6" ht="18.75">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C34" s="17" t="s">
         <v>233</v>
@@ -14742,7 +18401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA799802-B8AA-4F35-BAEB-F61B84E3C279}">
   <dimension ref="A1:AB134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -14768,10 +18427,10 @@
         <v>139</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="F1" s="42"/>
     </row>
@@ -14798,7 +18457,7 @@
         <v>57</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>285</v>
@@ -14947,7 +18606,7 @@
     </row>
     <row r="8" spans="1:28" ht="21" customHeight="1">
       <c r="A8" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8" s="44" t="s">
         <v>342</v>
@@ -15173,7 +18832,7 @@
     </row>
     <row r="15" spans="1:28" ht="18.75">
       <c r="A15" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="14"/>
@@ -15201,7 +18860,7 @@
     </row>
     <row r="16" spans="1:28" ht="18.75">
       <c r="A16" s="44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="47" t="s">
         <v>356</v>
@@ -15501,10 +19160,10 @@
     </row>
     <row r="26" spans="1:28" ht="18.75">
       <c r="A26" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="47" t="s">
         <v>82</v>
-      </c>
-      <c r="B26" s="47" t="s">
-        <v>83</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>372</v>
@@ -15519,10 +19178,10 @@
     </row>
     <row r="27" spans="1:28" ht="18.75">
       <c r="A27" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="47" t="s">
         <v>84</v>
-      </c>
-      <c r="B27" s="47" t="s">
-        <v>85</v>
       </c>
       <c r="C27" s="51" t="s">
         <v>374</v>
@@ -15538,7 +19197,7 @@
     <row r="28" spans="1:28" ht="18.75">
       <c r="A28" s="17"/>
       <c r="B28" s="40" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>218</v>
@@ -15589,7 +19248,7 @@
     </row>
     <row r="32" spans="1:28" ht="18.75">
       <c r="A32" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B32" s="17" t="s">
         <v>377</v>
@@ -15603,7 +19262,7 @@
     </row>
     <row r="33" spans="1:6" ht="18.75">
       <c r="A33" s="17" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="B33" s="17"/>
       <c r="C33" s="17" t="s">
@@ -15678,4 +19337,938 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2F9550-2F32-4EFD-AF15-B15A3879F4F0}">
+  <dimension ref="A1:AB134"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40.28515625" customWidth="1"/>
+    <col min="2" max="2" width="159.28515625" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" customWidth="1"/>
+    <col min="4" max="4" width="177.28515625" customWidth="1"/>
+    <col min="5" max="5" width="65.5703125" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" customWidth="1"/>
+    <col min="14" max="14" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="26.25">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="42"/>
+    </row>
+    <row r="2" spans="1:28" ht="18.75">
+      <c r="A2" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:28" ht="18.75">
+      <c r="A3" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:28" ht="18.75">
+      <c r="A4" s="17"/>
+      <c r="B4" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="O4" s="50"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="43"/>
+    </row>
+    <row r="5" spans="1:28" ht="18.75">
+      <c r="A5" s="17"/>
+      <c r="B5" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>293</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="K5" s="11">
+        <v>1</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="43"/>
+    </row>
+    <row r="6" spans="1:28" ht="18.75">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="14"/>
+      <c r="K6" s="11">
+        <v>2</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="43"/>
+    </row>
+    <row r="7" spans="1:28" ht="18.75">
+      <c r="A7" s="17"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="14"/>
+      <c r="K7" s="11">
+        <v>3</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+    </row>
+    <row r="8" spans="1:28" ht="21" customHeight="1">
+      <c r="A8" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>342</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="K8" s="11">
+        <v>4</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+    </row>
+    <row r="9" spans="1:28" ht="18.75">
+      <c r="A9" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="K9" s="11">
+        <v>5</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+    </row>
+    <row r="10" spans="1:28" ht="21.75" customHeight="1">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="14"/>
+      <c r="K10" s="11">
+        <v>6</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+    </row>
+    <row r="11" spans="1:28" ht="18" customHeight="1">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="14"/>
+      <c r="K11" s="11">
+        <v>7</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+    </row>
+    <row r="12" spans="1:28" ht="18.75">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="14"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+    </row>
+    <row r="13" spans="1:28" ht="18.75">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="14"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+    </row>
+    <row r="14" spans="1:28" ht="18.75">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="14"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+    </row>
+    <row r="15" spans="1:28" ht="18.75">
+      <c r="A15" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="14"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+    </row>
+    <row r="16" spans="1:28" ht="18.75">
+      <c r="A16" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>356</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+    </row>
+    <row r="17" spans="1:28" ht="18.75">
+      <c r="A17" s="17"/>
+      <c r="B17" s="47" t="s">
+        <v>360</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>362</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+    </row>
+    <row r="18" spans="1:28" ht="18.75">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+    </row>
+    <row r="19" spans="1:28" ht="18.75">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="14"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+    </row>
+    <row r="20" spans="1:28" ht="18.75">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="14"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+    </row>
+    <row r="21" spans="1:28" ht="18.75">
+      <c r="A21" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>367</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+    </row>
+    <row r="22" spans="1:28" ht="18.75">
+      <c r="A22" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+    </row>
+    <row r="23" spans="1:28" ht="18.75">
+      <c r="A23" s="17"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="F23" s="14"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+    </row>
+    <row r="24" spans="1:28" ht="18.75">
+      <c r="A24" s="17"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="14"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+    </row>
+    <row r="25" spans="1:28" ht="18.75">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="14"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+    </row>
+    <row r="26" spans="1:28" ht="18.75">
+      <c r="A26" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="1:28" ht="18.75">
+      <c r="A27" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="51" t="s">
+        <v>374</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:28" ht="18.75">
+      <c r="A28" s="17"/>
+      <c r="B28" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:28" ht="18.75">
+      <c r="A29" s="17"/>
+      <c r="B29" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:28" ht="18.75">
+      <c r="A30" s="17"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:28" ht="18.75">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:28" ht="18.75">
+      <c r="A32" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="1:6" ht="18.75">
+      <c r="A33" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="1:6" ht="18.75">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" spans="1:6" ht="18.75">
+      <c r="A35" s="17"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" spans="1:6" ht="18.75">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="14"/>
+    </row>
+    <row r="37" spans="1:6" ht="26.25">
+      <c r="B37" s="41"/>
+      <c r="C37" s="15"/>
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="1:6" ht="18.75">
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:6" ht="18.75">
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="1:6" ht="18.75">
+      <c r="E40" s="15"/>
+    </row>
+    <row r="97" spans="2:2" ht="26.25">
+      <c r="B97" s="41"/>
+    </row>
+    <row r="134" spans="2:2" ht="26.25">
+      <c r="B134" s="41"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>